--- a/ValidationAnalysis/SparseLandmarkingManualAndAutomaticv20180226LOO.xlsx
+++ b/ValidationAnalysis/SparseLandmarkingManualAndAutomaticv20180226LOO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\RemappingValidation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\MeshMonkValidation\ValidationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{721F134E-A094-4734-B26B-4C392B2EBD79}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD64BDFB-AAE2-4C79-A6BB-535354702045}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,111 @@
   </si>
   <si>
     <t>B_ml_x3</t>
+  </si>
+  <si>
+    <t>MM_124</t>
+  </si>
+  <si>
+    <t>MM_172</t>
+  </si>
+  <si>
+    <t>MM_130</t>
+  </si>
+  <si>
+    <t>MM_154</t>
+  </si>
+  <si>
+    <t>MM_156</t>
+  </si>
+  <si>
+    <t>MM_143</t>
+  </si>
+  <si>
+    <t>MM_137</t>
+  </si>
+  <si>
+    <t>MM_150</t>
+  </si>
+  <si>
+    <t>MM_153</t>
+  </si>
+  <si>
+    <t>MM_179</t>
+  </si>
+  <si>
+    <t>MM_188</t>
+  </si>
+  <si>
+    <t>MM_142</t>
+  </si>
+  <si>
+    <t>MM_155</t>
+  </si>
+  <si>
+    <t>MM_125</t>
+  </si>
+  <si>
+    <t>MM_175</t>
+  </si>
+  <si>
+    <t>MM_165</t>
+  </si>
+  <si>
+    <t>MM_147</t>
+  </si>
+  <si>
+    <t>MM_102</t>
+  </si>
+  <si>
+    <t>MM_189</t>
+  </si>
+  <si>
+    <t>MM_148</t>
+  </si>
+  <si>
+    <t>MM_170</t>
+  </si>
+  <si>
+    <t>MM_157</t>
+  </si>
+  <si>
+    <t>MM_177</t>
+  </si>
+  <si>
+    <t>MM_138</t>
+  </si>
+  <si>
+    <t>MM_182</t>
+  </si>
+  <si>
+    <t>MM_120</t>
+  </si>
+  <si>
+    <t>MM_173</t>
+  </si>
+  <si>
+    <t>MM_186</t>
+  </si>
+  <si>
+    <t>MM_132</t>
+  </si>
+  <si>
+    <t>MM_174</t>
+  </si>
+  <si>
+    <t>MM_200</t>
+  </si>
+  <si>
+    <t>MM_160</t>
+  </si>
+  <si>
+    <t>MM_193</t>
+  </si>
+  <si>
+    <t>MM_171</t>
+  </si>
+  <si>
+    <t>MM_141</t>
   </si>
 </sst>
 </file>
@@ -523,12 +628,12 @@
   <dimension ref="A1:AM780"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
@@ -666,8 +771,8 @@
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>61549</v>
+      <c r="A2" t="s">
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -785,8 +890,8 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>61549</v>
+      <c r="A3" t="s">
+        <v>58</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -904,8 +1009,8 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>61549</v>
+      <c r="A4" t="s">
+        <v>58</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1023,8 +1128,8 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>61549</v>
+      <c r="A5" t="s">
+        <v>58</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1142,8 +1247,8 @@
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>61549</v>
+      <c r="A6" t="s">
+        <v>58</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1261,8 +1366,8 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>61549</v>
+      <c r="A7" t="s">
+        <v>58</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1380,8 +1485,8 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>61549</v>
+      <c r="A8" t="s">
+        <v>58</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1499,8 +1604,8 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>61549</v>
+      <c r="A9" t="s">
+        <v>58</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1618,8 +1723,8 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>61549</v>
+      <c r="A10" t="s">
+        <v>58</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1737,8 +1842,8 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>61549</v>
+      <c r="A11" t="s">
+        <v>58</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1856,8 +1961,8 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>61549</v>
+      <c r="A12" t="s">
+        <v>58</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1975,8 +2080,8 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>61549</v>
+      <c r="A13" t="s">
+        <v>58</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2094,8 +2199,8 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>61549</v>
+      <c r="A14" t="s">
+        <v>58</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2213,8 +2318,8 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>61549</v>
+      <c r="A15" t="s">
+        <v>58</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2332,8 +2437,8 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>61549</v>
+      <c r="A16" t="s">
+        <v>58</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2451,8 +2556,8 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>61549</v>
+      <c r="A17" t="s">
+        <v>58</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2570,8 +2675,8 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>61549</v>
+      <c r="A18" t="s">
+        <v>58</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2689,8 +2794,8 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>61549</v>
+      <c r="A19" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2808,8 +2913,8 @@
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>61549</v>
+      <c r="A20" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2927,8 +3032,8 @@
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>61587</v>
+      <c r="A21" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3046,8 +3151,8 @@
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>61587</v>
+      <c r="A22" t="s">
+        <v>59</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -3165,8 +3270,8 @@
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>61587</v>
+      <c r="A23" t="s">
+        <v>59</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -3284,8 +3389,8 @@
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>61587</v>
+      <c r="A24" t="s">
+        <v>59</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -3403,8 +3508,8 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>61587</v>
+      <c r="A25" t="s">
+        <v>59</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -3522,8 +3627,8 @@
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>61587</v>
+      <c r="A26" t="s">
+        <v>59</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -3641,8 +3746,8 @@
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>61587</v>
+      <c r="A27" t="s">
+        <v>59</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -3760,8 +3865,8 @@
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>61587</v>
+      <c r="A28" t="s">
+        <v>59</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -3879,8 +3984,8 @@
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>61587</v>
+      <c r="A29" t="s">
+        <v>59</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -3998,8 +4103,8 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>61587</v>
+      <c r="A30" t="s">
+        <v>59</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -4117,8 +4222,8 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>61587</v>
+      <c r="A31" t="s">
+        <v>59</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -4236,8 +4341,8 @@
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>61587</v>
+      <c r="A32" t="s">
+        <v>59</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -4355,8 +4460,8 @@
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>61587</v>
+      <c r="A33" t="s">
+        <v>59</v>
       </c>
       <c r="B33">
         <v>13</v>
@@ -4474,8 +4579,8 @@
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>61587</v>
+      <c r="A34" t="s">
+        <v>59</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -4593,8 +4698,8 @@
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>61587</v>
+      <c r="A35" t="s">
+        <v>59</v>
       </c>
       <c r="B35">
         <v>15</v>
@@ -4712,8 +4817,8 @@
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>61587</v>
+      <c r="A36" t="s">
+        <v>59</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -4831,8 +4936,8 @@
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>61587</v>
+      <c r="A37" t="s">
+        <v>59</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -4950,8 +5055,8 @@
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>61587</v>
+      <c r="A38" t="s">
+        <v>59</v>
       </c>
       <c r="B38">
         <v>18</v>
@@ -5069,8 +5174,8 @@
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>61587</v>
+      <c r="A39" t="s">
+        <v>59</v>
       </c>
       <c r="B39">
         <v>19</v>
@@ -5188,8 +5293,8 @@
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>61622</v>
+      <c r="A40" t="s">
+        <v>60</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5307,8 +5412,8 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>61622</v>
+      <c r="A41" t="s">
+        <v>60</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -5426,8 +5531,8 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>61622</v>
+      <c r="A42" t="s">
+        <v>60</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5545,8 +5650,8 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>61622</v>
+      <c r="A43" t="s">
+        <v>60</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -5664,8 +5769,8 @@
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>61622</v>
+      <c r="A44" t="s">
+        <v>60</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -5783,8 +5888,8 @@
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>61622</v>
+      <c r="A45" t="s">
+        <v>60</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -5902,8 +6007,8 @@
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>61622</v>
+      <c r="A46" t="s">
+        <v>60</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -6021,8 +6126,8 @@
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>61622</v>
+      <c r="A47" t="s">
+        <v>60</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -6140,8 +6245,8 @@
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>61622</v>
+      <c r="A48" t="s">
+        <v>60</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -6259,8 +6364,8 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>61622</v>
+      <c r="A49" t="s">
+        <v>60</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -6378,8 +6483,8 @@
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>61622</v>
+      <c r="A50" t="s">
+        <v>60</v>
       </c>
       <c r="B50">
         <v>11</v>
@@ -6497,8 +6602,8 @@
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>61622</v>
+      <c r="A51" t="s">
+        <v>60</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -6616,8 +6721,8 @@
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>61622</v>
+      <c r="A52" t="s">
+        <v>60</v>
       </c>
       <c r="B52">
         <v>13</v>
@@ -6735,8 +6840,8 @@
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>61622</v>
+      <c r="A53" t="s">
+        <v>60</v>
       </c>
       <c r="B53">
         <v>14</v>
@@ -6854,8 +6959,8 @@
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>61622</v>
+      <c r="A54" t="s">
+        <v>60</v>
       </c>
       <c r="B54">
         <v>15</v>
@@ -6973,8 +7078,8 @@
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>61622</v>
+      <c r="A55" t="s">
+        <v>60</v>
       </c>
       <c r="B55">
         <v>16</v>
@@ -7092,8 +7197,8 @@
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>61622</v>
+      <c r="A56" t="s">
+        <v>60</v>
       </c>
       <c r="B56">
         <v>17</v>
@@ -7211,8 +7316,8 @@
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>61622</v>
+      <c r="A57" t="s">
+        <v>60</v>
       </c>
       <c r="B57">
         <v>18</v>
@@ -7330,8 +7435,8 @@
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>61622</v>
+      <c r="A58" t="s">
+        <v>60</v>
       </c>
       <c r="B58">
         <v>19</v>
@@ -7449,8 +7554,8 @@
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>62102</v>
+      <c r="A59" t="s">
+        <v>61</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7568,8 +7673,8 @@
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>62102</v>
+      <c r="A60" t="s">
+        <v>61</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -7687,8 +7792,8 @@
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>62102</v>
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -7806,8 +7911,8 @@
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>62102</v>
+      <c r="A62" t="s">
+        <v>61</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -7925,8 +8030,8 @@
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>62102</v>
+      <c r="A63" t="s">
+        <v>61</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -8044,8 +8149,8 @@
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>62102</v>
+      <c r="A64" t="s">
+        <v>61</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -8163,8 +8268,8 @@
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>62102</v>
+      <c r="A65" t="s">
+        <v>61</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -8282,8 +8387,8 @@
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>62102</v>
+      <c r="A66" t="s">
+        <v>61</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -8401,8 +8506,8 @@
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>62102</v>
+      <c r="A67" t="s">
+        <v>61</v>
       </c>
       <c r="B67">
         <v>9</v>
@@ -8520,8 +8625,8 @@
       </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>62102</v>
+      <c r="A68" t="s">
+        <v>61</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -8639,8 +8744,8 @@
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>62102</v>
+      <c r="A69" t="s">
+        <v>61</v>
       </c>
       <c r="B69">
         <v>11</v>
@@ -8758,8 +8863,8 @@
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>62102</v>
+      <c r="A70" t="s">
+        <v>61</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -8877,8 +8982,8 @@
       </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>62102</v>
+      <c r="A71" t="s">
+        <v>61</v>
       </c>
       <c r="B71">
         <v>13</v>
@@ -8996,8 +9101,8 @@
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>62102</v>
+      <c r="A72" t="s">
+        <v>61</v>
       </c>
       <c r="B72">
         <v>14</v>
@@ -9115,8 +9220,8 @@
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>62102</v>
+      <c r="A73" t="s">
+        <v>61</v>
       </c>
       <c r="B73">
         <v>15</v>
@@ -9234,8 +9339,8 @@
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>62102</v>
+      <c r="A74" t="s">
+        <v>61</v>
       </c>
       <c r="B74">
         <v>16</v>
@@ -9353,8 +9458,8 @@
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>62102</v>
+      <c r="A75" t="s">
+        <v>61</v>
       </c>
       <c r="B75">
         <v>17</v>
@@ -9472,8 +9577,8 @@
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>62102</v>
+      <c r="A76" t="s">
+        <v>61</v>
       </c>
       <c r="B76">
         <v>18</v>
@@ -9591,8 +9696,8 @@
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>62102</v>
+      <c r="A77" t="s">
+        <v>61</v>
       </c>
       <c r="B77">
         <v>19</v>
@@ -9710,8 +9815,8 @@
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>62588</v>
+      <c r="A78" t="s">
+        <v>62</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9829,8 +9934,8 @@
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>62588</v>
+      <c r="A79" t="s">
+        <v>62</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -9948,8 +10053,8 @@
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>62588</v>
+      <c r="A80" t="s">
+        <v>62</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -10067,8 +10172,8 @@
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>62588</v>
+      <c r="A81" t="s">
+        <v>62</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -10186,8 +10291,8 @@
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>62588</v>
+      <c r="A82" t="s">
+        <v>62</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -10305,8 +10410,8 @@
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>62588</v>
+      <c r="A83" t="s">
+        <v>62</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -10424,8 +10529,8 @@
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>62588</v>
+      <c r="A84" t="s">
+        <v>62</v>
       </c>
       <c r="B84">
         <v>7</v>
@@ -10543,8 +10648,8 @@
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>62588</v>
+      <c r="A85" t="s">
+        <v>62</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -10662,8 +10767,8 @@
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>62588</v>
+      <c r="A86" t="s">
+        <v>62</v>
       </c>
       <c r="B86">
         <v>9</v>
@@ -10781,8 +10886,8 @@
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>62588</v>
+      <c r="A87" t="s">
+        <v>62</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -10900,8 +11005,8 @@
       </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>62588</v>
+      <c r="A88" t="s">
+        <v>62</v>
       </c>
       <c r="B88">
         <v>11</v>
@@ -11019,8 +11124,8 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>62588</v>
+      <c r="A89" t="s">
+        <v>62</v>
       </c>
       <c r="B89">
         <v>12</v>
@@ -11138,8 +11243,8 @@
       </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>62588</v>
+      <c r="A90" t="s">
+        <v>62</v>
       </c>
       <c r="B90">
         <v>13</v>
@@ -11257,8 +11362,8 @@
       </c>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>62588</v>
+      <c r="A91" t="s">
+        <v>62</v>
       </c>
       <c r="B91">
         <v>14</v>
@@ -11376,8 +11481,8 @@
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>62588</v>
+      <c r="A92" t="s">
+        <v>62</v>
       </c>
       <c r="B92">
         <v>15</v>
@@ -11495,8 +11600,8 @@
       </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>62588</v>
+      <c r="A93" t="s">
+        <v>62</v>
       </c>
       <c r="B93">
         <v>16</v>
@@ -11614,8 +11719,8 @@
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>62588</v>
+      <c r="A94" t="s">
+        <v>62</v>
       </c>
       <c r="B94">
         <v>17</v>
@@ -11733,8 +11838,8 @@
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>62588</v>
+      <c r="A95" t="s">
+        <v>62</v>
       </c>
       <c r="B95">
         <v>18</v>
@@ -11852,8 +11957,8 @@
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>62588</v>
+      <c r="A96" t="s">
+        <v>62</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -11971,8 +12076,8 @@
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>62633</v>
+      <c r="A97" t="s">
+        <v>63</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12090,8 +12195,8 @@
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>62633</v>
+      <c r="A98" t="s">
+        <v>63</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -12209,8 +12314,8 @@
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>62633</v>
+      <c r="A99" t="s">
+        <v>63</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -12328,8 +12433,8 @@
       </c>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>62633</v>
+      <c r="A100" t="s">
+        <v>63</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -12447,8 +12552,8 @@
       </c>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>62633</v>
+      <c r="A101" t="s">
+        <v>63</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -12566,8 +12671,8 @@
       </c>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>62633</v>
+      <c r="A102" t="s">
+        <v>63</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -12685,8 +12790,8 @@
       </c>
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>62633</v>
+      <c r="A103" t="s">
+        <v>63</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -12804,8 +12909,8 @@
       </c>
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>62633</v>
+      <c r="A104" t="s">
+        <v>63</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -12923,8 +13028,8 @@
       </c>
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>62633</v>
+      <c r="A105" t="s">
+        <v>63</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -13042,8 +13147,8 @@
       </c>
     </row>
     <row r="106" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>62633</v>
+      <c r="A106" t="s">
+        <v>63</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -13161,8 +13266,8 @@
       </c>
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>62633</v>
+      <c r="A107" t="s">
+        <v>63</v>
       </c>
       <c r="B107">
         <v>11</v>
@@ -13280,8 +13385,8 @@
       </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>62633</v>
+      <c r="A108" t="s">
+        <v>63</v>
       </c>
       <c r="B108">
         <v>12</v>
@@ -13399,8 +13504,8 @@
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>62633</v>
+      <c r="A109" t="s">
+        <v>63</v>
       </c>
       <c r="B109">
         <v>13</v>
@@ -13518,8 +13623,8 @@
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>62633</v>
+      <c r="A110" t="s">
+        <v>63</v>
       </c>
       <c r="B110">
         <v>14</v>
@@ -13637,8 +13742,8 @@
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>62633</v>
+      <c r="A111" t="s">
+        <v>63</v>
       </c>
       <c r="B111">
         <v>15</v>
@@ -13756,8 +13861,8 @@
       </c>
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>62633</v>
+      <c r="A112" t="s">
+        <v>63</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -13875,8 +13980,8 @@
       </c>
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>62633</v>
+      <c r="A113" t="s">
+        <v>63</v>
       </c>
       <c r="B113">
         <v>17</v>
@@ -13994,8 +14099,8 @@
       </c>
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>62633</v>
+      <c r="A114" t="s">
+        <v>63</v>
       </c>
       <c r="B114">
         <v>18</v>
@@ -14113,8 +14218,8 @@
       </c>
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>62633</v>
+      <c r="A115" t="s">
+        <v>63</v>
       </c>
       <c r="B115">
         <v>19</v>
@@ -14232,8 +14337,8 @@
       </c>
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>62659</v>
+      <c r="A116" t="s">
+        <v>64</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -14351,8 +14456,8 @@
       </c>
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>62659</v>
+      <c r="A117" t="s">
+        <v>64</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -14470,8 +14575,8 @@
       </c>
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>62659</v>
+      <c r="A118" t="s">
+        <v>64</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -14589,8 +14694,8 @@
       </c>
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>62659</v>
+      <c r="A119" t="s">
+        <v>64</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -14708,8 +14813,8 @@
       </c>
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>62659</v>
+      <c r="A120" t="s">
+        <v>64</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -14827,8 +14932,8 @@
       </c>
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>62659</v>
+      <c r="A121" t="s">
+        <v>64</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -14946,8 +15051,8 @@
       </c>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>62659</v>
+      <c r="A122" t="s">
+        <v>64</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -15065,8 +15170,8 @@
       </c>
     </row>
     <row r="123" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>62659</v>
+      <c r="A123" t="s">
+        <v>64</v>
       </c>
       <c r="B123">
         <v>8</v>
@@ -15184,8 +15289,8 @@
       </c>
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>62659</v>
+      <c r="A124" t="s">
+        <v>64</v>
       </c>
       <c r="B124">
         <v>9</v>
@@ -15303,8 +15408,8 @@
       </c>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>62659</v>
+      <c r="A125" t="s">
+        <v>64</v>
       </c>
       <c r="B125">
         <v>10</v>
@@ -15422,8 +15527,8 @@
       </c>
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>62659</v>
+      <c r="A126" t="s">
+        <v>64</v>
       </c>
       <c r="B126">
         <v>11</v>
@@ -15541,8 +15646,8 @@
       </c>
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>62659</v>
+      <c r="A127" t="s">
+        <v>64</v>
       </c>
       <c r="B127">
         <v>12</v>
@@ -15660,8 +15765,8 @@
       </c>
     </row>
     <row r="128" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>62659</v>
+      <c r="A128" t="s">
+        <v>64</v>
       </c>
       <c r="B128">
         <v>13</v>
@@ -15779,8 +15884,8 @@
       </c>
     </row>
     <row r="129" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>62659</v>
+      <c r="A129" t="s">
+        <v>64</v>
       </c>
       <c r="B129">
         <v>14</v>
@@ -15898,8 +16003,8 @@
       </c>
     </row>
     <row r="130" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>62659</v>
+      <c r="A130" t="s">
+        <v>64</v>
       </c>
       <c r="B130">
         <v>15</v>
@@ -16017,8 +16122,8 @@
       </c>
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>62659</v>
+      <c r="A131" t="s">
+        <v>64</v>
       </c>
       <c r="B131">
         <v>16</v>
@@ -16136,8 +16241,8 @@
       </c>
     </row>
     <row r="132" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>62659</v>
+      <c r="A132" t="s">
+        <v>64</v>
       </c>
       <c r="B132">
         <v>17</v>
@@ -16255,8 +16360,8 @@
       </c>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>62659</v>
+      <c r="A133" t="s">
+        <v>64</v>
       </c>
       <c r="B133">
         <v>18</v>
@@ -16374,8 +16479,8 @@
       </c>
     </row>
     <row r="134" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>62659</v>
+      <c r="A134" t="s">
+        <v>64</v>
       </c>
       <c r="B134">
         <v>19</v>
@@ -16493,8 +16598,8 @@
       </c>
     </row>
     <row r="135" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>62677</v>
+      <c r="A135" t="s">
+        <v>65</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16612,8 +16717,8 @@
       </c>
     </row>
     <row r="136" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>62677</v>
+      <c r="A136" t="s">
+        <v>65</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -16731,8 +16836,8 @@
       </c>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A137">
-        <v>62677</v>
+      <c r="A137" t="s">
+        <v>65</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -16850,8 +16955,8 @@
       </c>
     </row>
     <row r="138" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>62677</v>
+      <c r="A138" t="s">
+        <v>65</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -16969,8 +17074,8 @@
       </c>
     </row>
     <row r="139" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A139">
-        <v>62677</v>
+      <c r="A139" t="s">
+        <v>65</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -17088,8 +17193,8 @@
       </c>
     </row>
     <row r="140" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A140">
-        <v>62677</v>
+      <c r="A140" t="s">
+        <v>65</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -17207,8 +17312,8 @@
       </c>
     </row>
     <row r="141" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A141">
-        <v>62677</v>
+      <c r="A141" t="s">
+        <v>65</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -17326,8 +17431,8 @@
       </c>
     </row>
     <row r="142" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A142">
-        <v>62677</v>
+      <c r="A142" t="s">
+        <v>65</v>
       </c>
       <c r="B142">
         <v>8</v>
@@ -17445,8 +17550,8 @@
       </c>
     </row>
     <row r="143" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A143">
-        <v>62677</v>
+      <c r="A143" t="s">
+        <v>65</v>
       </c>
       <c r="B143">
         <v>9</v>
@@ -17564,8 +17669,8 @@
       </c>
     </row>
     <row r="144" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A144">
-        <v>62677</v>
+      <c r="A144" t="s">
+        <v>65</v>
       </c>
       <c r="B144">
         <v>10</v>
@@ -17683,8 +17788,8 @@
       </c>
     </row>
     <row r="145" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A145">
-        <v>62677</v>
+      <c r="A145" t="s">
+        <v>65</v>
       </c>
       <c r="B145">
         <v>11</v>
@@ -17802,8 +17907,8 @@
       </c>
     </row>
     <row r="146" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>62677</v>
+      <c r="A146" t="s">
+        <v>65</v>
       </c>
       <c r="B146">
         <v>12</v>
@@ -17921,8 +18026,8 @@
       </c>
     </row>
     <row r="147" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A147">
-        <v>62677</v>
+      <c r="A147" t="s">
+        <v>65</v>
       </c>
       <c r="B147">
         <v>13</v>
@@ -18040,8 +18145,8 @@
       </c>
     </row>
     <row r="148" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A148">
-        <v>62677</v>
+      <c r="A148" t="s">
+        <v>65</v>
       </c>
       <c r="B148">
         <v>14</v>
@@ -18159,8 +18264,8 @@
       </c>
     </row>
     <row r="149" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A149">
-        <v>62677</v>
+      <c r="A149" t="s">
+        <v>65</v>
       </c>
       <c r="B149">
         <v>15</v>
@@ -18278,8 +18383,8 @@
       </c>
     </row>
     <row r="150" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A150">
-        <v>62677</v>
+      <c r="A150" t="s">
+        <v>65</v>
       </c>
       <c r="B150">
         <v>16</v>
@@ -18397,8 +18502,8 @@
       </c>
     </row>
     <row r="151" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A151">
-        <v>62677</v>
+      <c r="A151" t="s">
+        <v>65</v>
       </c>
       <c r="B151">
         <v>17</v>
@@ -18516,8 +18621,8 @@
       </c>
     </row>
     <row r="152" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>62677</v>
+      <c r="A152" t="s">
+        <v>65</v>
       </c>
       <c r="B152">
         <v>18</v>
@@ -18635,8 +18740,8 @@
       </c>
     </row>
     <row r="153" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>62677</v>
+      <c r="A153" t="s">
+        <v>65</v>
       </c>
       <c r="B153">
         <v>19</v>
@@ -18754,8 +18859,8 @@
       </c>
     </row>
     <row r="154" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A154">
-        <v>62695</v>
+      <c r="A154" t="s">
+        <v>66</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -18873,8 +18978,8 @@
       </c>
     </row>
     <row r="155" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A155">
-        <v>62695</v>
+      <c r="A155" t="s">
+        <v>66</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -18992,8 +19097,8 @@
       </c>
     </row>
     <row r="156" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A156">
-        <v>62695</v>
+      <c r="A156" t="s">
+        <v>66</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -19111,8 +19216,8 @@
       </c>
     </row>
     <row r="157" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A157">
-        <v>62695</v>
+      <c r="A157" t="s">
+        <v>66</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -19230,8 +19335,8 @@
       </c>
     </row>
     <row r="158" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>62695</v>
+      <c r="A158" t="s">
+        <v>66</v>
       </c>
       <c r="B158">
         <v>5</v>
@@ -19349,8 +19454,8 @@
       </c>
     </row>
     <row r="159" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A159">
-        <v>62695</v>
+      <c r="A159" t="s">
+        <v>66</v>
       </c>
       <c r="B159">
         <v>6</v>
@@ -19468,8 +19573,8 @@
       </c>
     </row>
     <row r="160" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>62695</v>
+      <c r="A160" t="s">
+        <v>66</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -19587,8 +19692,8 @@
       </c>
     </row>
     <row r="161" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>62695</v>
+      <c r="A161" t="s">
+        <v>66</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -19706,8 +19811,8 @@
       </c>
     </row>
     <row r="162" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A162">
-        <v>62695</v>
+      <c r="A162" t="s">
+        <v>66</v>
       </c>
       <c r="B162">
         <v>9</v>
@@ -19825,8 +19930,8 @@
       </c>
     </row>
     <row r="163" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>62695</v>
+      <c r="A163" t="s">
+        <v>66</v>
       </c>
       <c r="B163">
         <v>10</v>
@@ -19944,8 +20049,8 @@
       </c>
     </row>
     <row r="164" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A164">
-        <v>62695</v>
+      <c r="A164" t="s">
+        <v>66</v>
       </c>
       <c r="B164">
         <v>11</v>
@@ -20063,8 +20168,8 @@
       </c>
     </row>
     <row r="165" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A165">
-        <v>62695</v>
+      <c r="A165" t="s">
+        <v>66</v>
       </c>
       <c r="B165">
         <v>12</v>
@@ -20182,8 +20287,8 @@
       </c>
     </row>
     <row r="166" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A166">
-        <v>62695</v>
+      <c r="A166" t="s">
+        <v>66</v>
       </c>
       <c r="B166">
         <v>13</v>
@@ -20301,8 +20406,8 @@
       </c>
     </row>
     <row r="167" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A167">
-        <v>62695</v>
+      <c r="A167" t="s">
+        <v>66</v>
       </c>
       <c r="B167">
         <v>14</v>
@@ -20420,8 +20525,8 @@
       </c>
     </row>
     <row r="168" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A168">
-        <v>62695</v>
+      <c r="A168" t="s">
+        <v>66</v>
       </c>
       <c r="B168">
         <v>15</v>
@@ -20539,8 +20644,8 @@
       </c>
     </row>
     <row r="169" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A169">
-        <v>62695</v>
+      <c r="A169" t="s">
+        <v>66</v>
       </c>
       <c r="B169">
         <v>16</v>
@@ -20658,8 +20763,8 @@
       </c>
     </row>
     <row r="170" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A170">
-        <v>62695</v>
+      <c r="A170" t="s">
+        <v>66</v>
       </c>
       <c r="B170">
         <v>17</v>
@@ -20777,8 +20882,8 @@
       </c>
     </row>
     <row r="171" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A171">
-        <v>62695</v>
+      <c r="A171" t="s">
+        <v>66</v>
       </c>
       <c r="B171">
         <v>18</v>
@@ -20896,8 +21001,8 @@
       </c>
     </row>
     <row r="172" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A172">
-        <v>62695</v>
+      <c r="A172" t="s">
+        <v>66</v>
       </c>
       <c r="B172">
         <v>19</v>
@@ -21015,8 +21120,8 @@
       </c>
     </row>
     <row r="173" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A173">
-        <v>63096</v>
+      <c r="A173" t="s">
+        <v>67</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -21134,8 +21239,8 @@
       </c>
     </row>
     <row r="174" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A174">
-        <v>63096</v>
+      <c r="A174" t="s">
+        <v>67</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -21253,8 +21358,8 @@
       </c>
     </row>
     <row r="175" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A175">
-        <v>63096</v>
+      <c r="A175" t="s">
+        <v>67</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -21372,8 +21477,8 @@
       </c>
     </row>
     <row r="176" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A176">
-        <v>63096</v>
+      <c r="A176" t="s">
+        <v>67</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -21491,8 +21596,8 @@
       </c>
     </row>
     <row r="177" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A177">
-        <v>63096</v>
+      <c r="A177" t="s">
+        <v>67</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -21610,8 +21715,8 @@
       </c>
     </row>
     <row r="178" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A178">
-        <v>63096</v>
+      <c r="A178" t="s">
+        <v>67</v>
       </c>
       <c r="B178">
         <v>6</v>
@@ -21729,8 +21834,8 @@
       </c>
     </row>
     <row r="179" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A179">
-        <v>63096</v>
+      <c r="A179" t="s">
+        <v>67</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -21848,8 +21953,8 @@
       </c>
     </row>
     <row r="180" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>63096</v>
+      <c r="A180" t="s">
+        <v>67</v>
       </c>
       <c r="B180">
         <v>8</v>
@@ -21967,8 +22072,8 @@
       </c>
     </row>
     <row r="181" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A181">
-        <v>63096</v>
+      <c r="A181" t="s">
+        <v>67</v>
       </c>
       <c r="B181">
         <v>9</v>
@@ -22086,8 +22191,8 @@
       </c>
     </row>
     <row r="182" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A182">
-        <v>63096</v>
+      <c r="A182" t="s">
+        <v>67</v>
       </c>
       <c r="B182">
         <v>10</v>
@@ -22205,8 +22310,8 @@
       </c>
     </row>
     <row r="183" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A183">
-        <v>63096</v>
+      <c r="A183" t="s">
+        <v>67</v>
       </c>
       <c r="B183">
         <v>11</v>
@@ -22324,8 +22429,8 @@
       </c>
     </row>
     <row r="184" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A184">
-        <v>63096</v>
+      <c r="A184" t="s">
+        <v>67</v>
       </c>
       <c r="B184">
         <v>12</v>
@@ -22443,8 +22548,8 @@
       </c>
     </row>
     <row r="185" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A185">
-        <v>63096</v>
+      <c r="A185" t="s">
+        <v>67</v>
       </c>
       <c r="B185">
         <v>13</v>
@@ -22562,8 +22667,8 @@
       </c>
     </row>
     <row r="186" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>63096</v>
+      <c r="A186" t="s">
+        <v>67</v>
       </c>
       <c r="B186">
         <v>14</v>
@@ -22681,8 +22786,8 @@
       </c>
     </row>
     <row r="187" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A187">
-        <v>63096</v>
+      <c r="A187" t="s">
+        <v>67</v>
       </c>
       <c r="B187">
         <v>15</v>
@@ -22800,8 +22905,8 @@
       </c>
     </row>
     <row r="188" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>63096</v>
+      <c r="A188" t="s">
+        <v>67</v>
       </c>
       <c r="B188">
         <v>16</v>
@@ -22919,8 +23024,8 @@
       </c>
     </row>
     <row r="189" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>63096</v>
+      <c r="A189" t="s">
+        <v>67</v>
       </c>
       <c r="B189">
         <v>17</v>
@@ -23038,8 +23143,8 @@
       </c>
     </row>
     <row r="190" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>63096</v>
+      <c r="A190" t="s">
+        <v>67</v>
       </c>
       <c r="B190">
         <v>18</v>
@@ -23157,8 +23262,8 @@
       </c>
     </row>
     <row r="191" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>63096</v>
+      <c r="A191" t="s">
+        <v>67</v>
       </c>
       <c r="B191">
         <v>19</v>
@@ -23276,8 +23381,8 @@
       </c>
     </row>
     <row r="192" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>63123</v>
+      <c r="A192" t="s">
+        <v>68</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -23395,8 +23500,8 @@
       </c>
     </row>
     <row r="193" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A193">
-        <v>63123</v>
+      <c r="A193" t="s">
+        <v>68</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -23514,8 +23619,8 @@
       </c>
     </row>
     <row r="194" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A194">
-        <v>63123</v>
+      <c r="A194" t="s">
+        <v>68</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -23633,8 +23738,8 @@
       </c>
     </row>
     <row r="195" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A195">
-        <v>63123</v>
+      <c r="A195" t="s">
+        <v>68</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -23752,8 +23857,8 @@
       </c>
     </row>
     <row r="196" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A196">
-        <v>63123</v>
+      <c r="A196" t="s">
+        <v>68</v>
       </c>
       <c r="B196">
         <v>5</v>
@@ -23871,8 +23976,8 @@
       </c>
     </row>
     <row r="197" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A197">
-        <v>63123</v>
+      <c r="A197" t="s">
+        <v>68</v>
       </c>
       <c r="B197">
         <v>6</v>
@@ -23990,8 +24095,8 @@
       </c>
     </row>
     <row r="198" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A198">
-        <v>63123</v>
+      <c r="A198" t="s">
+        <v>68</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -24109,8 +24214,8 @@
       </c>
     </row>
     <row r="199" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A199">
-        <v>63123</v>
+      <c r="A199" t="s">
+        <v>68</v>
       </c>
       <c r="B199">
         <v>8</v>
@@ -24228,8 +24333,8 @@
       </c>
     </row>
     <row r="200" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A200">
-        <v>63123</v>
+      <c r="A200" t="s">
+        <v>68</v>
       </c>
       <c r="B200">
         <v>9</v>
@@ -24347,8 +24452,8 @@
       </c>
     </row>
     <row r="201" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A201">
-        <v>63123</v>
+      <c r="A201" t="s">
+        <v>68</v>
       </c>
       <c r="B201">
         <v>10</v>
@@ -24466,8 +24571,8 @@
       </c>
     </row>
     <row r="202" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <v>63123</v>
+      <c r="A202" t="s">
+        <v>68</v>
       </c>
       <c r="B202">
         <v>11</v>
@@ -24585,8 +24690,8 @@
       </c>
     </row>
     <row r="203" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A203">
-        <v>63123</v>
+      <c r="A203" t="s">
+        <v>68</v>
       </c>
       <c r="B203">
         <v>12</v>
@@ -24704,8 +24809,8 @@
       </c>
     </row>
     <row r="204" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>63123</v>
+      <c r="A204" t="s">
+        <v>68</v>
       </c>
       <c r="B204">
         <v>13</v>
@@ -24823,8 +24928,8 @@
       </c>
     </row>
     <row r="205" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <v>63123</v>
+      <c r="A205" t="s">
+        <v>68</v>
       </c>
       <c r="B205">
         <v>14</v>
@@ -24942,8 +25047,8 @@
       </c>
     </row>
     <row r="206" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A206">
-        <v>63123</v>
+      <c r="A206" t="s">
+        <v>68</v>
       </c>
       <c r="B206">
         <v>15</v>
@@ -25061,8 +25166,8 @@
       </c>
     </row>
     <row r="207" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A207">
-        <v>63123</v>
+      <c r="A207" t="s">
+        <v>68</v>
       </c>
       <c r="B207">
         <v>16</v>
@@ -25180,8 +25285,8 @@
       </c>
     </row>
     <row r="208" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <v>63123</v>
+      <c r="A208" t="s">
+        <v>68</v>
       </c>
       <c r="B208">
         <v>17</v>
@@ -25299,8 +25404,8 @@
       </c>
     </row>
     <row r="209" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A209">
-        <v>63123</v>
+      <c r="A209" t="s">
+        <v>68</v>
       </c>
       <c r="B209">
         <v>18</v>
@@ -25418,8 +25523,8 @@
       </c>
     </row>
     <row r="210" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A210">
-        <v>63123</v>
+      <c r="A210" t="s">
+        <v>68</v>
       </c>
       <c r="B210">
         <v>19</v>
@@ -25537,8 +25642,8 @@
       </c>
     </row>
     <row r="211" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A211">
-        <v>63151</v>
+      <c r="A211" t="s">
+        <v>69</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -25656,8 +25761,8 @@
       </c>
     </row>
     <row r="212" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A212">
-        <v>63151</v>
+      <c r="A212" t="s">
+        <v>69</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -25775,8 +25880,8 @@
       </c>
     </row>
     <row r="213" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A213">
-        <v>63151</v>
+      <c r="A213" t="s">
+        <v>69</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -25894,8 +25999,8 @@
       </c>
     </row>
     <row r="214" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A214">
-        <v>63151</v>
+      <c r="A214" t="s">
+        <v>69</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -26013,8 +26118,8 @@
       </c>
     </row>
     <row r="215" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A215">
-        <v>63151</v>
+      <c r="A215" t="s">
+        <v>69</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -26132,8 +26237,8 @@
       </c>
     </row>
     <row r="216" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <v>63151</v>
+      <c r="A216" t="s">
+        <v>69</v>
       </c>
       <c r="B216">
         <v>6</v>
@@ -26251,8 +26356,8 @@
       </c>
     </row>
     <row r="217" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>63151</v>
+      <c r="A217" t="s">
+        <v>69</v>
       </c>
       <c r="B217">
         <v>7</v>
@@ -26370,8 +26475,8 @@
       </c>
     </row>
     <row r="218" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>63151</v>
+      <c r="A218" t="s">
+        <v>69</v>
       </c>
       <c r="B218">
         <v>8</v>
@@ -26489,8 +26594,8 @@
       </c>
     </row>
     <row r="219" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A219">
-        <v>63151</v>
+      <c r="A219" t="s">
+        <v>69</v>
       </c>
       <c r="B219">
         <v>9</v>
@@ -26608,8 +26713,8 @@
       </c>
     </row>
     <row r="220" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>63151</v>
+      <c r="A220" t="s">
+        <v>69</v>
       </c>
       <c r="B220">
         <v>10</v>
@@ -26727,8 +26832,8 @@
       </c>
     </row>
     <row r="221" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <v>63151</v>
+      <c r="A221" t="s">
+        <v>69</v>
       </c>
       <c r="B221">
         <v>11</v>
@@ -26846,8 +26951,8 @@
       </c>
     </row>
     <row r="222" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <v>63151</v>
+      <c r="A222" t="s">
+        <v>69</v>
       </c>
       <c r="B222">
         <v>12</v>
@@ -26965,8 +27070,8 @@
       </c>
     </row>
     <row r="223" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A223">
-        <v>63151</v>
+      <c r="A223" t="s">
+        <v>69</v>
       </c>
       <c r="B223">
         <v>13</v>
@@ -27084,8 +27189,8 @@
       </c>
     </row>
     <row r="224" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A224">
-        <v>63151</v>
+      <c r="A224" t="s">
+        <v>69</v>
       </c>
       <c r="B224">
         <v>14</v>
@@ -27203,8 +27308,8 @@
       </c>
     </row>
     <row r="225" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A225">
-        <v>63151</v>
+      <c r="A225" t="s">
+        <v>69</v>
       </c>
       <c r="B225">
         <v>15</v>
@@ -27322,8 +27427,8 @@
       </c>
     </row>
     <row r="226" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A226">
-        <v>63151</v>
+      <c r="A226" t="s">
+        <v>69</v>
       </c>
       <c r="B226">
         <v>16</v>
@@ -27441,8 +27546,8 @@
       </c>
     </row>
     <row r="227" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A227">
-        <v>63151</v>
+      <c r="A227" t="s">
+        <v>69</v>
       </c>
       <c r="B227">
         <v>17</v>
@@ -27560,8 +27665,8 @@
       </c>
     </row>
     <row r="228" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A228">
-        <v>63151</v>
+      <c r="A228" t="s">
+        <v>69</v>
       </c>
       <c r="B228">
         <v>18</v>
@@ -27679,8 +27784,8 @@
       </c>
     </row>
     <row r="229" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A229">
-        <v>63151</v>
+      <c r="A229" t="s">
+        <v>69</v>
       </c>
       <c r="B229">
         <v>19</v>
@@ -27798,8 +27903,8 @@
       </c>
     </row>
     <row r="230" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A230">
-        <v>63156</v>
+      <c r="A230" t="s">
+        <v>70</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -27917,8 +28022,8 @@
       </c>
     </row>
     <row r="231" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A231">
-        <v>63156</v>
+      <c r="A231" t="s">
+        <v>70</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -28036,8 +28141,8 @@
       </c>
     </row>
     <row r="232" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A232">
-        <v>63156</v>
+      <c r="A232" t="s">
+        <v>70</v>
       </c>
       <c r="B232">
         <v>3</v>
@@ -28155,8 +28260,8 @@
       </c>
     </row>
     <row r="233" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A233">
-        <v>63156</v>
+      <c r="A233" t="s">
+        <v>70</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -28274,8 +28379,8 @@
       </c>
     </row>
     <row r="234" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A234">
-        <v>63156</v>
+      <c r="A234" t="s">
+        <v>70</v>
       </c>
       <c r="B234">
         <v>5</v>
@@ -28393,8 +28498,8 @@
       </c>
     </row>
     <row r="235" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A235">
-        <v>63156</v>
+      <c r="A235" t="s">
+        <v>70</v>
       </c>
       <c r="B235">
         <v>6</v>
@@ -28512,8 +28617,8 @@
       </c>
     </row>
     <row r="236" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A236">
-        <v>63156</v>
+      <c r="A236" t="s">
+        <v>70</v>
       </c>
       <c r="B236">
         <v>7</v>
@@ -28631,8 +28736,8 @@
       </c>
     </row>
     <row r="237" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A237">
-        <v>63156</v>
+      <c r="A237" t="s">
+        <v>70</v>
       </c>
       <c r="B237">
         <v>8</v>
@@ -28750,8 +28855,8 @@
       </c>
     </row>
     <row r="238" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A238">
-        <v>63156</v>
+      <c r="A238" t="s">
+        <v>70</v>
       </c>
       <c r="B238">
         <v>9</v>
@@ -28869,8 +28974,8 @@
       </c>
     </row>
     <row r="239" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A239">
-        <v>63156</v>
+      <c r="A239" t="s">
+        <v>70</v>
       </c>
       <c r="B239">
         <v>10</v>
@@ -28988,8 +29093,8 @@
       </c>
     </row>
     <row r="240" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A240">
-        <v>63156</v>
+      <c r="A240" t="s">
+        <v>70</v>
       </c>
       <c r="B240">
         <v>11</v>
@@ -29107,8 +29212,8 @@
       </c>
     </row>
     <row r="241" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A241">
-        <v>63156</v>
+      <c r="A241" t="s">
+        <v>70</v>
       </c>
       <c r="B241">
         <v>12</v>
@@ -29226,8 +29331,8 @@
       </c>
     </row>
     <row r="242" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A242">
-        <v>63156</v>
+      <c r="A242" t="s">
+        <v>70</v>
       </c>
       <c r="B242">
         <v>13</v>
@@ -29345,8 +29450,8 @@
       </c>
     </row>
     <row r="243" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A243">
-        <v>63156</v>
+      <c r="A243" t="s">
+        <v>70</v>
       </c>
       <c r="B243">
         <v>14</v>
@@ -29464,8 +29569,8 @@
       </c>
     </row>
     <row r="244" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A244">
-        <v>63156</v>
+      <c r="A244" t="s">
+        <v>70</v>
       </c>
       <c r="B244">
         <v>15</v>
@@ -29583,8 +29688,8 @@
       </c>
     </row>
     <row r="245" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A245">
-        <v>63156</v>
+      <c r="A245" t="s">
+        <v>70</v>
       </c>
       <c r="B245">
         <v>16</v>
@@ -29702,8 +29807,8 @@
       </c>
     </row>
     <row r="246" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A246">
-        <v>63156</v>
+      <c r="A246" t="s">
+        <v>70</v>
       </c>
       <c r="B246">
         <v>17</v>
@@ -29821,8 +29926,8 @@
       </c>
     </row>
     <row r="247" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A247">
-        <v>63156</v>
+      <c r="A247" t="s">
+        <v>70</v>
       </c>
       <c r="B247">
         <v>18</v>
@@ -29940,8 +30045,8 @@
       </c>
     </row>
     <row r="248" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A248">
-        <v>63156</v>
+      <c r="A248" t="s">
+        <v>70</v>
       </c>
       <c r="B248">
         <v>19</v>
@@ -30059,8 +30164,8 @@
       </c>
     </row>
     <row r="249" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A249">
-        <v>63173</v>
+      <c r="A249" t="s">
+        <v>71</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -30178,8 +30283,8 @@
       </c>
     </row>
     <row r="250" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A250">
-        <v>63173</v>
+      <c r="A250" t="s">
+        <v>71</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -30297,8 +30402,8 @@
       </c>
     </row>
     <row r="251" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A251">
-        <v>63173</v>
+      <c r="A251" t="s">
+        <v>71</v>
       </c>
       <c r="B251">
         <v>3</v>
@@ -30416,8 +30521,8 @@
       </c>
     </row>
     <row r="252" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A252">
-        <v>63173</v>
+      <c r="A252" t="s">
+        <v>71</v>
       </c>
       <c r="B252">
         <v>4</v>
@@ -30535,8 +30640,8 @@
       </c>
     </row>
     <row r="253" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A253">
-        <v>63173</v>
+      <c r="A253" t="s">
+        <v>71</v>
       </c>
       <c r="B253">
         <v>5</v>
@@ -30654,8 +30759,8 @@
       </c>
     </row>
     <row r="254" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A254">
-        <v>63173</v>
+      <c r="A254" t="s">
+        <v>71</v>
       </c>
       <c r="B254">
         <v>6</v>
@@ -30773,8 +30878,8 @@
       </c>
     </row>
     <row r="255" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A255">
-        <v>63173</v>
+      <c r="A255" t="s">
+        <v>71</v>
       </c>
       <c r="B255">
         <v>7</v>
@@ -30892,8 +30997,8 @@
       </c>
     </row>
     <row r="256" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A256">
-        <v>63173</v>
+      <c r="A256" t="s">
+        <v>71</v>
       </c>
       <c r="B256">
         <v>8</v>
@@ -31011,8 +31116,8 @@
       </c>
     </row>
     <row r="257" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A257">
-        <v>63173</v>
+      <c r="A257" t="s">
+        <v>71</v>
       </c>
       <c r="B257">
         <v>9</v>
@@ -31130,8 +31235,8 @@
       </c>
     </row>
     <row r="258" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A258">
-        <v>63173</v>
+      <c r="A258" t="s">
+        <v>71</v>
       </c>
       <c r="B258">
         <v>10</v>
@@ -31249,8 +31354,8 @@
       </c>
     </row>
     <row r="259" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A259">
-        <v>63173</v>
+      <c r="A259" t="s">
+        <v>71</v>
       </c>
       <c r="B259">
         <v>11</v>
@@ -31368,8 +31473,8 @@
       </c>
     </row>
     <row r="260" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A260">
-        <v>63173</v>
+      <c r="A260" t="s">
+        <v>71</v>
       </c>
       <c r="B260">
         <v>12</v>
@@ -31487,8 +31592,8 @@
       </c>
     </row>
     <row r="261" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A261">
-        <v>63173</v>
+      <c r="A261" t="s">
+        <v>71</v>
       </c>
       <c r="B261">
         <v>13</v>
@@ -31606,8 +31711,8 @@
       </c>
     </row>
     <row r="262" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A262">
-        <v>63173</v>
+      <c r="A262" t="s">
+        <v>71</v>
       </c>
       <c r="B262">
         <v>14</v>
@@ -31725,8 +31830,8 @@
       </c>
     </row>
     <row r="263" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A263">
-        <v>63173</v>
+      <c r="A263" t="s">
+        <v>71</v>
       </c>
       <c r="B263">
         <v>15</v>
@@ -31844,8 +31949,8 @@
       </c>
     </row>
     <row r="264" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A264">
-        <v>63173</v>
+      <c r="A264" t="s">
+        <v>71</v>
       </c>
       <c r="B264">
         <v>16</v>
@@ -31963,8 +32068,8 @@
       </c>
     </row>
     <row r="265" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A265">
-        <v>63173</v>
+      <c r="A265" t="s">
+        <v>71</v>
       </c>
       <c r="B265">
         <v>17</v>
@@ -32082,8 +32187,8 @@
       </c>
     </row>
     <row r="266" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A266">
-        <v>63173</v>
+      <c r="A266" t="s">
+        <v>71</v>
       </c>
       <c r="B266">
         <v>18</v>
@@ -32201,8 +32306,8 @@
       </c>
     </row>
     <row r="267" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A267">
-        <v>63173</v>
+      <c r="A267" t="s">
+        <v>71</v>
       </c>
       <c r="B267">
         <v>19</v>
@@ -32320,8 +32425,8 @@
       </c>
     </row>
     <row r="268" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A268">
-        <v>131213</v>
+      <c r="A268" t="s">
+        <v>71</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -32439,8 +32544,8 @@
       </c>
     </row>
     <row r="269" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A269">
-        <v>131213</v>
+      <c r="A269" t="s">
+        <v>71</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -32558,8 +32663,8 @@
       </c>
     </row>
     <row r="270" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A270">
-        <v>131213</v>
+      <c r="A270" t="s">
+        <v>71</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -32677,8 +32782,8 @@
       </c>
     </row>
     <row r="271" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A271">
-        <v>131213</v>
+      <c r="A271" t="s">
+        <v>71</v>
       </c>
       <c r="B271">
         <v>4</v>
@@ -32796,8 +32901,8 @@
       </c>
     </row>
     <row r="272" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A272">
-        <v>131213</v>
+      <c r="A272" t="s">
+        <v>71</v>
       </c>
       <c r="B272">
         <v>5</v>
@@ -32915,8 +33020,8 @@
       </c>
     </row>
     <row r="273" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A273">
-        <v>131213</v>
+      <c r="A273" t="s">
+        <v>71</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -33034,8 +33139,8 @@
       </c>
     </row>
     <row r="274" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A274">
-        <v>131213</v>
+      <c r="A274" t="s">
+        <v>71</v>
       </c>
       <c r="B274">
         <v>7</v>
@@ -33153,8 +33258,8 @@
       </c>
     </row>
     <row r="275" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A275">
-        <v>131213</v>
+      <c r="A275" t="s">
+        <v>71</v>
       </c>
       <c r="B275">
         <v>8</v>
@@ -33272,8 +33377,8 @@
       </c>
     </row>
     <row r="276" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A276">
-        <v>131213</v>
+      <c r="A276" t="s">
+        <v>71</v>
       </c>
       <c r="B276">
         <v>9</v>
@@ -33391,8 +33496,8 @@
       </c>
     </row>
     <row r="277" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A277">
-        <v>131213</v>
+      <c r="A277" t="s">
+        <v>71</v>
       </c>
       <c r="B277">
         <v>10</v>
@@ -33510,8 +33615,8 @@
       </c>
     </row>
     <row r="278" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A278">
-        <v>131213</v>
+      <c r="A278" t="s">
+        <v>71</v>
       </c>
       <c r="B278">
         <v>11</v>
@@ -33629,8 +33734,8 @@
       </c>
     </row>
     <row r="279" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A279">
-        <v>131213</v>
+      <c r="A279" t="s">
+        <v>71</v>
       </c>
       <c r="B279">
         <v>12</v>
@@ -33748,8 +33853,8 @@
       </c>
     </row>
     <row r="280" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A280">
-        <v>131213</v>
+      <c r="A280" t="s">
+        <v>71</v>
       </c>
       <c r="B280">
         <v>13</v>
@@ -33867,8 +33972,8 @@
       </c>
     </row>
     <row r="281" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A281">
-        <v>131213</v>
+      <c r="A281" t="s">
+        <v>71</v>
       </c>
       <c r="B281">
         <v>14</v>
@@ -33986,8 +34091,8 @@
       </c>
     </row>
     <row r="282" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A282">
-        <v>131213</v>
+      <c r="A282" t="s">
+        <v>71</v>
       </c>
       <c r="B282">
         <v>15</v>
@@ -34105,8 +34210,8 @@
       </c>
     </row>
     <row r="283" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A283">
-        <v>131213</v>
+      <c r="A283" t="s">
+        <v>71</v>
       </c>
       <c r="B283">
         <v>16</v>
@@ -34224,8 +34329,8 @@
       </c>
     </row>
     <row r="284" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A284">
-        <v>131213</v>
+      <c r="A284" t="s">
+        <v>71</v>
       </c>
       <c r="B284">
         <v>17</v>
@@ -34343,8 +34448,8 @@
       </c>
     </row>
     <row r="285" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A285">
-        <v>131213</v>
+      <c r="A285" t="s">
+        <v>71</v>
       </c>
       <c r="B285">
         <v>18</v>
@@ -34462,8 +34567,8 @@
       </c>
     </row>
     <row r="286" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A286">
-        <v>131213</v>
+      <c r="A286" t="s">
+        <v>71</v>
       </c>
       <c r="B286">
         <v>19</v>
@@ -34581,8 +34686,8 @@
       </c>
     </row>
     <row r="287" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A287">
-        <v>140241</v>
+      <c r="A287" t="s">
+        <v>72</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -34700,8 +34805,8 @@
       </c>
     </row>
     <row r="288" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A288">
-        <v>140241</v>
+      <c r="A288" t="s">
+        <v>72</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -34819,8 +34924,8 @@
       </c>
     </row>
     <row r="289" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A289">
-        <v>140241</v>
+      <c r="A289" t="s">
+        <v>72</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -34938,8 +35043,8 @@
       </c>
     </row>
     <row r="290" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A290">
-        <v>140241</v>
+      <c r="A290" t="s">
+        <v>72</v>
       </c>
       <c r="B290">
         <v>4</v>
@@ -35057,8 +35162,8 @@
       </c>
     </row>
     <row r="291" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A291">
-        <v>140241</v>
+      <c r="A291" t="s">
+        <v>72</v>
       </c>
       <c r="B291">
         <v>5</v>
@@ -35176,8 +35281,8 @@
       </c>
     </row>
     <row r="292" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A292">
-        <v>140241</v>
+      <c r="A292" t="s">
+        <v>72</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -35295,8 +35400,8 @@
       </c>
     </row>
     <row r="293" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A293">
-        <v>140241</v>
+      <c r="A293" t="s">
+        <v>72</v>
       </c>
       <c r="B293">
         <v>7</v>
@@ -35414,8 +35519,8 @@
       </c>
     </row>
     <row r="294" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A294">
-        <v>140241</v>
+      <c r="A294" t="s">
+        <v>72</v>
       </c>
       <c r="B294">
         <v>8</v>
@@ -35533,8 +35638,8 @@
       </c>
     </row>
     <row r="295" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A295">
-        <v>140241</v>
+      <c r="A295" t="s">
+        <v>72</v>
       </c>
       <c r="B295">
         <v>9</v>
@@ -35652,8 +35757,8 @@
       </c>
     </row>
     <row r="296" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A296">
-        <v>140241</v>
+      <c r="A296" t="s">
+        <v>72</v>
       </c>
       <c r="B296">
         <v>10</v>
@@ -35771,8 +35876,8 @@
       </c>
     </row>
     <row r="297" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A297">
-        <v>140241</v>
+      <c r="A297" t="s">
+        <v>72</v>
       </c>
       <c r="B297">
         <v>11</v>
@@ -35890,8 +35995,8 @@
       </c>
     </row>
     <row r="298" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A298">
-        <v>140241</v>
+      <c r="A298" t="s">
+        <v>72</v>
       </c>
       <c r="B298">
         <v>12</v>
@@ -36009,8 +36114,8 @@
       </c>
     </row>
     <row r="299" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A299">
-        <v>140241</v>
+      <c r="A299" t="s">
+        <v>72</v>
       </c>
       <c r="B299">
         <v>13</v>
@@ -36128,8 +36233,8 @@
       </c>
     </row>
     <row r="300" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A300">
-        <v>140241</v>
+      <c r="A300" t="s">
+        <v>72</v>
       </c>
       <c r="B300">
         <v>14</v>
@@ -36247,8 +36352,8 @@
       </c>
     </row>
     <row r="301" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A301">
-        <v>140241</v>
+      <c r="A301" t="s">
+        <v>72</v>
       </c>
       <c r="B301">
         <v>15</v>
@@ -36366,8 +36471,8 @@
       </c>
     </row>
     <row r="302" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A302">
-        <v>140241</v>
+      <c r="A302" t="s">
+        <v>72</v>
       </c>
       <c r="B302">
         <v>16</v>
@@ -36485,8 +36590,8 @@
       </c>
     </row>
     <row r="303" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A303">
-        <v>140241</v>
+      <c r="A303" t="s">
+        <v>72</v>
       </c>
       <c r="B303">
         <v>17</v>
@@ -36604,8 +36709,8 @@
       </c>
     </row>
     <row r="304" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A304">
-        <v>140241</v>
+      <c r="A304" t="s">
+        <v>72</v>
       </c>
       <c r="B304">
         <v>18</v>
@@ -36723,8 +36828,8 @@
       </c>
     </row>
     <row r="305" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A305">
-        <v>140241</v>
+      <c r="A305" t="s">
+        <v>72</v>
       </c>
       <c r="B305">
         <v>19</v>
@@ -36842,8 +36947,8 @@
       </c>
     </row>
     <row r="306" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A306">
-        <v>140268</v>
+      <c r="A306" t="s">
+        <v>63</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -36961,8 +37066,8 @@
       </c>
     </row>
     <row r="307" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A307">
-        <v>140268</v>
+      <c r="A307" t="s">
+        <v>63</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -37080,8 +37185,8 @@
       </c>
     </row>
     <row r="308" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A308">
-        <v>140268</v>
+      <c r="A308" t="s">
+        <v>63</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -37199,8 +37304,8 @@
       </c>
     </row>
     <row r="309" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A309">
-        <v>140268</v>
+      <c r="A309" t="s">
+        <v>63</v>
       </c>
       <c r="B309">
         <v>4</v>
@@ -37318,8 +37423,8 @@
       </c>
     </row>
     <row r="310" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A310">
-        <v>140268</v>
+      <c r="A310" t="s">
+        <v>63</v>
       </c>
       <c r="B310">
         <v>5</v>
@@ -37437,8 +37542,8 @@
       </c>
     </row>
     <row r="311" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A311">
-        <v>140268</v>
+      <c r="A311" t="s">
+        <v>63</v>
       </c>
       <c r="B311">
         <v>6</v>
@@ -37556,8 +37661,8 @@
       </c>
     </row>
     <row r="312" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A312">
-        <v>140268</v>
+      <c r="A312" t="s">
+        <v>63</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -37675,8 +37780,8 @@
       </c>
     </row>
     <row r="313" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A313">
-        <v>140268</v>
+      <c r="A313" t="s">
+        <v>63</v>
       </c>
       <c r="B313">
         <v>8</v>
@@ -37794,8 +37899,8 @@
       </c>
     </row>
     <row r="314" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A314">
-        <v>140268</v>
+      <c r="A314" t="s">
+        <v>63</v>
       </c>
       <c r="B314">
         <v>9</v>
@@ -37913,8 +38018,8 @@
       </c>
     </row>
     <row r="315" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A315">
-        <v>140268</v>
+      <c r="A315" t="s">
+        <v>63</v>
       </c>
       <c r="B315">
         <v>10</v>
@@ -38032,8 +38137,8 @@
       </c>
     </row>
     <row r="316" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A316">
-        <v>140268</v>
+      <c r="A316" t="s">
+        <v>63</v>
       </c>
       <c r="B316">
         <v>11</v>
@@ -38151,8 +38256,8 @@
       </c>
     </row>
     <row r="317" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A317">
-        <v>140268</v>
+      <c r="A317" t="s">
+        <v>63</v>
       </c>
       <c r="B317">
         <v>12</v>
@@ -38270,8 +38375,8 @@
       </c>
     </row>
     <row r="318" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A318">
-        <v>140268</v>
+      <c r="A318" t="s">
+        <v>63</v>
       </c>
       <c r="B318">
         <v>13</v>
@@ -38389,8 +38494,8 @@
       </c>
     </row>
     <row r="319" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A319">
-        <v>140268</v>
+      <c r="A319" t="s">
+        <v>63</v>
       </c>
       <c r="B319">
         <v>14</v>
@@ -38508,8 +38613,8 @@
       </c>
     </row>
     <row r="320" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <v>140268</v>
+      <c r="A320" t="s">
+        <v>63</v>
       </c>
       <c r="B320">
         <v>15</v>
@@ -38627,8 +38732,8 @@
       </c>
     </row>
     <row r="321" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <v>140268</v>
+      <c r="A321" t="s">
+        <v>63</v>
       </c>
       <c r="B321">
         <v>16</v>
@@ -38746,8 +38851,8 @@
       </c>
     </row>
     <row r="322" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <v>140268</v>
+      <c r="A322" t="s">
+        <v>63</v>
       </c>
       <c r="B322">
         <v>17</v>
@@ -38865,8 +38970,8 @@
       </c>
     </row>
     <row r="323" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <v>140268</v>
+      <c r="A323" t="s">
+        <v>63</v>
       </c>
       <c r="B323">
         <v>18</v>
@@ -38984,8 +39089,8 @@
       </c>
     </row>
     <row r="324" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <v>140268</v>
+      <c r="A324" t="s">
+        <v>63</v>
       </c>
       <c r="B324">
         <v>19</v>
@@ -39103,8 +39208,8 @@
       </c>
     </row>
     <row r="325" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <v>140679</v>
+      <c r="A325" t="s">
+        <v>73</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -39222,8 +39327,8 @@
       </c>
     </row>
     <row r="326" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A326">
-        <v>140679</v>
+      <c r="A326" t="s">
+        <v>73</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -39341,8 +39446,8 @@
       </c>
     </row>
     <row r="327" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A327">
-        <v>140679</v>
+      <c r="A327" t="s">
+        <v>73</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -39460,8 +39565,8 @@
       </c>
     </row>
     <row r="328" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A328">
-        <v>140679</v>
+      <c r="A328" t="s">
+        <v>73</v>
       </c>
       <c r="B328">
         <v>4</v>
@@ -39579,8 +39684,8 @@
       </c>
     </row>
     <row r="329" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A329">
-        <v>140679</v>
+      <c r="A329" t="s">
+        <v>73</v>
       </c>
       <c r="B329">
         <v>5</v>
@@ -39698,8 +39803,8 @@
       </c>
     </row>
     <row r="330" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A330">
-        <v>140679</v>
+      <c r="A330" t="s">
+        <v>73</v>
       </c>
       <c r="B330">
         <v>6</v>
@@ -39817,8 +39922,8 @@
       </c>
     </row>
     <row r="331" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A331">
-        <v>140679</v>
+      <c r="A331" t="s">
+        <v>73</v>
       </c>
       <c r="B331">
         <v>7</v>
@@ -39936,8 +40041,8 @@
       </c>
     </row>
     <row r="332" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A332">
-        <v>140679</v>
+      <c r="A332" t="s">
+        <v>73</v>
       </c>
       <c r="B332">
         <v>8</v>
@@ -40055,8 +40160,8 @@
       </c>
     </row>
     <row r="333" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A333">
-        <v>140679</v>
+      <c r="A333" t="s">
+        <v>73</v>
       </c>
       <c r="B333">
         <v>9</v>
@@ -40174,8 +40279,8 @@
       </c>
     </row>
     <row r="334" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A334">
-        <v>140679</v>
+      <c r="A334" t="s">
+        <v>73</v>
       </c>
       <c r="B334">
         <v>10</v>
@@ -40293,8 +40398,8 @@
       </c>
     </row>
     <row r="335" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A335">
-        <v>140679</v>
+      <c r="A335" t="s">
+        <v>73</v>
       </c>
       <c r="B335">
         <v>11</v>
@@ -40412,8 +40517,8 @@
       </c>
     </row>
     <row r="336" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A336">
-        <v>140679</v>
+      <c r="A336" t="s">
+        <v>73</v>
       </c>
       <c r="B336">
         <v>12</v>
@@ -40531,8 +40636,8 @@
       </c>
     </row>
     <row r="337" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <v>140679</v>
+      <c r="A337" t="s">
+        <v>73</v>
       </c>
       <c r="B337">
         <v>13</v>
@@ -40650,8 +40755,8 @@
       </c>
     </row>
     <row r="338" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A338">
-        <v>140679</v>
+      <c r="A338" t="s">
+        <v>73</v>
       </c>
       <c r="B338">
         <v>14</v>
@@ -40769,8 +40874,8 @@
       </c>
     </row>
     <row r="339" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A339">
-        <v>140679</v>
+      <c r="A339" t="s">
+        <v>73</v>
       </c>
       <c r="B339">
         <v>15</v>
@@ -40888,8 +40993,8 @@
       </c>
     </row>
     <row r="340" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A340">
-        <v>140679</v>
+      <c r="A340" t="s">
+        <v>73</v>
       </c>
       <c r="B340">
         <v>16</v>
@@ -41007,8 +41112,8 @@
       </c>
     </row>
     <row r="341" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A341">
-        <v>140679</v>
+      <c r="A341" t="s">
+        <v>73</v>
       </c>
       <c r="B341">
         <v>17</v>
@@ -41126,8 +41231,8 @@
       </c>
     </row>
     <row r="342" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A342">
-        <v>140679</v>
+      <c r="A342" t="s">
+        <v>73</v>
       </c>
       <c r="B342">
         <v>18</v>
@@ -41245,8 +41350,8 @@
       </c>
     </row>
     <row r="343" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A343">
-        <v>140679</v>
+      <c r="A343" t="s">
+        <v>73</v>
       </c>
       <c r="B343">
         <v>19</v>
@@ -41364,8 +41469,8 @@
       </c>
     </row>
     <row r="344" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A344">
-        <v>140721</v>
+      <c r="A344" t="s">
+        <v>74</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -41483,8 +41588,8 @@
       </c>
     </row>
     <row r="345" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A345">
-        <v>140721</v>
+      <c r="A345" t="s">
+        <v>74</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -41602,8 +41707,8 @@
       </c>
     </row>
     <row r="346" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A346">
-        <v>140721</v>
+      <c r="A346" t="s">
+        <v>74</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -41721,8 +41826,8 @@
       </c>
     </row>
     <row r="347" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A347">
-        <v>140721</v>
+      <c r="A347" t="s">
+        <v>74</v>
       </c>
       <c r="B347">
         <v>4</v>
@@ -41840,8 +41945,8 @@
       </c>
     </row>
     <row r="348" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A348">
-        <v>140721</v>
+      <c r="A348" t="s">
+        <v>74</v>
       </c>
       <c r="B348">
         <v>5</v>
@@ -41959,8 +42064,8 @@
       </c>
     </row>
     <row r="349" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A349">
-        <v>140721</v>
+      <c r="A349" t="s">
+        <v>74</v>
       </c>
       <c r="B349">
         <v>6</v>
@@ -42078,8 +42183,8 @@
       </c>
     </row>
     <row r="350" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A350">
-        <v>140721</v>
+      <c r="A350" t="s">
+        <v>74</v>
       </c>
       <c r="B350">
         <v>7</v>
@@ -42197,8 +42302,8 @@
       </c>
     </row>
     <row r="351" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A351">
-        <v>140721</v>
+      <c r="A351" t="s">
+        <v>74</v>
       </c>
       <c r="B351">
         <v>8</v>
@@ -42316,8 +42421,8 @@
       </c>
     </row>
     <row r="352" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A352">
-        <v>140721</v>
+      <c r="A352" t="s">
+        <v>74</v>
       </c>
       <c r="B352">
         <v>9</v>
@@ -42435,8 +42540,8 @@
       </c>
     </row>
     <row r="353" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A353">
-        <v>140721</v>
+      <c r="A353" t="s">
+        <v>74</v>
       </c>
       <c r="B353">
         <v>10</v>
@@ -42554,8 +42659,8 @@
       </c>
     </row>
     <row r="354" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A354">
-        <v>140721</v>
+      <c r="A354" t="s">
+        <v>74</v>
       </c>
       <c r="B354">
         <v>11</v>
@@ -42673,8 +42778,8 @@
       </c>
     </row>
     <row r="355" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A355">
-        <v>140721</v>
+      <c r="A355" t="s">
+        <v>74</v>
       </c>
       <c r="B355">
         <v>12</v>
@@ -42792,8 +42897,8 @@
       </c>
     </row>
     <row r="356" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A356">
-        <v>140721</v>
+      <c r="A356" t="s">
+        <v>74</v>
       </c>
       <c r="B356">
         <v>13</v>
@@ -42911,8 +43016,8 @@
       </c>
     </row>
     <row r="357" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>140721</v>
+      <c r="A357" t="s">
+        <v>74</v>
       </c>
       <c r="B357">
         <v>14</v>
@@ -43030,8 +43135,8 @@
       </c>
     </row>
     <row r="358" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>140721</v>
+      <c r="A358" t="s">
+        <v>74</v>
       </c>
       <c r="B358">
         <v>15</v>
@@ -43149,8 +43254,8 @@
       </c>
     </row>
     <row r="359" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>140721</v>
+      <c r="A359" t="s">
+        <v>74</v>
       </c>
       <c r="B359">
         <v>16</v>
@@ -43268,8 +43373,8 @@
       </c>
     </row>
     <row r="360" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>140721</v>
+      <c r="A360" t="s">
+        <v>74</v>
       </c>
       <c r="B360">
         <v>17</v>
@@ -43387,8 +43492,8 @@
       </c>
     </row>
     <row r="361" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A361">
-        <v>140721</v>
+      <c r="A361" t="s">
+        <v>74</v>
       </c>
       <c r="B361">
         <v>18</v>
@@ -43506,8 +43611,8 @@
       </c>
     </row>
     <row r="362" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A362">
-        <v>140721</v>
+      <c r="A362" t="s">
+        <v>74</v>
       </c>
       <c r="B362">
         <v>19</v>
@@ -43625,8 +43730,8 @@
       </c>
     </row>
     <row r="363" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A363">
-        <v>140739</v>
+      <c r="A363" t="s">
+        <v>75</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -43744,8 +43849,8 @@
       </c>
     </row>
     <row r="364" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A364">
-        <v>140739</v>
+      <c r="A364" t="s">
+        <v>75</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -43863,8 +43968,8 @@
       </c>
     </row>
     <row r="365" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A365">
-        <v>140739</v>
+      <c r="A365" t="s">
+        <v>75</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -43982,8 +44087,8 @@
       </c>
     </row>
     <row r="366" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A366">
-        <v>140739</v>
+      <c r="A366" t="s">
+        <v>75</v>
       </c>
       <c r="B366">
         <v>4</v>
@@ -44101,8 +44206,8 @@
       </c>
     </row>
     <row r="367" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A367">
-        <v>140739</v>
+      <c r="A367" t="s">
+        <v>75</v>
       </c>
       <c r="B367">
         <v>5</v>
@@ -44220,8 +44325,8 @@
       </c>
     </row>
     <row r="368" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A368">
-        <v>140739</v>
+      <c r="A368" t="s">
+        <v>75</v>
       </c>
       <c r="B368">
         <v>6</v>
@@ -44339,8 +44444,8 @@
       </c>
     </row>
     <row r="369" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A369">
-        <v>140739</v>
+      <c r="A369" t="s">
+        <v>75</v>
       </c>
       <c r="B369">
         <v>7</v>
@@ -44458,8 +44563,8 @@
       </c>
     </row>
     <row r="370" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A370">
-        <v>140739</v>
+      <c r="A370" t="s">
+        <v>75</v>
       </c>
       <c r="B370">
         <v>8</v>
@@ -44577,8 +44682,8 @@
       </c>
     </row>
     <row r="371" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A371">
-        <v>140739</v>
+      <c r="A371" t="s">
+        <v>75</v>
       </c>
       <c r="B371">
         <v>9</v>
@@ -44696,8 +44801,8 @@
       </c>
     </row>
     <row r="372" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A372">
-        <v>140739</v>
+      <c r="A372" t="s">
+        <v>75</v>
       </c>
       <c r="B372">
         <v>10</v>
@@ -44815,8 +44920,8 @@
       </c>
     </row>
     <row r="373" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A373">
-        <v>140739</v>
+      <c r="A373" t="s">
+        <v>75</v>
       </c>
       <c r="B373">
         <v>11</v>
@@ -44934,8 +45039,8 @@
       </c>
     </row>
     <row r="374" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A374">
-        <v>140739</v>
+      <c r="A374" t="s">
+        <v>75</v>
       </c>
       <c r="B374">
         <v>12</v>
@@ -45053,8 +45158,8 @@
       </c>
     </row>
     <row r="375" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A375">
-        <v>140739</v>
+      <c r="A375" t="s">
+        <v>75</v>
       </c>
       <c r="B375">
         <v>13</v>
@@ -45172,8 +45277,8 @@
       </c>
     </row>
     <row r="376" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A376">
-        <v>140739</v>
+      <c r="A376" t="s">
+        <v>75</v>
       </c>
       <c r="B376">
         <v>14</v>
@@ -45291,8 +45396,8 @@
       </c>
     </row>
     <row r="377" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A377">
-        <v>140739</v>
+      <c r="A377" t="s">
+        <v>75</v>
       </c>
       <c r="B377">
         <v>15</v>
@@ -45410,8 +45515,8 @@
       </c>
     </row>
     <row r="378" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A378">
-        <v>140739</v>
+      <c r="A378" t="s">
+        <v>75</v>
       </c>
       <c r="B378">
         <v>16</v>
@@ -45529,8 +45634,8 @@
       </c>
     </row>
     <row r="379" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A379">
-        <v>140739</v>
+      <c r="A379" t="s">
+        <v>75</v>
       </c>
       <c r="B379">
         <v>17</v>
@@ -45648,8 +45753,8 @@
       </c>
     </row>
     <row r="380" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A380">
-        <v>140739</v>
+      <c r="A380" t="s">
+        <v>75</v>
       </c>
       <c r="B380">
         <v>18</v>
@@ -45767,8 +45872,8 @@
       </c>
     </row>
     <row r="381" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A381">
-        <v>140739</v>
+      <c r="A381" t="s">
+        <v>75</v>
       </c>
       <c r="B381">
         <v>19</v>
@@ -45886,8 +45991,8 @@
       </c>
     </row>
     <row r="382" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A382">
-        <v>140956</v>
+      <c r="A382" t="s">
+        <v>76</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -46005,8 +46110,8 @@
       </c>
     </row>
     <row r="383" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A383">
-        <v>140956</v>
+      <c r="A383" t="s">
+        <v>76</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -46124,8 +46229,8 @@
       </c>
     </row>
     <row r="384" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A384">
-        <v>140956</v>
+      <c r="A384" t="s">
+        <v>76</v>
       </c>
       <c r="B384">
         <v>3</v>
@@ -46243,8 +46348,8 @@
       </c>
     </row>
     <row r="385" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A385">
-        <v>140956</v>
+      <c r="A385" t="s">
+        <v>76</v>
       </c>
       <c r="B385">
         <v>4</v>
@@ -46362,8 +46467,8 @@
       </c>
     </row>
     <row r="386" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A386">
-        <v>140956</v>
+      <c r="A386" t="s">
+        <v>76</v>
       </c>
       <c r="B386">
         <v>5</v>
@@ -46481,8 +46586,8 @@
       </c>
     </row>
     <row r="387" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A387">
-        <v>140956</v>
+      <c r="A387" t="s">
+        <v>76</v>
       </c>
       <c r="B387">
         <v>6</v>
@@ -46600,8 +46705,8 @@
       </c>
     </row>
     <row r="388" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A388">
-        <v>140956</v>
+      <c r="A388" t="s">
+        <v>76</v>
       </c>
       <c r="B388">
         <v>7</v>
@@ -46719,8 +46824,8 @@
       </c>
     </row>
     <row r="389" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A389">
-        <v>140956</v>
+      <c r="A389" t="s">
+        <v>76</v>
       </c>
       <c r="B389">
         <v>8</v>
@@ -46838,8 +46943,8 @@
       </c>
     </row>
     <row r="390" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A390">
-        <v>140956</v>
+      <c r="A390" t="s">
+        <v>76</v>
       </c>
       <c r="B390">
         <v>9</v>
@@ -46957,8 +47062,8 @@
       </c>
     </row>
     <row r="391" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A391">
-        <v>140956</v>
+      <c r="A391" t="s">
+        <v>76</v>
       </c>
       <c r="B391">
         <v>10</v>
@@ -47076,8 +47181,8 @@
       </c>
     </row>
     <row r="392" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A392">
-        <v>140956</v>
+      <c r="A392" t="s">
+        <v>76</v>
       </c>
       <c r="B392">
         <v>11</v>
@@ -47195,8 +47300,8 @@
       </c>
     </row>
     <row r="393" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A393">
-        <v>140956</v>
+      <c r="A393" t="s">
+        <v>76</v>
       </c>
       <c r="B393">
         <v>12</v>
@@ -47314,8 +47419,8 @@
       </c>
     </row>
     <row r="394" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A394">
-        <v>140956</v>
+      <c r="A394" t="s">
+        <v>76</v>
       </c>
       <c r="B394">
         <v>13</v>
@@ -47433,8 +47538,8 @@
       </c>
     </row>
     <row r="395" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A395">
-        <v>140956</v>
+      <c r="A395" t="s">
+        <v>76</v>
       </c>
       <c r="B395">
         <v>14</v>
@@ -47552,8 +47657,8 @@
       </c>
     </row>
     <row r="396" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A396">
-        <v>140956</v>
+      <c r="A396" t="s">
+        <v>76</v>
       </c>
       <c r="B396">
         <v>15</v>
@@ -47671,8 +47776,8 @@
       </c>
     </row>
     <row r="397" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A397">
-        <v>140956</v>
+      <c r="A397" t="s">
+        <v>76</v>
       </c>
       <c r="B397">
         <v>16</v>
@@ -47790,8 +47895,8 @@
       </c>
     </row>
     <row r="398" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A398">
-        <v>140956</v>
+      <c r="A398" t="s">
+        <v>76</v>
       </c>
       <c r="B398">
         <v>17</v>
@@ -47909,8 +48014,8 @@
       </c>
     </row>
     <row r="399" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A399">
-        <v>140956</v>
+      <c r="A399" t="s">
+        <v>76</v>
       </c>
       <c r="B399">
         <v>18</v>
@@ -48028,8 +48133,8 @@
       </c>
     </row>
     <row r="400" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A400">
-        <v>140956</v>
+      <c r="A400" t="s">
+        <v>76</v>
       </c>
       <c r="B400">
         <v>19</v>
@@ -48147,8 +48252,8 @@
       </c>
     </row>
     <row r="401" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A401">
-        <v>141280</v>
+      <c r="A401" t="s">
+        <v>74</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -48266,8 +48371,8 @@
       </c>
     </row>
     <row r="402" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A402">
-        <v>141280</v>
+      <c r="A402" t="s">
+        <v>74</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -48385,8 +48490,8 @@
       </c>
     </row>
     <row r="403" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A403">
-        <v>141280</v>
+      <c r="A403" t="s">
+        <v>74</v>
       </c>
       <c r="B403">
         <v>3</v>
@@ -48504,8 +48609,8 @@
       </c>
     </row>
     <row r="404" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A404">
-        <v>141280</v>
+      <c r="A404" t="s">
+        <v>74</v>
       </c>
       <c r="B404">
         <v>4</v>
@@ -48623,8 +48728,8 @@
       </c>
     </row>
     <row r="405" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A405">
-        <v>141280</v>
+      <c r="A405" t="s">
+        <v>74</v>
       </c>
       <c r="B405">
         <v>5</v>
@@ -48742,8 +48847,8 @@
       </c>
     </row>
     <row r="406" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A406">
-        <v>141280</v>
+      <c r="A406" t="s">
+        <v>74</v>
       </c>
       <c r="B406">
         <v>6</v>
@@ -48861,8 +48966,8 @@
       </c>
     </row>
     <row r="407" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A407">
-        <v>141280</v>
+      <c r="A407" t="s">
+        <v>74</v>
       </c>
       <c r="B407">
         <v>7</v>
@@ -48980,8 +49085,8 @@
       </c>
     </row>
     <row r="408" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A408">
-        <v>141280</v>
+      <c r="A408" t="s">
+        <v>74</v>
       </c>
       <c r="B408">
         <v>8</v>
@@ -49099,8 +49204,8 @@
       </c>
     </row>
     <row r="409" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A409">
-        <v>141280</v>
+      <c r="A409" t="s">
+        <v>74</v>
       </c>
       <c r="B409">
         <v>9</v>
@@ -49218,8 +49323,8 @@
       </c>
     </row>
     <row r="410" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A410">
-        <v>141280</v>
+      <c r="A410" t="s">
+        <v>74</v>
       </c>
       <c r="B410">
         <v>10</v>
@@ -49337,8 +49442,8 @@
       </c>
     </row>
     <row r="411" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A411">
-        <v>141280</v>
+      <c r="A411" t="s">
+        <v>74</v>
       </c>
       <c r="B411">
         <v>11</v>
@@ -49456,8 +49561,8 @@
       </c>
     </row>
     <row r="412" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A412">
-        <v>141280</v>
+      <c r="A412" t="s">
+        <v>74</v>
       </c>
       <c r="B412">
         <v>12</v>
@@ -49575,8 +49680,8 @@
       </c>
     </row>
     <row r="413" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A413">
-        <v>141280</v>
+      <c r="A413" t="s">
+        <v>74</v>
       </c>
       <c r="B413">
         <v>13</v>
@@ -49694,8 +49799,8 @@
       </c>
     </row>
     <row r="414" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A414">
-        <v>141280</v>
+      <c r="A414" t="s">
+        <v>74</v>
       </c>
       <c r="B414">
         <v>14</v>
@@ -49813,8 +49918,8 @@
       </c>
     </row>
     <row r="415" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A415">
-        <v>141280</v>
+      <c r="A415" t="s">
+        <v>74</v>
       </c>
       <c r="B415">
         <v>15</v>
@@ -49932,8 +50037,8 @@
       </c>
     </row>
     <row r="416" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A416">
-        <v>141280</v>
+      <c r="A416" t="s">
+        <v>74</v>
       </c>
       <c r="B416">
         <v>16</v>
@@ -50051,8 +50156,8 @@
       </c>
     </row>
     <row r="417" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A417">
-        <v>141280</v>
+      <c r="A417" t="s">
+        <v>74</v>
       </c>
       <c r="B417">
         <v>17</v>
@@ -50170,8 +50275,8 @@
       </c>
     </row>
     <row r="418" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A418">
-        <v>141280</v>
+      <c r="A418" t="s">
+        <v>74</v>
       </c>
       <c r="B418">
         <v>18</v>
@@ -50289,8 +50394,8 @@
       </c>
     </row>
     <row r="419" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A419">
-        <v>141280</v>
+      <c r="A419" t="s">
+        <v>74</v>
       </c>
       <c r="B419">
         <v>19</v>
@@ -50408,8 +50513,8 @@
       </c>
     </row>
     <row r="420" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A420">
-        <v>141527</v>
+      <c r="A420" t="s">
+        <v>77</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -50527,8 +50632,8 @@
       </c>
     </row>
     <row r="421" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A421">
-        <v>141527</v>
+      <c r="A421" t="s">
+        <v>77</v>
       </c>
       <c r="B421">
         <v>2</v>
@@ -50646,8 +50751,8 @@
       </c>
     </row>
     <row r="422" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A422">
-        <v>141527</v>
+      <c r="A422" t="s">
+        <v>77</v>
       </c>
       <c r="B422">
         <v>3</v>
@@ -50765,8 +50870,8 @@
       </c>
     </row>
     <row r="423" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A423">
-        <v>141527</v>
+      <c r="A423" t="s">
+        <v>77</v>
       </c>
       <c r="B423">
         <v>4</v>
@@ -50884,8 +50989,8 @@
       </c>
     </row>
     <row r="424" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A424">
-        <v>141527</v>
+      <c r="A424" t="s">
+        <v>77</v>
       </c>
       <c r="B424">
         <v>5</v>
@@ -51003,8 +51108,8 @@
       </c>
     </row>
     <row r="425" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A425">
-        <v>141527</v>
+      <c r="A425" t="s">
+        <v>77</v>
       </c>
       <c r="B425">
         <v>6</v>
@@ -51122,8 +51227,8 @@
       </c>
     </row>
     <row r="426" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A426">
-        <v>141527</v>
+      <c r="A426" t="s">
+        <v>77</v>
       </c>
       <c r="B426">
         <v>7</v>
@@ -51241,8 +51346,8 @@
       </c>
     </row>
     <row r="427" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A427">
-        <v>141527</v>
+      <c r="A427" t="s">
+        <v>77</v>
       </c>
       <c r="B427">
         <v>8</v>
@@ -51360,8 +51465,8 @@
       </c>
     </row>
     <row r="428" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A428">
-        <v>141527</v>
+      <c r="A428" t="s">
+        <v>77</v>
       </c>
       <c r="B428">
         <v>9</v>
@@ -51479,8 +51584,8 @@
       </c>
     </row>
     <row r="429" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A429">
-        <v>141527</v>
+      <c r="A429" t="s">
+        <v>77</v>
       </c>
       <c r="B429">
         <v>10</v>
@@ -51598,8 +51703,8 @@
       </c>
     </row>
     <row r="430" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A430">
-        <v>141527</v>
+      <c r="A430" t="s">
+        <v>77</v>
       </c>
       <c r="B430">
         <v>11</v>
@@ -51717,8 +51822,8 @@
       </c>
     </row>
     <row r="431" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A431">
-        <v>141527</v>
+      <c r="A431" t="s">
+        <v>77</v>
       </c>
       <c r="B431">
         <v>12</v>
@@ -51836,8 +51941,8 @@
       </c>
     </row>
     <row r="432" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A432">
-        <v>141527</v>
+      <c r="A432" t="s">
+        <v>77</v>
       </c>
       <c r="B432">
         <v>13</v>
@@ -51955,8 +52060,8 @@
       </c>
     </row>
     <row r="433" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A433">
-        <v>141527</v>
+      <c r="A433" t="s">
+        <v>77</v>
       </c>
       <c r="B433">
         <v>14</v>
@@ -52074,8 +52179,8 @@
       </c>
     </row>
     <row r="434" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A434">
-        <v>141527</v>
+      <c r="A434" t="s">
+        <v>77</v>
       </c>
       <c r="B434">
         <v>15</v>
@@ -52193,8 +52298,8 @@
       </c>
     </row>
     <row r="435" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A435">
-        <v>141527</v>
+      <c r="A435" t="s">
+        <v>77</v>
       </c>
       <c r="B435">
         <v>16</v>
@@ -52312,8 +52417,8 @@
       </c>
     </row>
     <row r="436" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A436">
-        <v>141527</v>
+      <c r="A436" t="s">
+        <v>77</v>
       </c>
       <c r="B436">
         <v>17</v>
@@ -52431,8 +52536,8 @@
       </c>
     </row>
     <row r="437" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A437">
-        <v>141527</v>
+      <c r="A437" t="s">
+        <v>77</v>
       </c>
       <c r="B437">
         <v>18</v>
@@ -52550,8 +52655,8 @@
       </c>
     </row>
     <row r="438" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A438">
-        <v>141527</v>
+      <c r="A438" t="s">
+        <v>77</v>
       </c>
       <c r="B438">
         <v>19</v>
@@ -52669,8 +52774,8 @@
       </c>
     </row>
     <row r="439" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A439">
-        <v>141563</v>
+      <c r="A439" t="s">
+        <v>69</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -52788,8 +52893,8 @@
       </c>
     </row>
     <row r="440" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A440">
-        <v>141563</v>
+      <c r="A440" t="s">
+        <v>69</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -52907,8 +53012,8 @@
       </c>
     </row>
     <row r="441" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A441">
-        <v>141563</v>
+      <c r="A441" t="s">
+        <v>69</v>
       </c>
       <c r="B441">
         <v>3</v>
@@ -53026,8 +53131,8 @@
       </c>
     </row>
     <row r="442" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A442">
-        <v>141563</v>
+      <c r="A442" t="s">
+        <v>69</v>
       </c>
       <c r="B442">
         <v>4</v>
@@ -53145,8 +53250,8 @@
       </c>
     </row>
     <row r="443" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A443">
-        <v>141563</v>
+      <c r="A443" t="s">
+        <v>69</v>
       </c>
       <c r="B443">
         <v>5</v>
@@ -53264,8 +53369,8 @@
       </c>
     </row>
     <row r="444" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A444">
-        <v>141563</v>
+      <c r="A444" t="s">
+        <v>69</v>
       </c>
       <c r="B444">
         <v>6</v>
@@ -53383,8 +53488,8 @@
       </c>
     </row>
     <row r="445" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A445">
-        <v>141563</v>
+      <c r="A445" t="s">
+        <v>69</v>
       </c>
       <c r="B445">
         <v>7</v>
@@ -53502,8 +53607,8 @@
       </c>
     </row>
     <row r="446" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A446">
-        <v>141563</v>
+      <c r="A446" t="s">
+        <v>69</v>
       </c>
       <c r="B446">
         <v>8</v>
@@ -53621,8 +53726,8 @@
       </c>
     </row>
     <row r="447" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A447">
-        <v>141563</v>
+      <c r="A447" t="s">
+        <v>69</v>
       </c>
       <c r="B447">
         <v>9</v>
@@ -53740,8 +53845,8 @@
       </c>
     </row>
     <row r="448" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A448">
-        <v>141563</v>
+      <c r="A448" t="s">
+        <v>69</v>
       </c>
       <c r="B448">
         <v>10</v>
@@ -53859,8 +53964,8 @@
       </c>
     </row>
     <row r="449" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A449">
-        <v>141563</v>
+      <c r="A449" t="s">
+        <v>69</v>
       </c>
       <c r="B449">
         <v>11</v>
@@ -53978,8 +54083,8 @@
       </c>
     </row>
     <row r="450" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A450">
-        <v>141563</v>
+      <c r="A450" t="s">
+        <v>69</v>
       </c>
       <c r="B450">
         <v>12</v>
@@ -54097,8 +54202,8 @@
       </c>
     </row>
     <row r="451" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A451">
-        <v>141563</v>
+      <c r="A451" t="s">
+        <v>69</v>
       </c>
       <c r="B451">
         <v>13</v>
@@ -54216,8 +54321,8 @@
       </c>
     </row>
     <row r="452" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A452">
-        <v>141563</v>
+      <c r="A452" t="s">
+        <v>69</v>
       </c>
       <c r="B452">
         <v>14</v>
@@ -54335,8 +54440,8 @@
       </c>
     </row>
     <row r="453" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A453">
-        <v>141563</v>
+      <c r="A453" t="s">
+        <v>69</v>
       </c>
       <c r="B453">
         <v>15</v>
@@ -54454,8 +54559,8 @@
       </c>
     </row>
     <row r="454" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A454">
-        <v>141563</v>
+      <c r="A454" t="s">
+        <v>69</v>
       </c>
       <c r="B454">
         <v>16</v>
@@ -54573,8 +54678,8 @@
       </c>
     </row>
     <row r="455" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A455">
-        <v>141563</v>
+      <c r="A455" t="s">
+        <v>69</v>
       </c>
       <c r="B455">
         <v>17</v>
@@ -54692,8 +54797,8 @@
       </c>
     </row>
     <row r="456" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A456">
-        <v>141563</v>
+      <c r="A456" t="s">
+        <v>69</v>
       </c>
       <c r="B456">
         <v>18</v>
@@ -54811,8 +54916,8 @@
       </c>
     </row>
     <row r="457" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A457">
-        <v>141563</v>
+      <c r="A457" t="s">
+        <v>69</v>
       </c>
       <c r="B457">
         <v>19</v>
@@ -54930,8 +55035,8 @@
       </c>
     </row>
     <row r="458" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A458">
-        <v>141706</v>
+      <c r="A458" t="s">
+        <v>72</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -55049,8 +55154,8 @@
       </c>
     </row>
     <row r="459" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A459">
-        <v>141706</v>
+      <c r="A459" t="s">
+        <v>72</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -55168,8 +55273,8 @@
       </c>
     </row>
     <row r="460" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A460">
-        <v>141706</v>
+      <c r="A460" t="s">
+        <v>72</v>
       </c>
       <c r="B460">
         <v>3</v>
@@ -55287,8 +55392,8 @@
       </c>
     </row>
     <row r="461" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A461">
-        <v>141706</v>
+      <c r="A461" t="s">
+        <v>72</v>
       </c>
       <c r="B461">
         <v>4</v>
@@ -55406,8 +55511,8 @@
       </c>
     </row>
     <row r="462" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A462">
-        <v>141706</v>
+      <c r="A462" t="s">
+        <v>72</v>
       </c>
       <c r="B462">
         <v>5</v>
@@ -55525,8 +55630,8 @@
       </c>
     </row>
     <row r="463" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A463">
-        <v>141706</v>
+      <c r="A463" t="s">
+        <v>72</v>
       </c>
       <c r="B463">
         <v>6</v>
@@ -55644,8 +55749,8 @@
       </c>
     </row>
     <row r="464" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A464">
-        <v>141706</v>
+      <c r="A464" t="s">
+        <v>72</v>
       </c>
       <c r="B464">
         <v>7</v>
@@ -55763,8 +55868,8 @@
       </c>
     </row>
     <row r="465" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A465">
-        <v>141706</v>
+      <c r="A465" t="s">
+        <v>72</v>
       </c>
       <c r="B465">
         <v>8</v>
@@ -55882,8 +55987,8 @@
       </c>
     </row>
     <row r="466" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A466">
-        <v>141706</v>
+      <c r="A466" t="s">
+        <v>72</v>
       </c>
       <c r="B466">
         <v>9</v>
@@ -56001,8 +56106,8 @@
       </c>
     </row>
     <row r="467" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A467">
-        <v>141706</v>
+      <c r="A467" t="s">
+        <v>72</v>
       </c>
       <c r="B467">
         <v>10</v>
@@ -56120,8 +56225,8 @@
       </c>
     </row>
     <row r="468" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A468">
-        <v>141706</v>
+      <c r="A468" t="s">
+        <v>72</v>
       </c>
       <c r="B468">
         <v>11</v>
@@ -56239,8 +56344,8 @@
       </c>
     </row>
     <row r="469" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A469">
-        <v>141706</v>
+      <c r="A469" t="s">
+        <v>72</v>
       </c>
       <c r="B469">
         <v>12</v>
@@ -56358,8 +56463,8 @@
       </c>
     </row>
     <row r="470" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A470">
-        <v>141706</v>
+      <c r="A470" t="s">
+        <v>72</v>
       </c>
       <c r="B470">
         <v>13</v>
@@ -56477,8 +56582,8 @@
       </c>
     </row>
     <row r="471" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A471">
-        <v>141706</v>
+      <c r="A471" t="s">
+        <v>72</v>
       </c>
       <c r="B471">
         <v>14</v>
@@ -56596,8 +56701,8 @@
       </c>
     </row>
     <row r="472" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A472">
-        <v>141706</v>
+      <c r="A472" t="s">
+        <v>72</v>
       </c>
       <c r="B472">
         <v>15</v>
@@ -56715,8 +56820,8 @@
       </c>
     </row>
     <row r="473" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A473">
-        <v>141706</v>
+      <c r="A473" t="s">
+        <v>72</v>
       </c>
       <c r="B473">
         <v>16</v>
@@ -56834,8 +56939,8 @@
       </c>
     </row>
     <row r="474" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A474">
-        <v>141706</v>
+      <c r="A474" t="s">
+        <v>72</v>
       </c>
       <c r="B474">
         <v>17</v>
@@ -56953,8 +57058,8 @@
       </c>
     </row>
     <row r="475" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A475">
-        <v>141706</v>
+      <c r="A475" t="s">
+        <v>72</v>
       </c>
       <c r="B475">
         <v>18</v>
@@ -57072,8 +57177,8 @@
       </c>
     </row>
     <row r="476" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A476">
-        <v>141706</v>
+      <c r="A476" t="s">
+        <v>72</v>
       </c>
       <c r="B476">
         <v>19</v>
@@ -57191,8 +57296,8 @@
       </c>
     </row>
     <row r="477" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A477">
-        <v>141713</v>
+      <c r="A477" t="s">
+        <v>78</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -57310,8 +57415,8 @@
       </c>
     </row>
     <row r="478" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A478">
-        <v>141713</v>
+      <c r="A478" t="s">
+        <v>78</v>
       </c>
       <c r="B478">
         <v>2</v>
@@ -57429,8 +57534,8 @@
       </c>
     </row>
     <row r="479" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A479">
-        <v>141713</v>
+      <c r="A479" t="s">
+        <v>78</v>
       </c>
       <c r="B479">
         <v>3</v>
@@ -57548,8 +57653,8 @@
       </c>
     </row>
     <row r="480" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A480">
-        <v>141713</v>
+      <c r="A480" t="s">
+        <v>78</v>
       </c>
       <c r="B480">
         <v>4</v>
@@ -57667,8 +57772,8 @@
       </c>
     </row>
     <row r="481" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A481">
-        <v>141713</v>
+      <c r="A481" t="s">
+        <v>78</v>
       </c>
       <c r="B481">
         <v>5</v>
@@ -57786,8 +57891,8 @@
       </c>
     </row>
     <row r="482" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A482">
-        <v>141713</v>
+      <c r="A482" t="s">
+        <v>78</v>
       </c>
       <c r="B482">
         <v>6</v>
@@ -57905,8 +58010,8 @@
       </c>
     </row>
     <row r="483" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A483">
-        <v>141713</v>
+      <c r="A483" t="s">
+        <v>78</v>
       </c>
       <c r="B483">
         <v>7</v>
@@ -58024,8 +58129,8 @@
       </c>
     </row>
     <row r="484" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A484">
-        <v>141713</v>
+      <c r="A484" t="s">
+        <v>78</v>
       </c>
       <c r="B484">
         <v>8</v>
@@ -58143,8 +58248,8 @@
       </c>
     </row>
     <row r="485" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A485">
-        <v>141713</v>
+      <c r="A485" t="s">
+        <v>78</v>
       </c>
       <c r="B485">
         <v>9</v>
@@ -58262,8 +58367,8 @@
       </c>
     </row>
     <row r="486" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A486">
-        <v>141713</v>
+      <c r="A486" t="s">
+        <v>78</v>
       </c>
       <c r="B486">
         <v>10</v>
@@ -58381,8 +58486,8 @@
       </c>
     </row>
     <row r="487" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A487">
-        <v>141713</v>
+      <c r="A487" t="s">
+        <v>78</v>
       </c>
       <c r="B487">
         <v>11</v>
@@ -58500,8 +58605,8 @@
       </c>
     </row>
     <row r="488" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A488">
-        <v>141713</v>
+      <c r="A488" t="s">
+        <v>78</v>
       </c>
       <c r="B488">
         <v>12</v>
@@ -58619,8 +58724,8 @@
       </c>
     </row>
     <row r="489" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A489">
-        <v>141713</v>
+      <c r="A489" t="s">
+        <v>78</v>
       </c>
       <c r="B489">
         <v>13</v>
@@ -58738,8 +58843,8 @@
       </c>
     </row>
     <row r="490" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A490">
-        <v>141713</v>
+      <c r="A490" t="s">
+        <v>78</v>
       </c>
       <c r="B490">
         <v>14</v>
@@ -58857,8 +58962,8 @@
       </c>
     </row>
     <row r="491" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A491">
-        <v>141713</v>
+      <c r="A491" t="s">
+        <v>78</v>
       </c>
       <c r="B491">
         <v>15</v>
@@ -58976,8 +59081,8 @@
       </c>
     </row>
     <row r="492" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A492">
-        <v>141713</v>
+      <c r="A492" t="s">
+        <v>78</v>
       </c>
       <c r="B492">
         <v>16</v>
@@ -59095,8 +59200,8 @@
       </c>
     </row>
     <row r="493" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A493">
-        <v>141713</v>
+      <c r="A493" t="s">
+        <v>78</v>
       </c>
       <c r="B493">
         <v>17</v>
@@ -59214,8 +59319,8 @@
       </c>
     </row>
     <row r="494" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A494">
-        <v>141713</v>
+      <c r="A494" t="s">
+        <v>78</v>
       </c>
       <c r="B494">
         <v>18</v>
@@ -59333,8 +59438,8 @@
       </c>
     </row>
     <row r="495" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A495">
-        <v>141713</v>
+      <c r="A495" t="s">
+        <v>78</v>
       </c>
       <c r="B495">
         <v>19</v>
@@ -59452,8 +59557,8 @@
       </c>
     </row>
     <row r="496" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A496">
-        <v>141869</v>
+      <c r="A496" t="s">
+        <v>79</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -59571,8 +59676,8 @@
       </c>
     </row>
     <row r="497" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A497">
-        <v>141869</v>
+      <c r="A497" t="s">
+        <v>79</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -59690,8 +59795,8 @@
       </c>
     </row>
     <row r="498" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A498">
-        <v>141869</v>
+      <c r="A498" t="s">
+        <v>79</v>
       </c>
       <c r="B498">
         <v>3</v>
@@ -59809,8 +59914,8 @@
       </c>
     </row>
     <row r="499" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A499">
-        <v>141869</v>
+      <c r="A499" t="s">
+        <v>79</v>
       </c>
       <c r="B499">
         <v>4</v>
@@ -59928,8 +60033,8 @@
       </c>
     </row>
     <row r="500" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A500">
-        <v>141869</v>
+      <c r="A500" t="s">
+        <v>79</v>
       </c>
       <c r="B500">
         <v>5</v>
@@ -60047,8 +60152,8 @@
       </c>
     </row>
     <row r="501" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A501">
-        <v>141869</v>
+      <c r="A501" t="s">
+        <v>79</v>
       </c>
       <c r="B501">
         <v>6</v>
@@ -60166,8 +60271,8 @@
       </c>
     </row>
     <row r="502" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A502">
-        <v>141869</v>
+      <c r="A502" t="s">
+        <v>79</v>
       </c>
       <c r="B502">
         <v>7</v>
@@ -60285,8 +60390,8 @@
       </c>
     </row>
     <row r="503" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A503">
-        <v>141869</v>
+      <c r="A503" t="s">
+        <v>79</v>
       </c>
       <c r="B503">
         <v>8</v>
@@ -60404,8 +60509,8 @@
       </c>
     </row>
     <row r="504" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A504">
-        <v>141869</v>
+      <c r="A504" t="s">
+        <v>79</v>
       </c>
       <c r="B504">
         <v>9</v>
@@ -60523,8 +60628,8 @@
       </c>
     </row>
     <row r="505" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A505">
-        <v>141869</v>
+      <c r="A505" t="s">
+        <v>79</v>
       </c>
       <c r="B505">
         <v>10</v>
@@ -60642,8 +60747,8 @@
       </c>
     </row>
     <row r="506" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A506">
-        <v>141869</v>
+      <c r="A506" t="s">
+        <v>79</v>
       </c>
       <c r="B506">
         <v>11</v>
@@ -60761,8 +60866,8 @@
       </c>
     </row>
     <row r="507" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A507">
-        <v>141869</v>
+      <c r="A507" t="s">
+        <v>79</v>
       </c>
       <c r="B507">
         <v>12</v>
@@ -60880,8 +60985,8 @@
       </c>
     </row>
     <row r="508" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A508">
-        <v>141869</v>
+      <c r="A508" t="s">
+        <v>79</v>
       </c>
       <c r="B508">
         <v>13</v>
@@ -60999,8 +61104,8 @@
       </c>
     </row>
     <row r="509" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A509">
-        <v>141869</v>
+      <c r="A509" t="s">
+        <v>79</v>
       </c>
       <c r="B509">
         <v>14</v>
@@ -61118,8 +61223,8 @@
       </c>
     </row>
     <row r="510" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A510">
-        <v>141869</v>
+      <c r="A510" t="s">
+        <v>79</v>
       </c>
       <c r="B510">
         <v>15</v>
@@ -61237,8 +61342,8 @@
       </c>
     </row>
     <row r="511" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A511">
-        <v>141869</v>
+      <c r="A511" t="s">
+        <v>79</v>
       </c>
       <c r="B511">
         <v>16</v>
@@ -61356,8 +61461,8 @@
       </c>
     </row>
     <row r="512" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A512">
-        <v>141869</v>
+      <c r="A512" t="s">
+        <v>79</v>
       </c>
       <c r="B512">
         <v>17</v>
@@ -61475,8 +61580,8 @@
       </c>
     </row>
     <row r="513" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A513">
-        <v>141869</v>
+      <c r="A513" t="s">
+        <v>79</v>
       </c>
       <c r="B513">
         <v>18</v>
@@ -61594,8 +61699,8 @@
       </c>
     </row>
     <row r="514" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A514">
-        <v>141869</v>
+      <c r="A514" t="s">
+        <v>79</v>
       </c>
       <c r="B514">
         <v>19</v>
@@ -61713,8 +61818,8 @@
       </c>
     </row>
     <row r="515" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A515">
-        <v>141875</v>
+      <c r="A515" t="s">
+        <v>79</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -61832,8 +61937,8 @@
       </c>
     </row>
     <row r="516" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A516">
-        <v>141875</v>
+      <c r="A516" t="s">
+        <v>79</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -61951,8 +62056,8 @@
       </c>
     </row>
     <row r="517" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A517">
-        <v>141875</v>
+      <c r="A517" t="s">
+        <v>79</v>
       </c>
       <c r="B517">
         <v>3</v>
@@ -62070,8 +62175,8 @@
       </c>
     </row>
     <row r="518" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A518">
-        <v>141875</v>
+      <c r="A518" t="s">
+        <v>79</v>
       </c>
       <c r="B518">
         <v>4</v>
@@ -62189,8 +62294,8 @@
       </c>
     </row>
     <row r="519" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A519">
-        <v>141875</v>
+      <c r="A519" t="s">
+        <v>79</v>
       </c>
       <c r="B519">
         <v>5</v>
@@ -62308,8 +62413,8 @@
       </c>
     </row>
     <row r="520" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A520">
-        <v>141875</v>
+      <c r="A520" t="s">
+        <v>79</v>
       </c>
       <c r="B520">
         <v>6</v>
@@ -62427,8 +62532,8 @@
       </c>
     </row>
     <row r="521" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A521">
-        <v>141875</v>
+      <c r="A521" t="s">
+        <v>79</v>
       </c>
       <c r="B521">
         <v>7</v>
@@ -62546,8 +62651,8 @@
       </c>
     </row>
     <row r="522" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A522">
-        <v>141875</v>
+      <c r="A522" t="s">
+        <v>79</v>
       </c>
       <c r="B522">
         <v>8</v>
@@ -62665,8 +62770,8 @@
       </c>
     </row>
     <row r="523" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A523">
-        <v>141875</v>
+      <c r="A523" t="s">
+        <v>79</v>
       </c>
       <c r="B523">
         <v>9</v>
@@ -62784,8 +62889,8 @@
       </c>
     </row>
     <row r="524" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A524">
-        <v>141875</v>
+      <c r="A524" t="s">
+        <v>79</v>
       </c>
       <c r="B524">
         <v>10</v>
@@ -62903,8 +63008,8 @@
       </c>
     </row>
     <row r="525" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A525">
-        <v>141875</v>
+      <c r="A525" t="s">
+        <v>79</v>
       </c>
       <c r="B525">
         <v>11</v>
@@ -63022,8 +63127,8 @@
       </c>
     </row>
     <row r="526" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A526">
-        <v>141875</v>
+      <c r="A526" t="s">
+        <v>79</v>
       </c>
       <c r="B526">
         <v>12</v>
@@ -63141,8 +63246,8 @@
       </c>
     </row>
     <row r="527" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A527">
-        <v>141875</v>
+      <c r="A527" t="s">
+        <v>79</v>
       </c>
       <c r="B527">
         <v>13</v>
@@ -63260,8 +63365,8 @@
       </c>
     </row>
     <row r="528" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A528">
-        <v>141875</v>
+      <c r="A528" t="s">
+        <v>79</v>
       </c>
       <c r="B528">
         <v>14</v>
@@ -63379,8 +63484,8 @@
       </c>
     </row>
     <row r="529" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A529">
-        <v>141875</v>
+      <c r="A529" t="s">
+        <v>79</v>
       </c>
       <c r="B529">
         <v>15</v>
@@ -63498,8 +63603,8 @@
       </c>
     </row>
     <row r="530" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A530">
-        <v>141875</v>
+      <c r="A530" t="s">
+        <v>79</v>
       </c>
       <c r="B530">
         <v>16</v>
@@ -63617,8 +63722,8 @@
       </c>
     </row>
     <row r="531" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A531">
-        <v>141875</v>
+      <c r="A531" t="s">
+        <v>79</v>
       </c>
       <c r="B531">
         <v>17</v>
@@ -63736,8 +63841,8 @@
       </c>
     </row>
     <row r="532" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A532">
-        <v>141875</v>
+      <c r="A532" t="s">
+        <v>79</v>
       </c>
       <c r="B532">
         <v>18</v>
@@ -63855,8 +63960,8 @@
       </c>
     </row>
     <row r="533" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A533">
-        <v>141875</v>
+      <c r="A533" t="s">
+        <v>79</v>
       </c>
       <c r="B533">
         <v>19</v>
@@ -63974,8 +64079,8 @@
       </c>
     </row>
     <row r="534" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A534">
-        <v>141913</v>
+      <c r="A534" t="s">
+        <v>80</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -64093,8 +64198,8 @@
       </c>
     </row>
     <row r="535" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A535">
-        <v>141913</v>
+      <c r="A535" t="s">
+        <v>80</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -64212,8 +64317,8 @@
       </c>
     </row>
     <row r="536" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A536">
-        <v>141913</v>
+      <c r="A536" t="s">
+        <v>80</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -64331,8 +64436,8 @@
       </c>
     </row>
     <row r="537" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A537">
-        <v>141913</v>
+      <c r="A537" t="s">
+        <v>80</v>
       </c>
       <c r="B537">
         <v>4</v>
@@ -64450,8 +64555,8 @@
       </c>
     </row>
     <row r="538" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A538">
-        <v>141913</v>
+      <c r="A538" t="s">
+        <v>80</v>
       </c>
       <c r="B538">
         <v>5</v>
@@ -64569,8 +64674,8 @@
       </c>
     </row>
     <row r="539" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A539">
-        <v>141913</v>
+      <c r="A539" t="s">
+        <v>80</v>
       </c>
       <c r="B539">
         <v>6</v>
@@ -64688,8 +64793,8 @@
       </c>
     </row>
     <row r="540" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A540">
-        <v>141913</v>
+      <c r="A540" t="s">
+        <v>80</v>
       </c>
       <c r="B540">
         <v>7</v>
@@ -64807,8 +64912,8 @@
       </c>
     </row>
     <row r="541" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A541">
-        <v>141913</v>
+      <c r="A541" t="s">
+        <v>80</v>
       </c>
       <c r="B541">
         <v>8</v>
@@ -64926,8 +65031,8 @@
       </c>
     </row>
     <row r="542" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A542">
-        <v>141913</v>
+      <c r="A542" t="s">
+        <v>80</v>
       </c>
       <c r="B542">
         <v>9</v>
@@ -65045,8 +65150,8 @@
       </c>
     </row>
     <row r="543" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A543">
-        <v>141913</v>
+      <c r="A543" t="s">
+        <v>80</v>
       </c>
       <c r="B543">
         <v>10</v>
@@ -65164,8 +65269,8 @@
       </c>
     </row>
     <row r="544" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A544">
-        <v>141913</v>
+      <c r="A544" t="s">
+        <v>80</v>
       </c>
       <c r="B544">
         <v>11</v>
@@ -65283,8 +65388,8 @@
       </c>
     </row>
     <row r="545" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A545">
-        <v>141913</v>
+      <c r="A545" t="s">
+        <v>80</v>
       </c>
       <c r="B545">
         <v>12</v>
@@ -65402,8 +65507,8 @@
       </c>
     </row>
     <row r="546" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A546">
-        <v>141913</v>
+      <c r="A546" t="s">
+        <v>80</v>
       </c>
       <c r="B546">
         <v>13</v>
@@ -65521,8 +65626,8 @@
       </c>
     </row>
     <row r="547" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A547">
-        <v>141913</v>
+      <c r="A547" t="s">
+        <v>80</v>
       </c>
       <c r="B547">
         <v>14</v>
@@ -65640,8 +65745,8 @@
       </c>
     </row>
     <row r="548" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A548">
-        <v>141913</v>
+      <c r="A548" t="s">
+        <v>80</v>
       </c>
       <c r="B548">
         <v>15</v>
@@ -65759,8 +65864,8 @@
       </c>
     </row>
     <row r="549" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A549">
-        <v>141913</v>
+      <c r="A549" t="s">
+        <v>80</v>
       </c>
       <c r="B549">
         <v>16</v>
@@ -65878,8 +65983,8 @@
       </c>
     </row>
     <row r="550" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A550">
-        <v>141913</v>
+      <c r="A550" t="s">
+        <v>80</v>
       </c>
       <c r="B550">
         <v>17</v>
@@ -65997,8 +66102,8 @@
       </c>
     </row>
     <row r="551" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A551">
-        <v>141913</v>
+      <c r="A551" t="s">
+        <v>80</v>
       </c>
       <c r="B551">
         <v>18</v>
@@ -66116,8 +66221,8 @@
       </c>
     </row>
     <row r="552" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A552">
-        <v>141913</v>
+      <c r="A552" t="s">
+        <v>80</v>
       </c>
       <c r="B552">
         <v>19</v>
@@ -66235,8 +66340,8 @@
       </c>
     </row>
     <row r="553" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A553">
-        <v>141979</v>
+      <c r="A553" t="s">
+        <v>81</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -66354,8 +66459,8 @@
       </c>
     </row>
     <row r="554" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A554">
-        <v>141979</v>
+      <c r="A554" t="s">
+        <v>81</v>
       </c>
       <c r="B554">
         <v>2</v>
@@ -66473,8 +66578,8 @@
       </c>
     </row>
     <row r="555" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A555">
-        <v>141979</v>
+      <c r="A555" t="s">
+        <v>81</v>
       </c>
       <c r="B555">
         <v>3</v>
@@ -66592,8 +66697,8 @@
       </c>
     </row>
     <row r="556" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A556">
-        <v>141979</v>
+      <c r="A556" t="s">
+        <v>81</v>
       </c>
       <c r="B556">
         <v>4</v>
@@ -66711,8 +66816,8 @@
       </c>
     </row>
     <row r="557" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A557">
-        <v>141979</v>
+      <c r="A557" t="s">
+        <v>81</v>
       </c>
       <c r="B557">
         <v>5</v>
@@ -66830,8 +66935,8 @@
       </c>
     </row>
     <row r="558" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A558">
-        <v>141979</v>
+      <c r="A558" t="s">
+        <v>81</v>
       </c>
       <c r="B558">
         <v>6</v>
@@ -66949,8 +67054,8 @@
       </c>
     </row>
     <row r="559" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A559">
-        <v>141979</v>
+      <c r="A559" t="s">
+        <v>81</v>
       </c>
       <c r="B559">
         <v>7</v>
@@ -67068,8 +67173,8 @@
       </c>
     </row>
     <row r="560" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A560">
-        <v>141979</v>
+      <c r="A560" t="s">
+        <v>81</v>
       </c>
       <c r="B560">
         <v>8</v>
@@ -67187,8 +67292,8 @@
       </c>
     </row>
     <row r="561" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A561">
-        <v>141979</v>
+      <c r="A561" t="s">
+        <v>81</v>
       </c>
       <c r="B561">
         <v>9</v>
@@ -67306,8 +67411,8 @@
       </c>
     </row>
     <row r="562" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A562">
-        <v>141979</v>
+      <c r="A562" t="s">
+        <v>81</v>
       </c>
       <c r="B562">
         <v>10</v>
@@ -67425,8 +67530,8 @@
       </c>
     </row>
     <row r="563" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A563">
-        <v>141979</v>
+      <c r="A563" t="s">
+        <v>81</v>
       </c>
       <c r="B563">
         <v>11</v>
@@ -67544,8 +67649,8 @@
       </c>
     </row>
     <row r="564" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A564">
-        <v>141979</v>
+      <c r="A564" t="s">
+        <v>81</v>
       </c>
       <c r="B564">
         <v>12</v>
@@ -67663,8 +67768,8 @@
       </c>
     </row>
     <row r="565" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A565">
-        <v>141979</v>
+      <c r="A565" t="s">
+        <v>81</v>
       </c>
       <c r="B565">
         <v>13</v>
@@ -67782,8 +67887,8 @@
       </c>
     </row>
     <row r="566" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A566">
-        <v>141979</v>
+      <c r="A566" t="s">
+        <v>81</v>
       </c>
       <c r="B566">
         <v>14</v>
@@ -67901,8 +68006,8 @@
       </c>
     </row>
     <row r="567" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A567">
-        <v>141979</v>
+      <c r="A567" t="s">
+        <v>81</v>
       </c>
       <c r="B567">
         <v>15</v>
@@ -68020,8 +68125,8 @@
       </c>
     </row>
     <row r="568" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A568">
-        <v>141979</v>
+      <c r="A568" t="s">
+        <v>81</v>
       </c>
       <c r="B568">
         <v>16</v>
@@ -68139,8 +68244,8 @@
       </c>
     </row>
     <row r="569" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A569">
-        <v>141979</v>
+      <c r="A569" t="s">
+        <v>81</v>
       </c>
       <c r="B569">
         <v>17</v>
@@ -68258,8 +68363,8 @@
       </c>
     </row>
     <row r="570" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A570">
-        <v>141979</v>
+      <c r="A570" t="s">
+        <v>81</v>
       </c>
       <c r="B570">
         <v>18</v>
@@ -68377,8 +68482,8 @@
       </c>
     </row>
     <row r="571" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A571">
-        <v>141979</v>
+      <c r="A571" t="s">
+        <v>81</v>
       </c>
       <c r="B571">
         <v>19</v>
@@ -68496,8 +68601,8 @@
       </c>
     </row>
     <row r="572" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A572">
-        <v>143007</v>
+      <c r="A572" t="s">
+        <v>82</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -68615,8 +68720,8 @@
       </c>
     </row>
     <row r="573" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A573">
-        <v>143007</v>
+      <c r="A573" t="s">
+        <v>82</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -68734,8 +68839,8 @@
       </c>
     </row>
     <row r="574" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A574">
-        <v>143007</v>
+      <c r="A574" t="s">
+        <v>82</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -68853,8 +68958,8 @@
       </c>
     </row>
     <row r="575" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A575">
-        <v>143007</v>
+      <c r="A575" t="s">
+        <v>82</v>
       </c>
       <c r="B575">
         <v>4</v>
@@ -68972,8 +69077,8 @@
       </c>
     </row>
     <row r="576" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A576">
-        <v>143007</v>
+      <c r="A576" t="s">
+        <v>82</v>
       </c>
       <c r="B576">
         <v>5</v>
@@ -69091,8 +69196,8 @@
       </c>
     </row>
     <row r="577" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A577">
-        <v>143007</v>
+      <c r="A577" t="s">
+        <v>82</v>
       </c>
       <c r="B577">
         <v>6</v>
@@ -69210,8 +69315,8 @@
       </c>
     </row>
     <row r="578" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A578">
-        <v>143007</v>
+      <c r="A578" t="s">
+        <v>82</v>
       </c>
       <c r="B578">
         <v>7</v>
@@ -69329,8 +69434,8 @@
       </c>
     </row>
     <row r="579" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A579">
-        <v>143007</v>
+      <c r="A579" t="s">
+        <v>82</v>
       </c>
       <c r="B579">
         <v>8</v>
@@ -69448,8 +69553,8 @@
       </c>
     </row>
     <row r="580" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A580">
-        <v>143007</v>
+      <c r="A580" t="s">
+        <v>82</v>
       </c>
       <c r="B580">
         <v>9</v>
@@ -69567,8 +69672,8 @@
       </c>
     </row>
     <row r="581" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A581">
-        <v>143007</v>
+      <c r="A581" t="s">
+        <v>82</v>
       </c>
       <c r="B581">
         <v>10</v>
@@ -69686,8 +69791,8 @@
       </c>
     </row>
     <row r="582" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A582">
-        <v>143007</v>
+      <c r="A582" t="s">
+        <v>82</v>
       </c>
       <c r="B582">
         <v>11</v>
@@ -69805,8 +69910,8 @@
       </c>
     </row>
     <row r="583" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A583">
-        <v>143007</v>
+      <c r="A583" t="s">
+        <v>82</v>
       </c>
       <c r="B583">
         <v>12</v>
@@ -69924,8 +70029,8 @@
       </c>
     </row>
     <row r="584" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A584">
-        <v>143007</v>
+      <c r="A584" t="s">
+        <v>82</v>
       </c>
       <c r="B584">
         <v>13</v>
@@ -70043,8 +70148,8 @@
       </c>
     </row>
     <row r="585" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A585">
-        <v>143007</v>
+      <c r="A585" t="s">
+        <v>82</v>
       </c>
       <c r="B585">
         <v>14</v>
@@ -70162,8 +70267,8 @@
       </c>
     </row>
     <row r="586" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A586">
-        <v>143007</v>
+      <c r="A586" t="s">
+        <v>82</v>
       </c>
       <c r="B586">
         <v>15</v>
@@ -70281,8 +70386,8 @@
       </c>
     </row>
     <row r="587" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A587">
-        <v>143007</v>
+      <c r="A587" t="s">
+        <v>82</v>
       </c>
       <c r="B587">
         <v>16</v>
@@ -70400,8 +70505,8 @@
       </c>
     </row>
     <row r="588" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A588">
-        <v>143007</v>
+      <c r="A588" t="s">
+        <v>82</v>
       </c>
       <c r="B588">
         <v>17</v>
@@ -70519,8 +70624,8 @@
       </c>
     </row>
     <row r="589" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A589">
-        <v>143007</v>
+      <c r="A589" t="s">
+        <v>82</v>
       </c>
       <c r="B589">
         <v>18</v>
@@ -70638,8 +70743,8 @@
       </c>
     </row>
     <row r="590" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A590">
-        <v>143007</v>
+      <c r="A590" t="s">
+        <v>82</v>
       </c>
       <c r="B590">
         <v>19</v>
@@ -70757,8 +70862,8 @@
       </c>
     </row>
     <row r="591" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A591">
-        <v>143076</v>
+      <c r="A591" t="s">
+        <v>83</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -70876,8 +70981,8 @@
       </c>
     </row>
     <row r="592" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A592">
-        <v>143076</v>
+      <c r="A592" t="s">
+        <v>83</v>
       </c>
       <c r="B592">
         <v>2</v>
@@ -70995,8 +71100,8 @@
       </c>
     </row>
     <row r="593" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A593">
-        <v>143076</v>
+      <c r="A593" t="s">
+        <v>83</v>
       </c>
       <c r="B593">
         <v>3</v>
@@ -71114,8 +71219,8 @@
       </c>
     </row>
     <row r="594" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A594">
-        <v>143076</v>
+      <c r="A594" t="s">
+        <v>83</v>
       </c>
       <c r="B594">
         <v>4</v>
@@ -71233,8 +71338,8 @@
       </c>
     </row>
     <row r="595" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A595">
-        <v>143076</v>
+      <c r="A595" t="s">
+        <v>83</v>
       </c>
       <c r="B595">
         <v>5</v>
@@ -71352,8 +71457,8 @@
       </c>
     </row>
     <row r="596" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A596">
-        <v>143076</v>
+      <c r="A596" t="s">
+        <v>83</v>
       </c>
       <c r="B596">
         <v>6</v>
@@ -71471,8 +71576,8 @@
       </c>
     </row>
     <row r="597" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A597">
-        <v>143076</v>
+      <c r="A597" t="s">
+        <v>83</v>
       </c>
       <c r="B597">
         <v>7</v>
@@ -71590,8 +71695,8 @@
       </c>
     </row>
     <row r="598" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A598">
-        <v>143076</v>
+      <c r="A598" t="s">
+        <v>83</v>
       </c>
       <c r="B598">
         <v>8</v>
@@ -71709,8 +71814,8 @@
       </c>
     </row>
     <row r="599" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A599">
-        <v>143076</v>
+      <c r="A599" t="s">
+        <v>83</v>
       </c>
       <c r="B599">
         <v>9</v>
@@ -71828,8 +71933,8 @@
       </c>
     </row>
     <row r="600" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A600">
-        <v>143076</v>
+      <c r="A600" t="s">
+        <v>83</v>
       </c>
       <c r="B600">
         <v>10</v>
@@ -71947,8 +72052,8 @@
       </c>
     </row>
     <row r="601" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A601">
-        <v>143076</v>
+      <c r="A601" t="s">
+        <v>83</v>
       </c>
       <c r="B601">
         <v>11</v>
@@ -72066,8 +72171,8 @@
       </c>
     </row>
     <row r="602" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A602">
-        <v>143076</v>
+      <c r="A602" t="s">
+        <v>83</v>
       </c>
       <c r="B602">
         <v>12</v>
@@ -72185,8 +72290,8 @@
       </c>
     </row>
     <row r="603" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A603">
-        <v>143076</v>
+      <c r="A603" t="s">
+        <v>83</v>
       </c>
       <c r="B603">
         <v>13</v>
@@ -72304,8 +72409,8 @@
       </c>
     </row>
     <row r="604" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A604">
-        <v>143076</v>
+      <c r="A604" t="s">
+        <v>83</v>
       </c>
       <c r="B604">
         <v>14</v>
@@ -72423,8 +72528,8 @@
       </c>
     </row>
     <row r="605" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A605">
-        <v>143076</v>
+      <c r="A605" t="s">
+        <v>83</v>
       </c>
       <c r="B605">
         <v>15</v>
@@ -72542,8 +72647,8 @@
       </c>
     </row>
     <row r="606" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A606">
-        <v>143076</v>
+      <c r="A606" t="s">
+        <v>83</v>
       </c>
       <c r="B606">
         <v>16</v>
@@ -72661,8 +72766,8 @@
       </c>
     </row>
     <row r="607" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A607">
-        <v>143076</v>
+      <c r="A607" t="s">
+        <v>83</v>
       </c>
       <c r="B607">
         <v>17</v>
@@ -72780,8 +72885,8 @@
       </c>
     </row>
     <row r="608" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A608">
-        <v>143076</v>
+      <c r="A608" t="s">
+        <v>83</v>
       </c>
       <c r="B608">
         <v>18</v>
@@ -72899,8 +73004,8 @@
       </c>
     </row>
     <row r="609" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A609">
-        <v>143076</v>
+      <c r="A609" t="s">
+        <v>83</v>
       </c>
       <c r="B609">
         <v>19</v>
@@ -73018,8 +73123,8 @@
       </c>
     </row>
     <row r="610" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A610">
-        <v>143093</v>
+      <c r="A610" t="s">
+        <v>84</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -73137,8 +73242,8 @@
       </c>
     </row>
     <row r="611" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A611">
-        <v>143093</v>
+      <c r="A611" t="s">
+        <v>84</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -73256,8 +73361,8 @@
       </c>
     </row>
     <row r="612" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A612">
-        <v>143093</v>
+      <c r="A612" t="s">
+        <v>84</v>
       </c>
       <c r="B612">
         <v>3</v>
@@ -73375,8 +73480,8 @@
       </c>
     </row>
     <row r="613" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A613">
-        <v>143093</v>
+      <c r="A613" t="s">
+        <v>84</v>
       </c>
       <c r="B613">
         <v>4</v>
@@ -73494,8 +73599,8 @@
       </c>
     </row>
     <row r="614" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A614">
-        <v>143093</v>
+      <c r="A614" t="s">
+        <v>84</v>
       </c>
       <c r="B614">
         <v>5</v>
@@ -73613,8 +73718,8 @@
       </c>
     </row>
     <row r="615" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A615">
-        <v>143093</v>
+      <c r="A615" t="s">
+        <v>84</v>
       </c>
       <c r="B615">
         <v>6</v>
@@ -73732,8 +73837,8 @@
       </c>
     </row>
     <row r="616" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A616">
-        <v>143093</v>
+      <c r="A616" t="s">
+        <v>84</v>
       </c>
       <c r="B616">
         <v>7</v>
@@ -73851,8 +73956,8 @@
       </c>
     </row>
     <row r="617" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A617">
-        <v>143093</v>
+      <c r="A617" t="s">
+        <v>84</v>
       </c>
       <c r="B617">
         <v>8</v>
@@ -73970,8 +74075,8 @@
       </c>
     </row>
     <row r="618" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A618">
-        <v>143093</v>
+      <c r="A618" t="s">
+        <v>84</v>
       </c>
       <c r="B618">
         <v>9</v>
@@ -74089,8 +74194,8 @@
       </c>
     </row>
     <row r="619" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A619">
-        <v>143093</v>
+      <c r="A619" t="s">
+        <v>84</v>
       </c>
       <c r="B619">
         <v>10</v>
@@ -74208,8 +74313,8 @@
       </c>
     </row>
     <row r="620" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A620">
-        <v>143093</v>
+      <c r="A620" t="s">
+        <v>84</v>
       </c>
       <c r="B620">
         <v>11</v>
@@ -74327,8 +74432,8 @@
       </c>
     </row>
     <row r="621" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A621">
-        <v>143093</v>
+      <c r="A621" t="s">
+        <v>84</v>
       </c>
       <c r="B621">
         <v>12</v>
@@ -74446,8 +74551,8 @@
       </c>
     </row>
     <row r="622" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A622">
-        <v>143093</v>
+      <c r="A622" t="s">
+        <v>84</v>
       </c>
       <c r="B622">
         <v>13</v>
@@ -74565,8 +74670,8 @@
       </c>
     </row>
     <row r="623" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A623">
-        <v>143093</v>
+      <c r="A623" t="s">
+        <v>84</v>
       </c>
       <c r="B623">
         <v>14</v>
@@ -74684,8 +74789,8 @@
       </c>
     </row>
     <row r="624" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A624">
-        <v>143093</v>
+      <c r="A624" t="s">
+        <v>84</v>
       </c>
       <c r="B624">
         <v>15</v>
@@ -74803,8 +74908,8 @@
       </c>
     </row>
     <row r="625" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A625">
-        <v>143093</v>
+      <c r="A625" t="s">
+        <v>84</v>
       </c>
       <c r="B625">
         <v>16</v>
@@ -74922,8 +75027,8 @@
       </c>
     </row>
     <row r="626" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A626">
-        <v>143093</v>
+      <c r="A626" t="s">
+        <v>84</v>
       </c>
       <c r="B626">
         <v>17</v>
@@ -75041,8 +75146,8 @@
       </c>
     </row>
     <row r="627" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A627">
-        <v>143093</v>
+      <c r="A627" t="s">
+        <v>84</v>
       </c>
       <c r="B627">
         <v>18</v>
@@ -75160,8 +75265,8 @@
       </c>
     </row>
     <row r="628" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A628">
-        <v>143093</v>
+      <c r="A628" t="s">
+        <v>84</v>
       </c>
       <c r="B628">
         <v>19</v>
@@ -75279,8 +75384,8 @@
       </c>
     </row>
     <row r="629" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A629">
-        <v>143126</v>
+      <c r="A629" t="s">
+        <v>85</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -75398,8 +75503,8 @@
       </c>
     </row>
     <row r="630" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A630">
-        <v>143126</v>
+      <c r="A630" t="s">
+        <v>85</v>
       </c>
       <c r="B630">
         <v>2</v>
@@ -75517,8 +75622,8 @@
       </c>
     </row>
     <row r="631" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A631">
-        <v>143126</v>
+      <c r="A631" t="s">
+        <v>85</v>
       </c>
       <c r="B631">
         <v>3</v>
@@ -75636,8 +75741,8 @@
       </c>
     </row>
     <row r="632" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A632">
-        <v>143126</v>
+      <c r="A632" t="s">
+        <v>85</v>
       </c>
       <c r="B632">
         <v>4</v>
@@ -75755,8 +75860,8 @@
       </c>
     </row>
     <row r="633" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A633">
-        <v>143126</v>
+      <c r="A633" t="s">
+        <v>85</v>
       </c>
       <c r="B633">
         <v>5</v>
@@ -75874,8 +75979,8 @@
       </c>
     </row>
     <row r="634" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A634">
-        <v>143126</v>
+      <c r="A634" t="s">
+        <v>85</v>
       </c>
       <c r="B634">
         <v>6</v>
@@ -75993,8 +76098,8 @@
       </c>
     </row>
     <row r="635" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A635">
-        <v>143126</v>
+      <c r="A635" t="s">
+        <v>85</v>
       </c>
       <c r="B635">
         <v>7</v>
@@ -76112,8 +76217,8 @@
       </c>
     </row>
     <row r="636" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A636">
-        <v>143126</v>
+      <c r="A636" t="s">
+        <v>85</v>
       </c>
       <c r="B636">
         <v>8</v>
@@ -76231,8 +76336,8 @@
       </c>
     </row>
     <row r="637" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A637">
-        <v>143126</v>
+      <c r="A637" t="s">
+        <v>85</v>
       </c>
       <c r="B637">
         <v>9</v>
@@ -76350,8 +76455,8 @@
       </c>
     </row>
     <row r="638" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A638">
-        <v>143126</v>
+      <c r="A638" t="s">
+        <v>85</v>
       </c>
       <c r="B638">
         <v>10</v>
@@ -76469,8 +76574,8 @@
       </c>
     </row>
     <row r="639" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A639">
-        <v>143126</v>
+      <c r="A639" t="s">
+        <v>85</v>
       </c>
       <c r="B639">
         <v>11</v>
@@ -76588,8 +76693,8 @@
       </c>
     </row>
     <row r="640" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A640">
-        <v>143126</v>
+      <c r="A640" t="s">
+        <v>85</v>
       </c>
       <c r="B640">
         <v>12</v>
@@ -76707,8 +76812,8 @@
       </c>
     </row>
     <row r="641" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A641">
-        <v>143126</v>
+      <c r="A641" t="s">
+        <v>85</v>
       </c>
       <c r="B641">
         <v>13</v>
@@ -76826,8 +76931,8 @@
       </c>
     </row>
     <row r="642" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A642">
-        <v>143126</v>
+      <c r="A642" t="s">
+        <v>85</v>
       </c>
       <c r="B642">
         <v>14</v>
@@ -76945,8 +77050,8 @@
       </c>
     </row>
     <row r="643" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A643">
-        <v>143126</v>
+      <c r="A643" t="s">
+        <v>85</v>
       </c>
       <c r="B643">
         <v>15</v>
@@ -77064,8 +77169,8 @@
       </c>
     </row>
     <row r="644" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A644">
-        <v>143126</v>
+      <c r="A644" t="s">
+        <v>85</v>
       </c>
       <c r="B644">
         <v>16</v>
@@ -77183,8 +77288,8 @@
       </c>
     </row>
     <row r="645" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A645">
-        <v>143126</v>
+      <c r="A645" t="s">
+        <v>85</v>
       </c>
       <c r="B645">
         <v>17</v>
@@ -77302,8 +77407,8 @@
       </c>
     </row>
     <row r="646" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A646">
-        <v>143126</v>
+      <c r="A646" t="s">
+        <v>85</v>
       </c>
       <c r="B646">
         <v>18</v>
@@ -77421,8 +77526,8 @@
       </c>
     </row>
     <row r="647" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A647">
-        <v>143126</v>
+      <c r="A647" t="s">
+        <v>85</v>
       </c>
       <c r="B647">
         <v>19</v>
@@ -77540,8 +77645,8 @@
       </c>
     </row>
     <row r="648" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A648">
-        <v>143162</v>
+      <c r="A648" t="s">
+        <v>86</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -77659,8 +77764,8 @@
       </c>
     </row>
     <row r="649" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A649">
-        <v>143162</v>
+      <c r="A649" t="s">
+        <v>86</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -77778,8 +77883,8 @@
       </c>
     </row>
     <row r="650" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A650">
-        <v>143162</v>
+      <c r="A650" t="s">
+        <v>86</v>
       </c>
       <c r="B650">
         <v>3</v>
@@ -77897,8 +78002,8 @@
       </c>
     </row>
     <row r="651" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A651">
-        <v>143162</v>
+      <c r="A651" t="s">
+        <v>86</v>
       </c>
       <c r="B651">
         <v>4</v>
@@ -78016,8 +78121,8 @@
       </c>
     </row>
     <row r="652" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A652">
-        <v>143162</v>
+      <c r="A652" t="s">
+        <v>86</v>
       </c>
       <c r="B652">
         <v>5</v>
@@ -78135,8 +78240,8 @@
       </c>
     </row>
     <row r="653" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A653">
-        <v>143162</v>
+      <c r="A653" t="s">
+        <v>86</v>
       </c>
       <c r="B653">
         <v>6</v>
@@ -78254,8 +78359,8 @@
       </c>
     </row>
     <row r="654" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A654">
-        <v>143162</v>
+      <c r="A654" t="s">
+        <v>86</v>
       </c>
       <c r="B654">
         <v>7</v>
@@ -78373,8 +78478,8 @@
       </c>
     </row>
     <row r="655" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A655">
-        <v>143162</v>
+      <c r="A655" t="s">
+        <v>86</v>
       </c>
       <c r="B655">
         <v>8</v>
@@ -78492,8 +78597,8 @@
       </c>
     </row>
     <row r="656" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A656">
-        <v>143162</v>
+      <c r="A656" t="s">
+        <v>86</v>
       </c>
       <c r="B656">
         <v>9</v>
@@ -78611,8 +78716,8 @@
       </c>
     </row>
     <row r="657" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A657">
-        <v>143162</v>
+      <c r="A657" t="s">
+        <v>86</v>
       </c>
       <c r="B657">
         <v>10</v>
@@ -78730,8 +78835,8 @@
       </c>
     </row>
     <row r="658" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A658">
-        <v>143162</v>
+      <c r="A658" t="s">
+        <v>86</v>
       </c>
       <c r="B658">
         <v>11</v>
@@ -78849,8 +78954,8 @@
       </c>
     </row>
     <row r="659" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A659">
-        <v>143162</v>
+      <c r="A659" t="s">
+        <v>86</v>
       </c>
       <c r="B659">
         <v>12</v>
@@ -78968,8 +79073,8 @@
       </c>
     </row>
     <row r="660" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A660">
-        <v>143162</v>
+      <c r="A660" t="s">
+        <v>86</v>
       </c>
       <c r="B660">
         <v>13</v>
@@ -79087,8 +79192,8 @@
       </c>
     </row>
     <row r="661" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A661">
-        <v>143162</v>
+      <c r="A661" t="s">
+        <v>86</v>
       </c>
       <c r="B661">
         <v>14</v>
@@ -79206,8 +79311,8 @@
       </c>
     </row>
     <row r="662" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A662">
-        <v>143162</v>
+      <c r="A662" t="s">
+        <v>86</v>
       </c>
       <c r="B662">
         <v>15</v>
@@ -79325,8 +79430,8 @@
       </c>
     </row>
     <row r="663" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A663">
-        <v>143162</v>
+      <c r="A663" t="s">
+        <v>86</v>
       </c>
       <c r="B663">
         <v>16</v>
@@ -79444,8 +79549,8 @@
       </c>
     </row>
     <row r="664" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A664">
-        <v>143162</v>
+      <c r="A664" t="s">
+        <v>86</v>
       </c>
       <c r="B664">
         <v>17</v>
@@ -79563,8 +79668,8 @@
       </c>
     </row>
     <row r="665" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A665">
-        <v>143162</v>
+      <c r="A665" t="s">
+        <v>86</v>
       </c>
       <c r="B665">
         <v>18</v>
@@ -79682,8 +79787,8 @@
       </c>
     </row>
     <row r="666" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A666">
-        <v>143162</v>
+      <c r="A666" t="s">
+        <v>86</v>
       </c>
       <c r="B666">
         <v>19</v>
@@ -79801,8 +79906,8 @@
       </c>
     </row>
     <row r="667" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A667">
-        <v>143221</v>
+      <c r="A667" t="s">
+        <v>87</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -79920,8 +80025,8 @@
       </c>
     </row>
     <row r="668" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A668">
-        <v>143221</v>
+      <c r="A668" t="s">
+        <v>87</v>
       </c>
       <c r="B668">
         <v>2</v>
@@ -80039,8 +80144,8 @@
       </c>
     </row>
     <row r="669" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A669">
-        <v>143221</v>
+      <c r="A669" t="s">
+        <v>87</v>
       </c>
       <c r="B669">
         <v>3</v>
@@ -80158,8 +80263,8 @@
       </c>
     </row>
     <row r="670" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A670">
-        <v>143221</v>
+      <c r="A670" t="s">
+        <v>87</v>
       </c>
       <c r="B670">
         <v>4</v>
@@ -80277,8 +80382,8 @@
       </c>
     </row>
     <row r="671" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A671">
-        <v>143221</v>
+      <c r="A671" t="s">
+        <v>87</v>
       </c>
       <c r="B671">
         <v>5</v>
@@ -80396,8 +80501,8 @@
       </c>
     </row>
     <row r="672" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A672">
-        <v>143221</v>
+      <c r="A672" t="s">
+        <v>87</v>
       </c>
       <c r="B672">
         <v>6</v>
@@ -80515,8 +80620,8 @@
       </c>
     </row>
     <row r="673" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A673">
-        <v>143221</v>
+      <c r="A673" t="s">
+        <v>87</v>
       </c>
       <c r="B673">
         <v>7</v>
@@ -80634,8 +80739,8 @@
       </c>
     </row>
     <row r="674" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A674">
-        <v>143221</v>
+      <c r="A674" t="s">
+        <v>87</v>
       </c>
       <c r="B674">
         <v>8</v>
@@ -80753,8 +80858,8 @@
       </c>
     </row>
     <row r="675" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A675">
-        <v>143221</v>
+      <c r="A675" t="s">
+        <v>87</v>
       </c>
       <c r="B675">
         <v>9</v>
@@ -80872,8 +80977,8 @@
       </c>
     </row>
     <row r="676" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A676">
-        <v>143221</v>
+      <c r="A676" t="s">
+        <v>87</v>
       </c>
       <c r="B676">
         <v>10</v>
@@ -80991,8 +81096,8 @@
       </c>
     </row>
     <row r="677" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A677">
-        <v>143221</v>
+      <c r="A677" t="s">
+        <v>87</v>
       </c>
       <c r="B677">
         <v>11</v>
@@ -81110,8 +81215,8 @@
       </c>
     </row>
     <row r="678" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A678">
-        <v>143221</v>
+      <c r="A678" t="s">
+        <v>87</v>
       </c>
       <c r="B678">
         <v>12</v>
@@ -81229,8 +81334,8 @@
       </c>
     </row>
     <row r="679" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A679">
-        <v>143221</v>
+      <c r="A679" t="s">
+        <v>87</v>
       </c>
       <c r="B679">
         <v>13</v>
@@ -81348,8 +81453,8 @@
       </c>
     </row>
     <row r="680" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A680">
-        <v>143221</v>
+      <c r="A680" t="s">
+        <v>87</v>
       </c>
       <c r="B680">
         <v>14</v>
@@ -81467,8 +81572,8 @@
       </c>
     </row>
     <row r="681" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A681">
-        <v>143221</v>
+      <c r="A681" t="s">
+        <v>87</v>
       </c>
       <c r="B681">
         <v>15</v>
@@ -81586,8 +81691,8 @@
       </c>
     </row>
     <row r="682" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A682">
-        <v>143221</v>
+      <c r="A682" t="s">
+        <v>87</v>
       </c>
       <c r="B682">
         <v>16</v>
@@ -81705,8 +81810,8 @@
       </c>
     </row>
     <row r="683" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A683">
-        <v>143221</v>
+      <c r="A683" t="s">
+        <v>87</v>
       </c>
       <c r="B683">
         <v>17</v>
@@ -81824,8 +81929,8 @@
       </c>
     </row>
     <row r="684" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A684">
-        <v>143221</v>
+      <c r="A684" t="s">
+        <v>87</v>
       </c>
       <c r="B684">
         <v>18</v>
@@ -81943,8 +82048,8 @@
       </c>
     </row>
     <row r="685" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A685">
-        <v>143221</v>
+      <c r="A685" t="s">
+        <v>87</v>
       </c>
       <c r="B685">
         <v>19</v>
@@ -82062,8 +82167,8 @@
       </c>
     </row>
     <row r="686" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A686">
-        <v>143235</v>
+      <c r="A686" t="s">
+        <v>88</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -82181,8 +82286,8 @@
       </c>
     </row>
     <row r="687" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A687">
-        <v>143235</v>
+      <c r="A687" t="s">
+        <v>88</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -82300,8 +82405,8 @@
       </c>
     </row>
     <row r="688" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A688">
-        <v>143235</v>
+      <c r="A688" t="s">
+        <v>88</v>
       </c>
       <c r="B688">
         <v>3</v>
@@ -82419,8 +82524,8 @@
       </c>
     </row>
     <row r="689" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A689">
-        <v>143235</v>
+      <c r="A689" t="s">
+        <v>88</v>
       </c>
       <c r="B689">
         <v>4</v>
@@ -82538,8 +82643,8 @@
       </c>
     </row>
     <row r="690" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A690">
-        <v>143235</v>
+      <c r="A690" t="s">
+        <v>88</v>
       </c>
       <c r="B690">
         <v>5</v>
@@ -82657,8 +82762,8 @@
       </c>
     </row>
     <row r="691" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A691">
-        <v>143235</v>
+      <c r="A691" t="s">
+        <v>88</v>
       </c>
       <c r="B691">
         <v>6</v>
@@ -82776,8 +82881,8 @@
       </c>
     </row>
     <row r="692" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A692">
-        <v>143235</v>
+      <c r="A692" t="s">
+        <v>88</v>
       </c>
       <c r="B692">
         <v>7</v>
@@ -82895,8 +83000,8 @@
       </c>
     </row>
     <row r="693" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A693">
-        <v>143235</v>
+      <c r="A693" t="s">
+        <v>88</v>
       </c>
       <c r="B693">
         <v>8</v>
@@ -83014,8 +83119,8 @@
       </c>
     </row>
     <row r="694" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A694">
-        <v>143235</v>
+      <c r="A694" t="s">
+        <v>88</v>
       </c>
       <c r="B694">
         <v>9</v>
@@ -83133,8 +83238,8 @@
       </c>
     </row>
     <row r="695" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A695">
-        <v>143235</v>
+      <c r="A695" t="s">
+        <v>88</v>
       </c>
       <c r="B695">
         <v>10</v>
@@ -83252,8 +83357,8 @@
       </c>
     </row>
     <row r="696" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A696">
-        <v>143235</v>
+      <c r="A696" t="s">
+        <v>88</v>
       </c>
       <c r="B696">
         <v>11</v>
@@ -83371,8 +83476,8 @@
       </c>
     </row>
     <row r="697" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A697">
-        <v>143235</v>
+      <c r="A697" t="s">
+        <v>88</v>
       </c>
       <c r="B697">
         <v>12</v>
@@ -83490,8 +83595,8 @@
       </c>
     </row>
     <row r="698" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A698">
-        <v>143235</v>
+      <c r="A698" t="s">
+        <v>88</v>
       </c>
       <c r="B698">
         <v>13</v>
@@ -83609,8 +83714,8 @@
       </c>
     </row>
     <row r="699" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A699">
-        <v>143235</v>
+      <c r="A699" t="s">
+        <v>88</v>
       </c>
       <c r="B699">
         <v>14</v>
@@ -83728,8 +83833,8 @@
       </c>
     </row>
     <row r="700" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A700">
-        <v>143235</v>
+      <c r="A700" t="s">
+        <v>88</v>
       </c>
       <c r="B700">
         <v>15</v>
@@ -83847,8 +83952,8 @@
       </c>
     </row>
     <row r="701" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A701">
-        <v>143235</v>
+      <c r="A701" t="s">
+        <v>88</v>
       </c>
       <c r="B701">
         <v>16</v>
@@ -83966,8 +84071,8 @@
       </c>
     </row>
     <row r="702" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A702">
-        <v>143235</v>
+      <c r="A702" t="s">
+        <v>88</v>
       </c>
       <c r="B702">
         <v>17</v>
@@ -84085,8 +84190,8 @@
       </c>
     </row>
     <row r="703" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A703">
-        <v>143235</v>
+      <c r="A703" t="s">
+        <v>88</v>
       </c>
       <c r="B703">
         <v>18</v>
@@ -84204,8 +84309,8 @@
       </c>
     </row>
     <row r="704" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A704">
-        <v>143235</v>
+      <c r="A704" t="s">
+        <v>88</v>
       </c>
       <c r="B704">
         <v>19</v>
@@ -84323,8 +84428,8 @@
       </c>
     </row>
     <row r="705" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A705">
-        <v>143340</v>
+      <c r="A705" t="s">
+        <v>89</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -84442,8 +84547,8 @@
       </c>
     </row>
     <row r="706" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A706">
-        <v>143340</v>
+      <c r="A706" t="s">
+        <v>89</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -84561,8 +84666,8 @@
       </c>
     </row>
     <row r="707" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A707">
-        <v>143340</v>
+      <c r="A707" t="s">
+        <v>89</v>
       </c>
       <c r="B707">
         <v>3</v>
@@ -84680,8 +84785,8 @@
       </c>
     </row>
     <row r="708" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A708">
-        <v>143340</v>
+      <c r="A708" t="s">
+        <v>89</v>
       </c>
       <c r="B708">
         <v>4</v>
@@ -84799,8 +84904,8 @@
       </c>
     </row>
     <row r="709" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A709">
-        <v>143340</v>
+      <c r="A709" t="s">
+        <v>89</v>
       </c>
       <c r="B709">
         <v>5</v>
@@ -84918,8 +85023,8 @@
       </c>
     </row>
     <row r="710" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A710">
-        <v>143340</v>
+      <c r="A710" t="s">
+        <v>89</v>
       </c>
       <c r="B710">
         <v>6</v>
@@ -85037,8 +85142,8 @@
       </c>
     </row>
     <row r="711" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A711">
-        <v>143340</v>
+      <c r="A711" t="s">
+        <v>89</v>
       </c>
       <c r="B711">
         <v>7</v>
@@ -85156,8 +85261,8 @@
       </c>
     </row>
     <row r="712" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A712">
-        <v>143340</v>
+      <c r="A712" t="s">
+        <v>89</v>
       </c>
       <c r="B712">
         <v>8</v>
@@ -85275,8 +85380,8 @@
       </c>
     </row>
     <row r="713" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A713">
-        <v>143340</v>
+      <c r="A713" t="s">
+        <v>89</v>
       </c>
       <c r="B713">
         <v>9</v>
@@ -85394,8 +85499,8 @@
       </c>
     </row>
     <row r="714" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A714">
-        <v>143340</v>
+      <c r="A714" t="s">
+        <v>89</v>
       </c>
       <c r="B714">
         <v>10</v>
@@ -85513,8 +85618,8 @@
       </c>
     </row>
     <row r="715" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A715">
-        <v>143340</v>
+      <c r="A715" t="s">
+        <v>89</v>
       </c>
       <c r="B715">
         <v>11</v>
@@ -85632,8 +85737,8 @@
       </c>
     </row>
     <row r="716" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A716">
-        <v>143340</v>
+      <c r="A716" t="s">
+        <v>89</v>
       </c>
       <c r="B716">
         <v>12</v>
@@ -85751,8 +85856,8 @@
       </c>
     </row>
     <row r="717" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A717">
-        <v>143340</v>
+      <c r="A717" t="s">
+        <v>89</v>
       </c>
       <c r="B717">
         <v>13</v>
@@ -85870,8 +85975,8 @@
       </c>
     </row>
     <row r="718" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A718">
-        <v>143340</v>
+      <c r="A718" t="s">
+        <v>89</v>
       </c>
       <c r="B718">
         <v>14</v>
@@ -85989,8 +86094,8 @@
       </c>
     </row>
     <row r="719" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A719">
-        <v>143340</v>
+      <c r="A719" t="s">
+        <v>89</v>
       </c>
       <c r="B719">
         <v>15</v>
@@ -86108,8 +86213,8 @@
       </c>
     </row>
     <row r="720" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A720">
-        <v>143340</v>
+      <c r="A720" t="s">
+        <v>89</v>
       </c>
       <c r="B720">
         <v>16</v>
@@ -86227,8 +86332,8 @@
       </c>
     </row>
     <row r="721" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A721">
-        <v>143340</v>
+      <c r="A721" t="s">
+        <v>89</v>
       </c>
       <c r="B721">
         <v>17</v>
@@ -86346,8 +86451,8 @@
       </c>
     </row>
     <row r="722" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A722">
-        <v>143340</v>
+      <c r="A722" t="s">
+        <v>89</v>
       </c>
       <c r="B722">
         <v>18</v>
@@ -86465,8 +86570,8 @@
       </c>
     </row>
     <row r="723" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A723">
-        <v>143340</v>
+      <c r="A723" t="s">
+        <v>89</v>
       </c>
       <c r="B723">
         <v>19</v>
@@ -86584,8 +86689,8 @@
       </c>
     </row>
     <row r="724" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A724">
-        <v>143578</v>
+      <c r="A724" t="s">
+        <v>90</v>
       </c>
       <c r="B724">
         <v>1</v>
@@ -86703,8 +86808,8 @@
       </c>
     </row>
     <row r="725" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A725">
-        <v>143578</v>
+      <c r="A725" t="s">
+        <v>90</v>
       </c>
       <c r="B725">
         <v>2</v>
@@ -86822,8 +86927,8 @@
       </c>
     </row>
     <row r="726" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A726">
-        <v>143578</v>
+      <c r="A726" t="s">
+        <v>90</v>
       </c>
       <c r="B726">
         <v>3</v>
@@ -86941,8 +87046,8 @@
       </c>
     </row>
     <row r="727" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A727">
-        <v>143578</v>
+      <c r="A727" t="s">
+        <v>90</v>
       </c>
       <c r="B727">
         <v>4</v>
@@ -87060,8 +87165,8 @@
       </c>
     </row>
     <row r="728" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A728">
-        <v>143578</v>
+      <c r="A728" t="s">
+        <v>90</v>
       </c>
       <c r="B728">
         <v>5</v>
@@ -87179,8 +87284,8 @@
       </c>
     </row>
     <row r="729" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A729">
-        <v>143578</v>
+      <c r="A729" t="s">
+        <v>90</v>
       </c>
       <c r="B729">
         <v>6</v>
@@ -87298,8 +87403,8 @@
       </c>
     </row>
     <row r="730" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A730">
-        <v>143578</v>
+      <c r="A730" t="s">
+        <v>90</v>
       </c>
       <c r="B730">
         <v>7</v>
@@ -87417,8 +87522,8 @@
       </c>
     </row>
     <row r="731" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A731">
-        <v>143578</v>
+      <c r="A731" t="s">
+        <v>90</v>
       </c>
       <c r="B731">
         <v>8</v>
@@ -87536,8 +87641,8 @@
       </c>
     </row>
     <row r="732" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A732">
-        <v>143578</v>
+      <c r="A732" t="s">
+        <v>90</v>
       </c>
       <c r="B732">
         <v>9</v>
@@ -87655,8 +87760,8 @@
       </c>
     </row>
     <row r="733" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A733">
-        <v>143578</v>
+      <c r="A733" t="s">
+        <v>90</v>
       </c>
       <c r="B733">
         <v>10</v>
@@ -87774,8 +87879,8 @@
       </c>
     </row>
     <row r="734" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A734">
-        <v>143578</v>
+      <c r="A734" t="s">
+        <v>90</v>
       </c>
       <c r="B734">
         <v>11</v>
@@ -87893,8 +87998,8 @@
       </c>
     </row>
     <row r="735" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A735">
-        <v>143578</v>
+      <c r="A735" t="s">
+        <v>90</v>
       </c>
       <c r="B735">
         <v>12</v>
@@ -88012,8 +88117,8 @@
       </c>
     </row>
     <row r="736" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A736">
-        <v>143578</v>
+      <c r="A736" t="s">
+        <v>90</v>
       </c>
       <c r="B736">
         <v>13</v>
@@ -88131,8 +88236,8 @@
       </c>
     </row>
     <row r="737" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A737">
-        <v>143578</v>
+      <c r="A737" t="s">
+        <v>90</v>
       </c>
       <c r="B737">
         <v>14</v>
@@ -88250,8 +88355,8 @@
       </c>
     </row>
     <row r="738" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A738">
-        <v>143578</v>
+      <c r="A738" t="s">
+        <v>90</v>
       </c>
       <c r="B738">
         <v>15</v>
@@ -88369,8 +88474,8 @@
       </c>
     </row>
     <row r="739" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A739">
-        <v>143578</v>
+      <c r="A739" t="s">
+        <v>90</v>
       </c>
       <c r="B739">
         <v>16</v>
@@ -88488,8 +88593,8 @@
       </c>
     </row>
     <row r="740" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A740">
-        <v>143578</v>
+      <c r="A740" t="s">
+        <v>90</v>
       </c>
       <c r="B740">
         <v>17</v>
@@ -88607,8 +88712,8 @@
       </c>
     </row>
     <row r="741" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A741">
-        <v>143578</v>
+      <c r="A741" t="s">
+        <v>90</v>
       </c>
       <c r="B741">
         <v>18</v>
@@ -88726,8 +88831,8 @@
       </c>
     </row>
     <row r="742" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A742">
-        <v>143578</v>
+      <c r="A742" t="s">
+        <v>90</v>
       </c>
       <c r="B742">
         <v>19</v>
@@ -88845,8 +88950,8 @@
       </c>
     </row>
     <row r="743" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A743">
-        <v>143651</v>
+      <c r="A743" t="s">
+        <v>91</v>
       </c>
       <c r="B743">
         <v>1</v>
@@ -88964,8 +89069,8 @@
       </c>
     </row>
     <row r="744" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A744">
-        <v>143651</v>
+      <c r="A744" t="s">
+        <v>91</v>
       </c>
       <c r="B744">
         <v>2</v>
@@ -89083,8 +89188,8 @@
       </c>
     </row>
     <row r="745" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A745">
-        <v>143651</v>
+      <c r="A745" t="s">
+        <v>91</v>
       </c>
       <c r="B745">
         <v>3</v>
@@ -89202,8 +89307,8 @@
       </c>
     </row>
     <row r="746" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A746">
-        <v>143651</v>
+      <c r="A746" t="s">
+        <v>91</v>
       </c>
       <c r="B746">
         <v>4</v>
@@ -89321,8 +89426,8 @@
       </c>
     </row>
     <row r="747" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A747">
-        <v>143651</v>
+      <c r="A747" t="s">
+        <v>91</v>
       </c>
       <c r="B747">
         <v>5</v>
@@ -89440,8 +89545,8 @@
       </c>
     </row>
     <row r="748" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A748">
-        <v>143651</v>
+      <c r="A748" t="s">
+        <v>91</v>
       </c>
       <c r="B748">
         <v>6</v>
@@ -89559,8 +89664,8 @@
       </c>
     </row>
     <row r="749" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A749">
-        <v>143651</v>
+      <c r="A749" t="s">
+        <v>91</v>
       </c>
       <c r="B749">
         <v>7</v>
@@ -89678,8 +89783,8 @@
       </c>
     </row>
     <row r="750" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A750">
-        <v>143651</v>
+      <c r="A750" t="s">
+        <v>91</v>
       </c>
       <c r="B750">
         <v>8</v>
@@ -89797,8 +89902,8 @@
       </c>
     </row>
     <row r="751" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A751">
-        <v>143651</v>
+      <c r="A751" t="s">
+        <v>91</v>
       </c>
       <c r="B751">
         <v>9</v>
@@ -89916,8 +90021,8 @@
       </c>
     </row>
     <row r="752" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A752">
-        <v>143651</v>
+      <c r="A752" t="s">
+        <v>91</v>
       </c>
       <c r="B752">
         <v>10</v>
@@ -90035,8 +90140,8 @@
       </c>
     </row>
     <row r="753" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A753">
-        <v>143651</v>
+      <c r="A753" t="s">
+        <v>91</v>
       </c>
       <c r="B753">
         <v>11</v>
@@ -90154,8 +90259,8 @@
       </c>
     </row>
     <row r="754" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A754">
-        <v>143651</v>
+      <c r="A754" t="s">
+        <v>91</v>
       </c>
       <c r="B754">
         <v>12</v>
@@ -90273,8 +90378,8 @@
       </c>
     </row>
     <row r="755" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A755">
-        <v>143651</v>
+      <c r="A755" t="s">
+        <v>91</v>
       </c>
       <c r="B755">
         <v>13</v>
@@ -90392,8 +90497,8 @@
       </c>
     </row>
     <row r="756" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A756">
-        <v>143651</v>
+      <c r="A756" t="s">
+        <v>91</v>
       </c>
       <c r="B756">
         <v>14</v>
@@ -90511,8 +90616,8 @@
       </c>
     </row>
     <row r="757" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A757">
-        <v>143651</v>
+      <c r="A757" t="s">
+        <v>91</v>
       </c>
       <c r="B757">
         <v>15</v>
@@ -90630,8 +90735,8 @@
       </c>
     </row>
     <row r="758" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A758">
-        <v>143651</v>
+      <c r="A758" t="s">
+        <v>91</v>
       </c>
       <c r="B758">
         <v>16</v>
@@ -90749,8 +90854,8 @@
       </c>
     </row>
     <row r="759" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A759">
-        <v>143651</v>
+      <c r="A759" t="s">
+        <v>91</v>
       </c>
       <c r="B759">
         <v>17</v>
@@ -90868,8 +90973,8 @@
       </c>
     </row>
     <row r="760" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A760">
-        <v>143651</v>
+      <c r="A760" t="s">
+        <v>91</v>
       </c>
       <c r="B760">
         <v>18</v>
@@ -90987,8 +91092,8 @@
       </c>
     </row>
     <row r="761" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A761">
-        <v>143651</v>
+      <c r="A761" t="s">
+        <v>91</v>
       </c>
       <c r="B761">
         <v>19</v>
@@ -91106,8 +91211,8 @@
       </c>
     </row>
     <row r="762" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A762">
-        <v>143670</v>
+      <c r="A762" t="s">
+        <v>92</v>
       </c>
       <c r="B762">
         <v>1</v>
@@ -91225,8 +91330,8 @@
       </c>
     </row>
     <row r="763" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A763">
-        <v>143670</v>
+      <c r="A763" t="s">
+        <v>92</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -91344,8 +91449,8 @@
       </c>
     </row>
     <row r="764" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A764">
-        <v>143670</v>
+      <c r="A764" t="s">
+        <v>92</v>
       </c>
       <c r="B764">
         <v>3</v>
@@ -91463,8 +91568,8 @@
       </c>
     </row>
     <row r="765" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A765">
-        <v>143670</v>
+      <c r="A765" t="s">
+        <v>92</v>
       </c>
       <c r="B765">
         <v>4</v>
@@ -91582,8 +91687,8 @@
       </c>
     </row>
     <row r="766" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A766">
-        <v>143670</v>
+      <c r="A766" t="s">
+        <v>92</v>
       </c>
       <c r="B766">
         <v>5</v>
@@ -91701,8 +91806,8 @@
       </c>
     </row>
     <row r="767" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A767">
-        <v>143670</v>
+      <c r="A767" t="s">
+        <v>92</v>
       </c>
       <c r="B767">
         <v>6</v>
@@ -91820,8 +91925,8 @@
       </c>
     </row>
     <row r="768" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A768">
-        <v>143670</v>
+      <c r="A768" t="s">
+        <v>92</v>
       </c>
       <c r="B768">
         <v>7</v>
@@ -91939,8 +92044,8 @@
       </c>
     </row>
     <row r="769" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A769">
-        <v>143670</v>
+      <c r="A769" t="s">
+        <v>92</v>
       </c>
       <c r="B769">
         <v>8</v>
@@ -92058,8 +92163,8 @@
       </c>
     </row>
     <row r="770" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A770">
-        <v>143670</v>
+      <c r="A770" t="s">
+        <v>92</v>
       </c>
       <c r="B770">
         <v>9</v>
@@ -92177,8 +92282,8 @@
       </c>
     </row>
     <row r="771" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A771">
-        <v>143670</v>
+      <c r="A771" t="s">
+        <v>92</v>
       </c>
       <c r="B771">
         <v>10</v>
@@ -92296,8 +92401,8 @@
       </c>
     </row>
     <row r="772" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A772">
-        <v>143670</v>
+      <c r="A772" t="s">
+        <v>92</v>
       </c>
       <c r="B772">
         <v>11</v>
@@ -92415,8 +92520,8 @@
       </c>
     </row>
     <row r="773" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A773">
-        <v>143670</v>
+      <c r="A773" t="s">
+        <v>92</v>
       </c>
       <c r="B773">
         <v>12</v>
@@ -92534,8 +92639,8 @@
       </c>
     </row>
     <row r="774" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A774">
-        <v>143670</v>
+      <c r="A774" t="s">
+        <v>92</v>
       </c>
       <c r="B774">
         <v>13</v>
@@ -92653,8 +92758,8 @@
       </c>
     </row>
     <row r="775" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A775">
-        <v>143670</v>
+      <c r="A775" t="s">
+        <v>92</v>
       </c>
       <c r="B775">
         <v>14</v>
@@ -92772,8 +92877,8 @@
       </c>
     </row>
     <row r="776" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A776">
-        <v>143670</v>
+      <c r="A776" t="s">
+        <v>92</v>
       </c>
       <c r="B776">
         <v>15</v>
@@ -92891,8 +92996,8 @@
       </c>
     </row>
     <row r="777" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A777">
-        <v>143670</v>
+      <c r="A777" t="s">
+        <v>92</v>
       </c>
       <c r="B777">
         <v>16</v>
@@ -93010,8 +93115,8 @@
       </c>
     </row>
     <row r="778" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A778">
-        <v>143670</v>
+      <c r="A778" t="s">
+        <v>92</v>
       </c>
       <c r="B778">
         <v>17</v>
@@ -93129,8 +93234,8 @@
       </c>
     </row>
     <row r="779" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A779">
-        <v>143670</v>
+      <c r="A779" t="s">
+        <v>92</v>
       </c>
       <c r="B779">
         <v>18</v>
@@ -93248,8 +93353,8 @@
       </c>
     </row>
     <row r="780" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A780">
-        <v>143670</v>
+      <c r="A780" t="s">
+        <v>92</v>
       </c>
       <c r="B780">
         <v>19</v>

--- a/ValidationAnalysis/SparseLandmarkingManualAndAutomaticv20180226LOO.xlsx
+++ b/ValidationAnalysis/SparseLandmarkingManualAndAutomaticv20180226LOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\MeshMonkValidation\ValidationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD64BDFB-AAE2-4C79-A6BB-535354702045}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{227A29E1-83A1-4B92-B95A-31B52C1BF0E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Combined!$A$1:$U$780</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -204,109 +204,127 @@
     <t>B_ml_x3</t>
   </si>
   <si>
-    <t>MM_124</t>
+    <t>MM_657</t>
   </si>
   <si>
-    <t>MM_172</t>
+    <t>MM_886</t>
   </si>
   <si>
-    <t>MM_130</t>
+    <t>MM_758</t>
   </si>
   <si>
-    <t>MM_154</t>
+    <t>MM_678</t>
   </si>
   <si>
-    <t>MM_156</t>
+    <t>MM_667</t>
   </si>
   <si>
-    <t>MM_143</t>
+    <t>MM_533</t>
   </si>
   <si>
-    <t>MM_137</t>
+    <t>MM_118</t>
+  </si>
+  <si>
+    <t>MM_593</t>
+  </si>
+  <si>
+    <t>MM_582</t>
+  </si>
+  <si>
+    <t>MM_555</t>
+  </si>
+  <si>
+    <t>MM_837</t>
+  </si>
+  <si>
+    <t>MM_515</t>
+  </si>
+  <si>
+    <t>MM_204</t>
+  </si>
+  <si>
+    <t>MM_274</t>
+  </si>
+  <si>
+    <t>MM_623</t>
+  </si>
+  <si>
+    <t>MM_142</t>
+  </si>
+  <si>
+    <t>MM_421</t>
+  </si>
+  <si>
+    <t>MM_163</t>
+  </si>
+  <si>
+    <t>MM_630</t>
+  </si>
+  <si>
+    <t>MM_415</t>
+  </si>
+  <si>
+    <t>MM_747</t>
+  </si>
+  <si>
+    <t>MM_957</t>
+  </si>
+  <si>
+    <t>MM_716</t>
+  </si>
+  <si>
+    <t>MM_978</t>
+  </si>
+  <si>
+    <t>MM_458</t>
+  </si>
+  <si>
+    <t>MM_813</t>
+  </si>
+  <si>
+    <t>MM_588</t>
+  </si>
+  <si>
+    <t>MM_282</t>
+  </si>
+  <si>
+    <t>MM_536</t>
+  </si>
+  <si>
+    <t>MM_559</t>
+  </si>
+  <si>
+    <t>MM_713</t>
+  </si>
+  <si>
+    <t>MM_674</t>
+  </si>
+  <si>
+    <t>MM_770</t>
   </si>
   <si>
     <t>MM_150</t>
   </si>
   <si>
-    <t>MM_153</t>
-  </si>
-  <si>
-    <t>MM_179</t>
-  </si>
-  <si>
-    <t>MM_188</t>
-  </si>
-  <si>
-    <t>MM_142</t>
-  </si>
-  <si>
-    <t>MM_155</t>
-  </si>
-  <si>
-    <t>MM_125</t>
-  </si>
-  <si>
-    <t>MM_175</t>
-  </si>
-  <si>
-    <t>MM_165</t>
-  </si>
-  <si>
     <t>MM_147</t>
   </si>
   <si>
-    <t>MM_102</t>
+    <t>MM_425</t>
   </si>
   <si>
-    <t>MM_189</t>
+    <t>MM_537</t>
   </si>
   <si>
-    <t>MM_148</t>
+    <t>MM_226</t>
   </si>
   <si>
-    <t>MM_170</t>
+    <t>MM_968</t>
   </si>
   <si>
-    <t>MM_157</t>
+    <t>MM_561</t>
   </si>
   <si>
-    <t>MM_177</t>
-  </si>
-  <si>
-    <t>MM_138</t>
-  </si>
-  <si>
-    <t>MM_182</t>
-  </si>
-  <si>
-    <t>MM_120</t>
-  </si>
-  <si>
-    <t>MM_173</t>
-  </si>
-  <si>
-    <t>MM_186</t>
-  </si>
-  <si>
-    <t>MM_132</t>
-  </si>
-  <si>
-    <t>MM_174</t>
-  </si>
-  <si>
-    <t>MM_200</t>
-  </si>
-  <si>
-    <t>MM_160</t>
-  </si>
-  <si>
-    <t>MM_193</t>
-  </si>
-  <si>
-    <t>MM_171</t>
-  </si>
-  <si>
-    <t>MM_141</t>
+    <t>MM_975</t>
   </si>
 </sst>
 </file>
@@ -628,12 +646,12 @@
   <dimension ref="A1:AM780"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
@@ -32426,7 +32444,7 @@
     </row>
     <row r="268" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -32545,7 +32563,7 @@
     </row>
     <row r="269" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -32664,7 +32682,7 @@
     </row>
     <row r="270" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -32783,7 +32801,7 @@
     </row>
     <row r="271" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B271">
         <v>4</v>
@@ -32902,7 +32920,7 @@
     </row>
     <row r="272" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B272">
         <v>5</v>
@@ -33021,7 +33039,7 @@
     </row>
     <row r="273" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -33140,7 +33158,7 @@
     </row>
     <row r="274" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B274">
         <v>7</v>
@@ -33259,7 +33277,7 @@
     </row>
     <row r="275" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B275">
         <v>8</v>
@@ -33378,7 +33396,7 @@
     </row>
     <row r="276" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B276">
         <v>9</v>
@@ -33497,7 +33515,7 @@
     </row>
     <row r="277" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B277">
         <v>10</v>
@@ -33616,7 +33634,7 @@
     </row>
     <row r="278" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B278">
         <v>11</v>
@@ -33735,7 +33753,7 @@
     </row>
     <row r="279" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B279">
         <v>12</v>
@@ -33854,7 +33872,7 @@
     </row>
     <row r="280" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B280">
         <v>13</v>
@@ -33973,7 +33991,7 @@
     </row>
     <row r="281" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B281">
         <v>14</v>
@@ -34092,7 +34110,7 @@
     </row>
     <row r="282" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B282">
         <v>15</v>
@@ -34211,7 +34229,7 @@
     </row>
     <row r="283" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B283">
         <v>16</v>
@@ -34330,7 +34348,7 @@
     </row>
     <row r="284" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B284">
         <v>17</v>
@@ -34449,7 +34467,7 @@
     </row>
     <row r="285" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B285">
         <v>18</v>
@@ -34568,7 +34586,7 @@
     </row>
     <row r="286" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B286">
         <v>19</v>
@@ -34687,7 +34705,7 @@
     </row>
     <row r="287" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -34806,7 +34824,7 @@
     </row>
     <row r="288" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -34925,7 +34943,7 @@
     </row>
     <row r="289" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -35044,7 +35062,7 @@
     </row>
     <row r="290" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B290">
         <v>4</v>
@@ -35163,7 +35181,7 @@
     </row>
     <row r="291" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B291">
         <v>5</v>
@@ -35282,7 +35300,7 @@
     </row>
     <row r="292" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -35401,7 +35419,7 @@
     </row>
     <row r="293" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B293">
         <v>7</v>
@@ -35520,7 +35538,7 @@
     </row>
     <row r="294" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B294">
         <v>8</v>
@@ -35639,7 +35657,7 @@
     </row>
     <row r="295" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B295">
         <v>9</v>
@@ -35758,7 +35776,7 @@
     </row>
     <row r="296" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B296">
         <v>10</v>
@@ -35877,7 +35895,7 @@
     </row>
     <row r="297" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B297">
         <v>11</v>
@@ -35996,7 +36014,7 @@
     </row>
     <row r="298" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B298">
         <v>12</v>
@@ -36115,7 +36133,7 @@
     </row>
     <row r="299" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B299">
         <v>13</v>
@@ -36234,7 +36252,7 @@
     </row>
     <row r="300" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B300">
         <v>14</v>
@@ -36353,7 +36371,7 @@
     </row>
     <row r="301" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B301">
         <v>15</v>
@@ -36472,7 +36490,7 @@
     </row>
     <row r="302" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B302">
         <v>16</v>
@@ -36591,7 +36609,7 @@
     </row>
     <row r="303" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B303">
         <v>17</v>
@@ -36710,7 +36728,7 @@
     </row>
     <row r="304" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B304">
         <v>18</v>
@@ -36829,7 +36847,7 @@
     </row>
     <row r="305" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B305">
         <v>19</v>
@@ -36948,7 +36966,7 @@
     </row>
     <row r="306" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -37067,7 +37085,7 @@
     </row>
     <row r="307" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -37186,7 +37204,7 @@
     </row>
     <row r="308" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -37305,7 +37323,7 @@
     </row>
     <row r="309" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B309">
         <v>4</v>
@@ -37424,7 +37442,7 @@
     </row>
     <row r="310" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B310">
         <v>5</v>
@@ -37543,7 +37561,7 @@
     </row>
     <row r="311" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B311">
         <v>6</v>
@@ -37662,7 +37680,7 @@
     </row>
     <row r="312" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -37781,7 +37799,7 @@
     </row>
     <row r="313" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B313">
         <v>8</v>
@@ -37900,7 +37918,7 @@
     </row>
     <row r="314" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B314">
         <v>9</v>
@@ -38019,7 +38037,7 @@
     </row>
     <row r="315" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B315">
         <v>10</v>
@@ -38138,7 +38156,7 @@
     </row>
     <row r="316" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B316">
         <v>11</v>
@@ -38257,7 +38275,7 @@
     </row>
     <row r="317" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B317">
         <v>12</v>
@@ -38376,7 +38394,7 @@
     </row>
     <row r="318" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B318">
         <v>13</v>
@@ -38495,7 +38513,7 @@
     </row>
     <row r="319" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B319">
         <v>14</v>
@@ -38614,7 +38632,7 @@
     </row>
     <row r="320" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B320">
         <v>15</v>
@@ -38733,7 +38751,7 @@
     </row>
     <row r="321" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B321">
         <v>16</v>
@@ -38852,7 +38870,7 @@
     </row>
     <row r="322" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B322">
         <v>17</v>
@@ -38971,7 +38989,7 @@
     </row>
     <row r="323" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B323">
         <v>18</v>
@@ -39090,7 +39108,7 @@
     </row>
     <row r="324" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B324">
         <v>19</v>
@@ -39209,7 +39227,7 @@
     </row>
     <row r="325" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -39328,7 +39346,7 @@
     </row>
     <row r="326" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -39447,7 +39465,7 @@
     </row>
     <row r="327" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -39566,7 +39584,7 @@
     </row>
     <row r="328" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B328">
         <v>4</v>
@@ -39685,7 +39703,7 @@
     </row>
     <row r="329" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B329">
         <v>5</v>
@@ -39804,7 +39822,7 @@
     </row>
     <row r="330" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B330">
         <v>6</v>
@@ -39923,7 +39941,7 @@
     </row>
     <row r="331" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B331">
         <v>7</v>
@@ -40042,7 +40060,7 @@
     </row>
     <row r="332" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B332">
         <v>8</v>
@@ -40161,7 +40179,7 @@
     </row>
     <row r="333" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B333">
         <v>9</v>
@@ -40280,7 +40298,7 @@
     </row>
     <row r="334" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B334">
         <v>10</v>
@@ -40399,7 +40417,7 @@
     </row>
     <row r="335" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B335">
         <v>11</v>
@@ -40518,7 +40536,7 @@
     </row>
     <row r="336" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B336">
         <v>12</v>
@@ -40637,7 +40655,7 @@
     </row>
     <row r="337" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B337">
         <v>13</v>
@@ -40756,7 +40774,7 @@
     </row>
     <row r="338" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B338">
         <v>14</v>
@@ -40875,7 +40893,7 @@
     </row>
     <row r="339" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B339">
         <v>15</v>
@@ -40994,7 +41012,7 @@
     </row>
     <row r="340" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B340">
         <v>16</v>
@@ -41113,7 +41131,7 @@
     </row>
     <row r="341" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B341">
         <v>17</v>
@@ -41232,7 +41250,7 @@
     </row>
     <row r="342" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B342">
         <v>18</v>
@@ -41351,7 +41369,7 @@
     </row>
     <row r="343" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B343">
         <v>19</v>
@@ -41470,7 +41488,7 @@
     </row>
     <row r="344" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -41589,7 +41607,7 @@
     </row>
     <row r="345" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -41708,7 +41726,7 @@
     </row>
     <row r="346" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -41827,7 +41845,7 @@
     </row>
     <row r="347" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B347">
         <v>4</v>
@@ -41946,7 +41964,7 @@
     </row>
     <row r="348" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B348">
         <v>5</v>
@@ -42065,7 +42083,7 @@
     </row>
     <row r="349" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B349">
         <v>6</v>
@@ -42184,7 +42202,7 @@
     </row>
     <row r="350" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B350">
         <v>7</v>
@@ -42303,7 +42321,7 @@
     </row>
     <row r="351" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B351">
         <v>8</v>
@@ -42422,7 +42440,7 @@
     </row>
     <row r="352" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B352">
         <v>9</v>
@@ -42541,7 +42559,7 @@
     </row>
     <row r="353" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B353">
         <v>10</v>
@@ -42660,7 +42678,7 @@
     </row>
     <row r="354" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B354">
         <v>11</v>
@@ -42779,7 +42797,7 @@
     </row>
     <row r="355" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B355">
         <v>12</v>
@@ -42898,7 +42916,7 @@
     </row>
     <row r="356" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B356">
         <v>13</v>
@@ -43017,7 +43035,7 @@
     </row>
     <row r="357" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B357">
         <v>14</v>
@@ -43136,7 +43154,7 @@
     </row>
     <row r="358" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B358">
         <v>15</v>
@@ -43255,7 +43273,7 @@
     </row>
     <row r="359" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B359">
         <v>16</v>
@@ -43374,7 +43392,7 @@
     </row>
     <row r="360" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B360">
         <v>17</v>
@@ -43493,7 +43511,7 @@
     </row>
     <row r="361" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B361">
         <v>18</v>
@@ -43612,7 +43630,7 @@
     </row>
     <row r="362" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B362">
         <v>19</v>
@@ -43731,7 +43749,7 @@
     </row>
     <row r="363" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -43850,7 +43868,7 @@
     </row>
     <row r="364" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -43969,7 +43987,7 @@
     </row>
     <row r="365" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -44088,7 +44106,7 @@
     </row>
     <row r="366" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B366">
         <v>4</v>
@@ -44207,7 +44225,7 @@
     </row>
     <row r="367" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B367">
         <v>5</v>
@@ -44326,7 +44344,7 @@
     </row>
     <row r="368" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B368">
         <v>6</v>
@@ -44445,7 +44463,7 @@
     </row>
     <row r="369" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B369">
         <v>7</v>
@@ -44564,7 +44582,7 @@
     </row>
     <row r="370" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B370">
         <v>8</v>
@@ -44683,7 +44701,7 @@
     </row>
     <row r="371" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B371">
         <v>9</v>
@@ -44802,7 +44820,7 @@
     </row>
     <row r="372" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B372">
         <v>10</v>
@@ -44921,7 +44939,7 @@
     </row>
     <row r="373" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B373">
         <v>11</v>
@@ -45040,7 +45058,7 @@
     </row>
     <row r="374" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B374">
         <v>12</v>
@@ -45159,7 +45177,7 @@
     </row>
     <row r="375" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B375">
         <v>13</v>
@@ -45278,7 +45296,7 @@
     </row>
     <row r="376" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B376">
         <v>14</v>
@@ -45397,7 +45415,7 @@
     </row>
     <row r="377" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B377">
         <v>15</v>
@@ -45516,7 +45534,7 @@
     </row>
     <row r="378" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B378">
         <v>16</v>
@@ -45635,7 +45653,7 @@
     </row>
     <row r="379" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B379">
         <v>17</v>
@@ -45754,7 +45772,7 @@
     </row>
     <row r="380" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B380">
         <v>18</v>
@@ -45873,7 +45891,7 @@
     </row>
     <row r="381" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B381">
         <v>19</v>
@@ -45992,7 +46010,7 @@
     </row>
     <row r="382" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -46111,7 +46129,7 @@
     </row>
     <row r="383" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -46230,7 +46248,7 @@
     </row>
     <row r="384" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B384">
         <v>3</v>
@@ -46349,7 +46367,7 @@
     </row>
     <row r="385" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B385">
         <v>4</v>
@@ -46468,7 +46486,7 @@
     </row>
     <row r="386" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B386">
         <v>5</v>
@@ -46587,7 +46605,7 @@
     </row>
     <row r="387" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B387">
         <v>6</v>
@@ -46706,7 +46724,7 @@
     </row>
     <row r="388" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B388">
         <v>7</v>
@@ -46825,7 +46843,7 @@
     </row>
     <row r="389" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B389">
         <v>8</v>
@@ -46944,7 +46962,7 @@
     </row>
     <row r="390" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B390">
         <v>9</v>
@@ -47063,7 +47081,7 @@
     </row>
     <row r="391" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B391">
         <v>10</v>
@@ -47182,7 +47200,7 @@
     </row>
     <row r="392" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B392">
         <v>11</v>
@@ -47301,7 +47319,7 @@
     </row>
     <row r="393" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B393">
         <v>12</v>
@@ -47420,7 +47438,7 @@
     </row>
     <row r="394" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B394">
         <v>13</v>
@@ -47539,7 +47557,7 @@
     </row>
     <row r="395" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B395">
         <v>14</v>
@@ -47658,7 +47676,7 @@
     </row>
     <row r="396" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B396">
         <v>15</v>
@@ -47777,7 +47795,7 @@
     </row>
     <row r="397" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B397">
         <v>16</v>
@@ -47896,7 +47914,7 @@
     </row>
     <row r="398" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B398">
         <v>17</v>
@@ -48015,7 +48033,7 @@
     </row>
     <row r="399" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B399">
         <v>18</v>
@@ -48134,7 +48152,7 @@
     </row>
     <row r="400" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B400">
         <v>19</v>
@@ -48253,7 +48271,7 @@
     </row>
     <row r="401" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -48372,7 +48390,7 @@
     </row>
     <row r="402" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -48491,7 +48509,7 @@
     </row>
     <row r="403" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B403">
         <v>3</v>
@@ -48610,7 +48628,7 @@
     </row>
     <row r="404" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B404">
         <v>4</v>
@@ -48729,7 +48747,7 @@
     </row>
     <row r="405" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B405">
         <v>5</v>
@@ -48848,7 +48866,7 @@
     </row>
     <row r="406" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B406">
         <v>6</v>
@@ -48967,7 +48985,7 @@
     </row>
     <row r="407" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B407">
         <v>7</v>
@@ -49086,7 +49104,7 @@
     </row>
     <row r="408" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B408">
         <v>8</v>
@@ -49205,7 +49223,7 @@
     </row>
     <row r="409" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B409">
         <v>9</v>
@@ -49324,7 +49342,7 @@
     </row>
     <row r="410" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B410">
         <v>10</v>
@@ -49443,7 +49461,7 @@
     </row>
     <row r="411" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B411">
         <v>11</v>
@@ -49562,7 +49580,7 @@
     </row>
     <row r="412" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B412">
         <v>12</v>
@@ -49681,7 +49699,7 @@
     </row>
     <row r="413" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B413">
         <v>13</v>
@@ -49800,7 +49818,7 @@
     </row>
     <row r="414" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B414">
         <v>14</v>
@@ -49919,7 +49937,7 @@
     </row>
     <row r="415" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B415">
         <v>15</v>
@@ -50038,7 +50056,7 @@
     </row>
     <row r="416" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B416">
         <v>16</v>
@@ -50157,7 +50175,7 @@
     </row>
     <row r="417" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B417">
         <v>17</v>
@@ -50276,7 +50294,7 @@
     </row>
     <row r="418" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B418">
         <v>18</v>
@@ -50395,7 +50413,7 @@
     </row>
     <row r="419" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B419">
         <v>19</v>
@@ -50514,7 +50532,7 @@
     </row>
     <row r="420" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -50633,7 +50651,7 @@
     </row>
     <row r="421" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B421">
         <v>2</v>
@@ -50752,7 +50770,7 @@
     </row>
     <row r="422" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B422">
         <v>3</v>
@@ -50871,7 +50889,7 @@
     </row>
     <row r="423" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B423">
         <v>4</v>
@@ -50990,7 +51008,7 @@
     </row>
     <row r="424" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B424">
         <v>5</v>
@@ -51109,7 +51127,7 @@
     </row>
     <row r="425" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B425">
         <v>6</v>
@@ -51228,7 +51246,7 @@
     </row>
     <row r="426" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B426">
         <v>7</v>
@@ -51347,7 +51365,7 @@
     </row>
     <row r="427" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B427">
         <v>8</v>
@@ -51466,7 +51484,7 @@
     </row>
     <row r="428" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B428">
         <v>9</v>
@@ -51585,7 +51603,7 @@
     </row>
     <row r="429" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B429">
         <v>10</v>
@@ -51704,7 +51722,7 @@
     </row>
     <row r="430" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B430">
         <v>11</v>
@@ -51823,7 +51841,7 @@
     </row>
     <row r="431" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B431">
         <v>12</v>
@@ -51942,7 +51960,7 @@
     </row>
     <row r="432" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B432">
         <v>13</v>
@@ -52061,7 +52079,7 @@
     </row>
     <row r="433" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B433">
         <v>14</v>
@@ -52180,7 +52198,7 @@
     </row>
     <row r="434" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B434">
         <v>15</v>
@@ -52299,7 +52317,7 @@
     </row>
     <row r="435" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B435">
         <v>16</v>
@@ -52418,7 +52436,7 @@
     </row>
     <row r="436" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B436">
         <v>17</v>
@@ -52537,7 +52555,7 @@
     </row>
     <row r="437" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B437">
         <v>18</v>
@@ -52656,7 +52674,7 @@
     </row>
     <row r="438" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B438">
         <v>19</v>
@@ -52775,7 +52793,7 @@
     </row>
     <row r="439" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -52894,7 +52912,7 @@
     </row>
     <row r="440" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -53013,7 +53031,7 @@
     </row>
     <row r="441" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B441">
         <v>3</v>
@@ -53132,7 +53150,7 @@
     </row>
     <row r="442" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B442">
         <v>4</v>
@@ -53251,7 +53269,7 @@
     </row>
     <row r="443" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B443">
         <v>5</v>
@@ -53370,7 +53388,7 @@
     </row>
     <row r="444" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B444">
         <v>6</v>
@@ -53489,7 +53507,7 @@
     </row>
     <row r="445" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B445">
         <v>7</v>
@@ -53608,7 +53626,7 @@
     </row>
     <row r="446" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B446">
         <v>8</v>
@@ -53727,7 +53745,7 @@
     </row>
     <row r="447" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B447">
         <v>9</v>
@@ -53846,7 +53864,7 @@
     </row>
     <row r="448" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B448">
         <v>10</v>
@@ -53965,7 +53983,7 @@
     </row>
     <row r="449" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B449">
         <v>11</v>
@@ -54084,7 +54102,7 @@
     </row>
     <row r="450" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B450">
         <v>12</v>
@@ -54203,7 +54221,7 @@
     </row>
     <row r="451" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B451">
         <v>13</v>
@@ -54322,7 +54340,7 @@
     </row>
     <row r="452" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B452">
         <v>14</v>
@@ -54441,7 +54459,7 @@
     </row>
     <row r="453" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B453">
         <v>15</v>
@@ -54560,7 +54578,7 @@
     </row>
     <row r="454" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B454">
         <v>16</v>
@@ -54679,7 +54697,7 @@
     </row>
     <row r="455" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B455">
         <v>17</v>
@@ -54798,7 +54816,7 @@
     </row>
     <row r="456" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B456">
         <v>18</v>
@@ -54917,7 +54935,7 @@
     </row>
     <row r="457" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B457">
         <v>19</v>
@@ -55036,7 +55054,7 @@
     </row>
     <row r="458" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -55155,7 +55173,7 @@
     </row>
     <row r="459" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -55274,7 +55292,7 @@
     </row>
     <row r="460" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B460">
         <v>3</v>
@@ -55393,7 +55411,7 @@
     </row>
     <row r="461" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B461">
         <v>4</v>
@@ -55512,7 +55530,7 @@
     </row>
     <row r="462" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B462">
         <v>5</v>
@@ -55631,7 +55649,7 @@
     </row>
     <row r="463" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B463">
         <v>6</v>
@@ -55750,7 +55768,7 @@
     </row>
     <row r="464" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B464">
         <v>7</v>
@@ -55869,7 +55887,7 @@
     </row>
     <row r="465" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B465">
         <v>8</v>
@@ -55988,7 +56006,7 @@
     </row>
     <row r="466" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B466">
         <v>9</v>
@@ -56107,7 +56125,7 @@
     </row>
     <row r="467" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B467">
         <v>10</v>
@@ -56226,7 +56244,7 @@
     </row>
     <row r="468" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B468">
         <v>11</v>
@@ -56345,7 +56363,7 @@
     </row>
     <row r="469" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B469">
         <v>12</v>
@@ -56464,7 +56482,7 @@
     </row>
     <row r="470" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B470">
         <v>13</v>
@@ -56583,7 +56601,7 @@
     </row>
     <row r="471" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B471">
         <v>14</v>
@@ -56702,7 +56720,7 @@
     </row>
     <row r="472" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B472">
         <v>15</v>
@@ -56821,7 +56839,7 @@
     </row>
     <row r="473" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B473">
         <v>16</v>
@@ -56940,7 +56958,7 @@
     </row>
     <row r="474" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B474">
         <v>17</v>
@@ -57059,7 +57077,7 @@
     </row>
     <row r="475" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B475">
         <v>18</v>
@@ -57178,7 +57196,7 @@
     </row>
     <row r="476" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B476">
         <v>19</v>
@@ -57297,7 +57315,7 @@
     </row>
     <row r="477" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -57416,7 +57434,7 @@
     </row>
     <row r="478" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B478">
         <v>2</v>
@@ -57535,7 +57553,7 @@
     </row>
     <row r="479" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B479">
         <v>3</v>
@@ -57654,7 +57672,7 @@
     </row>
     <row r="480" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B480">
         <v>4</v>
@@ -57773,7 +57791,7 @@
     </row>
     <row r="481" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B481">
         <v>5</v>
@@ -57892,7 +57910,7 @@
     </row>
     <row r="482" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B482">
         <v>6</v>
@@ -58011,7 +58029,7 @@
     </row>
     <row r="483" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B483">
         <v>7</v>
@@ -58130,7 +58148,7 @@
     </row>
     <row r="484" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B484">
         <v>8</v>
@@ -58249,7 +58267,7 @@
     </row>
     <row r="485" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B485">
         <v>9</v>
@@ -58368,7 +58386,7 @@
     </row>
     <row r="486" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B486">
         <v>10</v>
@@ -58487,7 +58505,7 @@
     </row>
     <row r="487" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B487">
         <v>11</v>
@@ -58606,7 +58624,7 @@
     </row>
     <row r="488" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B488">
         <v>12</v>
@@ -58725,7 +58743,7 @@
     </row>
     <row r="489" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B489">
         <v>13</v>
@@ -58844,7 +58862,7 @@
     </row>
     <row r="490" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B490">
         <v>14</v>
@@ -58963,7 +58981,7 @@
     </row>
     <row r="491" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B491">
         <v>15</v>
@@ -59082,7 +59100,7 @@
     </row>
     <row r="492" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B492">
         <v>16</v>
@@ -59201,7 +59219,7 @@
     </row>
     <row r="493" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B493">
         <v>17</v>
@@ -59320,7 +59338,7 @@
     </row>
     <row r="494" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B494">
         <v>18</v>
@@ -59439,7 +59457,7 @@
     </row>
     <row r="495" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B495">
         <v>19</v>
@@ -59558,7 +59576,7 @@
     </row>
     <row r="496" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -59677,7 +59695,7 @@
     </row>
     <row r="497" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -59796,7 +59814,7 @@
     </row>
     <row r="498" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B498">
         <v>3</v>
@@ -59915,7 +59933,7 @@
     </row>
     <row r="499" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B499">
         <v>4</v>
@@ -60034,7 +60052,7 @@
     </row>
     <row r="500" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B500">
         <v>5</v>
@@ -60153,7 +60171,7 @@
     </row>
     <row r="501" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B501">
         <v>6</v>
@@ -60272,7 +60290,7 @@
     </row>
     <row r="502" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B502">
         <v>7</v>
@@ -60391,7 +60409,7 @@
     </row>
     <row r="503" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B503">
         <v>8</v>
@@ -60510,7 +60528,7 @@
     </row>
     <row r="504" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B504">
         <v>9</v>
@@ -60629,7 +60647,7 @@
     </row>
     <row r="505" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B505">
         <v>10</v>
@@ -60748,7 +60766,7 @@
     </row>
     <row r="506" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B506">
         <v>11</v>
@@ -60867,7 +60885,7 @@
     </row>
     <row r="507" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B507">
         <v>12</v>
@@ -60986,7 +61004,7 @@
     </row>
     <row r="508" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B508">
         <v>13</v>
@@ -61105,7 +61123,7 @@
     </row>
     <row r="509" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B509">
         <v>14</v>
@@ -61224,7 +61242,7 @@
     </row>
     <row r="510" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B510">
         <v>15</v>
@@ -61343,7 +61361,7 @@
     </row>
     <row r="511" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B511">
         <v>16</v>
@@ -61462,7 +61480,7 @@
     </row>
     <row r="512" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B512">
         <v>17</v>
@@ -61581,7 +61599,7 @@
     </row>
     <row r="513" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B513">
         <v>18</v>
@@ -61700,7 +61718,7 @@
     </row>
     <row r="514" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B514">
         <v>19</v>
@@ -61819,7 +61837,7 @@
     </row>
     <row r="515" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -61938,7 +61956,7 @@
     </row>
     <row r="516" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -62057,7 +62075,7 @@
     </row>
     <row r="517" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B517">
         <v>3</v>
@@ -62176,7 +62194,7 @@
     </row>
     <row r="518" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B518">
         <v>4</v>
@@ -62295,7 +62313,7 @@
     </row>
     <row r="519" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B519">
         <v>5</v>
@@ -62414,7 +62432,7 @@
     </row>
     <row r="520" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B520">
         <v>6</v>
@@ -62533,7 +62551,7 @@
     </row>
     <row r="521" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B521">
         <v>7</v>
@@ -62652,7 +62670,7 @@
     </row>
     <row r="522" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B522">
         <v>8</v>
@@ -62771,7 +62789,7 @@
     </row>
     <row r="523" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B523">
         <v>9</v>
@@ -62890,7 +62908,7 @@
     </row>
     <row r="524" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B524">
         <v>10</v>
@@ -63009,7 +63027,7 @@
     </row>
     <row r="525" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B525">
         <v>11</v>
@@ -63128,7 +63146,7 @@
     </row>
     <row r="526" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B526">
         <v>12</v>
@@ -63247,7 +63265,7 @@
     </row>
     <row r="527" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B527">
         <v>13</v>
@@ -63366,7 +63384,7 @@
     </row>
     <row r="528" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B528">
         <v>14</v>
@@ -63485,7 +63503,7 @@
     </row>
     <row r="529" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B529">
         <v>15</v>
@@ -63604,7 +63622,7 @@
     </row>
     <row r="530" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B530">
         <v>16</v>
@@ -63723,7 +63741,7 @@
     </row>
     <row r="531" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B531">
         <v>17</v>
@@ -63842,7 +63860,7 @@
     </row>
     <row r="532" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B532">
         <v>18</v>
@@ -63961,7 +63979,7 @@
     </row>
     <row r="533" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B533">
         <v>19</v>
@@ -64080,7 +64098,7 @@
     </row>
     <row r="534" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -64199,7 +64217,7 @@
     </row>
     <row r="535" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -64318,7 +64336,7 @@
     </row>
     <row r="536" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -64437,7 +64455,7 @@
     </row>
     <row r="537" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B537">
         <v>4</v>
@@ -64556,7 +64574,7 @@
     </row>
     <row r="538" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B538">
         <v>5</v>
@@ -64675,7 +64693,7 @@
     </row>
     <row r="539" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B539">
         <v>6</v>
@@ -64794,7 +64812,7 @@
     </row>
     <row r="540" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B540">
         <v>7</v>
@@ -64913,7 +64931,7 @@
     </row>
     <row r="541" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B541">
         <v>8</v>
@@ -65032,7 +65050,7 @@
     </row>
     <row r="542" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B542">
         <v>9</v>
@@ -65151,7 +65169,7 @@
     </row>
     <row r="543" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B543">
         <v>10</v>
@@ -65270,7 +65288,7 @@
     </row>
     <row r="544" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B544">
         <v>11</v>
@@ -65389,7 +65407,7 @@
     </row>
     <row r="545" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B545">
         <v>12</v>
@@ -65508,7 +65526,7 @@
     </row>
     <row r="546" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B546">
         <v>13</v>
@@ -65627,7 +65645,7 @@
     </row>
     <row r="547" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B547">
         <v>14</v>
@@ -65746,7 +65764,7 @@
     </row>
     <row r="548" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B548">
         <v>15</v>
@@ -65865,7 +65883,7 @@
     </row>
     <row r="549" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B549">
         <v>16</v>
@@ -65984,7 +66002,7 @@
     </row>
     <row r="550" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B550">
         <v>17</v>
@@ -66103,7 +66121,7 @@
     </row>
     <row r="551" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B551">
         <v>18</v>
@@ -66222,7 +66240,7 @@
     </row>
     <row r="552" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B552">
         <v>19</v>
@@ -66341,7 +66359,7 @@
     </row>
     <row r="553" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -66460,7 +66478,7 @@
     </row>
     <row r="554" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B554">
         <v>2</v>
@@ -66579,7 +66597,7 @@
     </row>
     <row r="555" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B555">
         <v>3</v>
@@ -66698,7 +66716,7 @@
     </row>
     <row r="556" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B556">
         <v>4</v>
@@ -66817,7 +66835,7 @@
     </row>
     <row r="557" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B557">
         <v>5</v>
@@ -66936,7 +66954,7 @@
     </row>
     <row r="558" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B558">
         <v>6</v>
@@ -67055,7 +67073,7 @@
     </row>
     <row r="559" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B559">
         <v>7</v>
@@ -67174,7 +67192,7 @@
     </row>
     <row r="560" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B560">
         <v>8</v>
@@ -67293,7 +67311,7 @@
     </row>
     <row r="561" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B561">
         <v>9</v>
@@ -67412,7 +67430,7 @@
     </row>
     <row r="562" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B562">
         <v>10</v>
@@ -67531,7 +67549,7 @@
     </row>
     <row r="563" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B563">
         <v>11</v>
@@ -67650,7 +67668,7 @@
     </row>
     <row r="564" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B564">
         <v>12</v>
@@ -67769,7 +67787,7 @@
     </row>
     <row r="565" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B565">
         <v>13</v>
@@ -67888,7 +67906,7 @@
     </row>
     <row r="566" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B566">
         <v>14</v>
@@ -68007,7 +68025,7 @@
     </row>
     <row r="567" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B567">
         <v>15</v>
@@ -68126,7 +68144,7 @@
     </row>
     <row r="568" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B568">
         <v>16</v>
@@ -68245,7 +68263,7 @@
     </row>
     <row r="569" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B569">
         <v>17</v>
@@ -68364,7 +68382,7 @@
     </row>
     <row r="570" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B570">
         <v>18</v>
@@ -68483,7 +68501,7 @@
     </row>
     <row r="571" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B571">
         <v>19</v>
@@ -68602,7 +68620,7 @@
     </row>
     <row r="572" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -68721,7 +68739,7 @@
     </row>
     <row r="573" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -68840,7 +68858,7 @@
     </row>
     <row r="574" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -68959,7 +68977,7 @@
     </row>
     <row r="575" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B575">
         <v>4</v>
@@ -69078,7 +69096,7 @@
     </row>
     <row r="576" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B576">
         <v>5</v>
@@ -69197,7 +69215,7 @@
     </row>
     <row r="577" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B577">
         <v>6</v>
@@ -69316,7 +69334,7 @@
     </row>
     <row r="578" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B578">
         <v>7</v>
@@ -69435,7 +69453,7 @@
     </row>
     <row r="579" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B579">
         <v>8</v>
@@ -69554,7 +69572,7 @@
     </row>
     <row r="580" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B580">
         <v>9</v>
@@ -69673,7 +69691,7 @@
     </row>
     <row r="581" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B581">
         <v>10</v>
@@ -69792,7 +69810,7 @@
     </row>
     <row r="582" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B582">
         <v>11</v>
@@ -69911,7 +69929,7 @@
     </row>
     <row r="583" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B583">
         <v>12</v>
@@ -70030,7 +70048,7 @@
     </row>
     <row r="584" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B584">
         <v>13</v>
@@ -70149,7 +70167,7 @@
     </row>
     <row r="585" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B585">
         <v>14</v>
@@ -70268,7 +70286,7 @@
     </row>
     <row r="586" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B586">
         <v>15</v>
@@ -70387,7 +70405,7 @@
     </row>
     <row r="587" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B587">
         <v>16</v>
@@ -70506,7 +70524,7 @@
     </row>
     <row r="588" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B588">
         <v>17</v>
@@ -70625,7 +70643,7 @@
     </row>
     <row r="589" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B589">
         <v>18</v>
@@ -70744,7 +70762,7 @@
     </row>
     <row r="590" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B590">
         <v>19</v>
@@ -70863,7 +70881,7 @@
     </row>
     <row r="591" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -70982,7 +71000,7 @@
     </row>
     <row r="592" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B592">
         <v>2</v>
@@ -71101,7 +71119,7 @@
     </row>
     <row r="593" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B593">
         <v>3</v>
@@ -71220,7 +71238,7 @@
     </row>
     <row r="594" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B594">
         <v>4</v>
@@ -71339,7 +71357,7 @@
     </row>
     <row r="595" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B595">
         <v>5</v>
@@ -71458,7 +71476,7 @@
     </row>
     <row r="596" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B596">
         <v>6</v>
@@ -71577,7 +71595,7 @@
     </row>
     <row r="597" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B597">
         <v>7</v>
@@ -71696,7 +71714,7 @@
     </row>
     <row r="598" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B598">
         <v>8</v>
@@ -71815,7 +71833,7 @@
     </row>
     <row r="599" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B599">
         <v>9</v>
@@ -71934,7 +71952,7 @@
     </row>
     <row r="600" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B600">
         <v>10</v>
@@ -72053,7 +72071,7 @@
     </row>
     <row r="601" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B601">
         <v>11</v>
@@ -72172,7 +72190,7 @@
     </row>
     <row r="602" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B602">
         <v>12</v>
@@ -72291,7 +72309,7 @@
     </row>
     <row r="603" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B603">
         <v>13</v>
@@ -72410,7 +72428,7 @@
     </row>
     <row r="604" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B604">
         <v>14</v>
@@ -72529,7 +72547,7 @@
     </row>
     <row r="605" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B605">
         <v>15</v>
@@ -72648,7 +72666,7 @@
     </row>
     <row r="606" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B606">
         <v>16</v>
@@ -72767,7 +72785,7 @@
     </row>
     <row r="607" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B607">
         <v>17</v>
@@ -72886,7 +72904,7 @@
     </row>
     <row r="608" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B608">
         <v>18</v>
@@ -73005,7 +73023,7 @@
     </row>
     <row r="609" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B609">
         <v>19</v>
@@ -73124,7 +73142,7 @@
     </row>
     <row r="610" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -73243,7 +73261,7 @@
     </row>
     <row r="611" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -73362,7 +73380,7 @@
     </row>
     <row r="612" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B612">
         <v>3</v>
@@ -73481,7 +73499,7 @@
     </row>
     <row r="613" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B613">
         <v>4</v>
@@ -73600,7 +73618,7 @@
     </row>
     <row r="614" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B614">
         <v>5</v>
@@ -73719,7 +73737,7 @@
     </row>
     <row r="615" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B615">
         <v>6</v>
@@ -73838,7 +73856,7 @@
     </row>
     <row r="616" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B616">
         <v>7</v>
@@ -73957,7 +73975,7 @@
     </row>
     <row r="617" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B617">
         <v>8</v>
@@ -74076,7 +74094,7 @@
     </row>
     <row r="618" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B618">
         <v>9</v>
@@ -74195,7 +74213,7 @@
     </row>
     <row r="619" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B619">
         <v>10</v>
@@ -74314,7 +74332,7 @@
     </row>
     <row r="620" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B620">
         <v>11</v>
@@ -74433,7 +74451,7 @@
     </row>
     <row r="621" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B621">
         <v>12</v>
@@ -74552,7 +74570,7 @@
     </row>
     <row r="622" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B622">
         <v>13</v>
@@ -74671,7 +74689,7 @@
     </row>
     <row r="623" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B623">
         <v>14</v>
@@ -74790,7 +74808,7 @@
     </row>
     <row r="624" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B624">
         <v>15</v>
@@ -74909,7 +74927,7 @@
     </row>
     <row r="625" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B625">
         <v>16</v>
@@ -75028,7 +75046,7 @@
     </row>
     <row r="626" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B626">
         <v>17</v>
@@ -75147,7 +75165,7 @@
     </row>
     <row r="627" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B627">
         <v>18</v>
@@ -75266,7 +75284,7 @@
     </row>
     <row r="628" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B628">
         <v>19</v>
@@ -75385,7 +75403,7 @@
     </row>
     <row r="629" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -75504,7 +75522,7 @@
     </row>
     <row r="630" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B630">
         <v>2</v>
@@ -75623,7 +75641,7 @@
     </row>
     <row r="631" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B631">
         <v>3</v>
@@ -75742,7 +75760,7 @@
     </row>
     <row r="632" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B632">
         <v>4</v>
@@ -75861,7 +75879,7 @@
     </row>
     <row r="633" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B633">
         <v>5</v>
@@ -75980,7 +75998,7 @@
     </row>
     <row r="634" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B634">
         <v>6</v>
@@ -76099,7 +76117,7 @@
     </row>
     <row r="635" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B635">
         <v>7</v>
@@ -76218,7 +76236,7 @@
     </row>
     <row r="636" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B636">
         <v>8</v>
@@ -76337,7 +76355,7 @@
     </row>
     <row r="637" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B637">
         <v>9</v>
@@ -76456,7 +76474,7 @@
     </row>
     <row r="638" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B638">
         <v>10</v>
@@ -76575,7 +76593,7 @@
     </row>
     <row r="639" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B639">
         <v>11</v>
@@ -76694,7 +76712,7 @@
     </row>
     <row r="640" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B640">
         <v>12</v>
@@ -76813,7 +76831,7 @@
     </row>
     <row r="641" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B641">
         <v>13</v>
@@ -76932,7 +76950,7 @@
     </row>
     <row r="642" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B642">
         <v>14</v>
@@ -77051,7 +77069,7 @@
     </row>
     <row r="643" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B643">
         <v>15</v>
@@ -77170,7 +77188,7 @@
     </row>
     <row r="644" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B644">
         <v>16</v>
@@ -77289,7 +77307,7 @@
     </row>
     <row r="645" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B645">
         <v>17</v>
@@ -77408,7 +77426,7 @@
     </row>
     <row r="646" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B646">
         <v>18</v>
@@ -77527,7 +77545,7 @@
     </row>
     <row r="647" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B647">
         <v>19</v>
@@ -77646,7 +77664,7 @@
     </row>
     <row r="648" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -77765,7 +77783,7 @@
     </row>
     <row r="649" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -77884,7 +77902,7 @@
     </row>
     <row r="650" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B650">
         <v>3</v>
@@ -78003,7 +78021,7 @@
     </row>
     <row r="651" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B651">
         <v>4</v>
@@ -78122,7 +78140,7 @@
     </row>
     <row r="652" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B652">
         <v>5</v>
@@ -78241,7 +78259,7 @@
     </row>
     <row r="653" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B653">
         <v>6</v>
@@ -78360,7 +78378,7 @@
     </row>
     <row r="654" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B654">
         <v>7</v>
@@ -78479,7 +78497,7 @@
     </row>
     <row r="655" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B655">
         <v>8</v>
@@ -78598,7 +78616,7 @@
     </row>
     <row r="656" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B656">
         <v>9</v>
@@ -78717,7 +78735,7 @@
     </row>
     <row r="657" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B657">
         <v>10</v>
@@ -78836,7 +78854,7 @@
     </row>
     <row r="658" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B658">
         <v>11</v>
@@ -78955,7 +78973,7 @@
     </row>
     <row r="659" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B659">
         <v>12</v>
@@ -79074,7 +79092,7 @@
     </row>
     <row r="660" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B660">
         <v>13</v>
@@ -79193,7 +79211,7 @@
     </row>
     <row r="661" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B661">
         <v>14</v>
@@ -79312,7 +79330,7 @@
     </row>
     <row r="662" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B662">
         <v>15</v>
@@ -79431,7 +79449,7 @@
     </row>
     <row r="663" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B663">
         <v>16</v>
@@ -79550,7 +79568,7 @@
     </row>
     <row r="664" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B664">
         <v>17</v>
@@ -79669,7 +79687,7 @@
     </row>
     <row r="665" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B665">
         <v>18</v>
@@ -79788,7 +79806,7 @@
     </row>
     <row r="666" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B666">
         <v>19</v>
@@ -79907,7 +79925,7 @@
     </row>
     <row r="667" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -80026,7 +80044,7 @@
     </row>
     <row r="668" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B668">
         <v>2</v>
@@ -80145,7 +80163,7 @@
     </row>
     <row r="669" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B669">
         <v>3</v>
@@ -80264,7 +80282,7 @@
     </row>
     <row r="670" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B670">
         <v>4</v>
@@ -80383,7 +80401,7 @@
     </row>
     <row r="671" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B671">
         <v>5</v>
@@ -80502,7 +80520,7 @@
     </row>
     <row r="672" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B672">
         <v>6</v>
@@ -80621,7 +80639,7 @@
     </row>
     <row r="673" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B673">
         <v>7</v>
@@ -80740,7 +80758,7 @@
     </row>
     <row r="674" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B674">
         <v>8</v>
@@ -80859,7 +80877,7 @@
     </row>
     <row r="675" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B675">
         <v>9</v>
@@ -80978,7 +80996,7 @@
     </row>
     <row r="676" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B676">
         <v>10</v>
@@ -81097,7 +81115,7 @@
     </row>
     <row r="677" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B677">
         <v>11</v>
@@ -81216,7 +81234,7 @@
     </row>
     <row r="678" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B678">
         <v>12</v>
@@ -81335,7 +81353,7 @@
     </row>
     <row r="679" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B679">
         <v>13</v>
@@ -81454,7 +81472,7 @@
     </row>
     <row r="680" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B680">
         <v>14</v>
@@ -81573,7 +81591,7 @@
     </row>
     <row r="681" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B681">
         <v>15</v>
@@ -81692,7 +81710,7 @@
     </row>
     <row r="682" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B682">
         <v>16</v>
@@ -81811,7 +81829,7 @@
     </row>
     <row r="683" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B683">
         <v>17</v>
@@ -81930,7 +81948,7 @@
     </row>
     <row r="684" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B684">
         <v>18</v>
@@ -82049,7 +82067,7 @@
     </row>
     <row r="685" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B685">
         <v>19</v>
@@ -82168,7 +82186,7 @@
     </row>
     <row r="686" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -82287,7 +82305,7 @@
     </row>
     <row r="687" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -82406,7 +82424,7 @@
     </row>
     <row r="688" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B688">
         <v>3</v>
@@ -82525,7 +82543,7 @@
     </row>
     <row r="689" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B689">
         <v>4</v>
@@ -82644,7 +82662,7 @@
     </row>
     <row r="690" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B690">
         <v>5</v>
@@ -82763,7 +82781,7 @@
     </row>
     <row r="691" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B691">
         <v>6</v>
@@ -82882,7 +82900,7 @@
     </row>
     <row r="692" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B692">
         <v>7</v>
@@ -83001,7 +83019,7 @@
     </row>
     <row r="693" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B693">
         <v>8</v>
@@ -83120,7 +83138,7 @@
     </row>
     <row r="694" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B694">
         <v>9</v>
@@ -83239,7 +83257,7 @@
     </row>
     <row r="695" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B695">
         <v>10</v>
@@ -83358,7 +83376,7 @@
     </row>
     <row r="696" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B696">
         <v>11</v>
@@ -83477,7 +83495,7 @@
     </row>
     <row r="697" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B697">
         <v>12</v>
@@ -83596,7 +83614,7 @@
     </row>
     <row r="698" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B698">
         <v>13</v>
@@ -83715,7 +83733,7 @@
     </row>
     <row r="699" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B699">
         <v>14</v>
@@ -83834,7 +83852,7 @@
     </row>
     <row r="700" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B700">
         <v>15</v>
@@ -83953,7 +83971,7 @@
     </row>
     <row r="701" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B701">
         <v>16</v>
@@ -84072,7 +84090,7 @@
     </row>
     <row r="702" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B702">
         <v>17</v>
@@ -84191,7 +84209,7 @@
     </row>
     <row r="703" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B703">
         <v>18</v>
@@ -84310,7 +84328,7 @@
     </row>
     <row r="704" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B704">
         <v>19</v>
@@ -84429,7 +84447,7 @@
     </row>
     <row r="705" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -84548,7 +84566,7 @@
     </row>
     <row r="706" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -84667,7 +84685,7 @@
     </row>
     <row r="707" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B707">
         <v>3</v>
@@ -84786,7 +84804,7 @@
     </row>
     <row r="708" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B708">
         <v>4</v>
@@ -84905,7 +84923,7 @@
     </row>
     <row r="709" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B709">
         <v>5</v>
@@ -85024,7 +85042,7 @@
     </row>
     <row r="710" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B710">
         <v>6</v>
@@ -85143,7 +85161,7 @@
     </row>
     <row r="711" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B711">
         <v>7</v>
@@ -85262,7 +85280,7 @@
     </row>
     <row r="712" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B712">
         <v>8</v>
@@ -85381,7 +85399,7 @@
     </row>
     <row r="713" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B713">
         <v>9</v>
@@ -85500,7 +85518,7 @@
     </row>
     <row r="714" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B714">
         <v>10</v>
@@ -85619,7 +85637,7 @@
     </row>
     <row r="715" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B715">
         <v>11</v>
@@ -85738,7 +85756,7 @@
     </row>
     <row r="716" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B716">
         <v>12</v>
@@ -85857,7 +85875,7 @@
     </row>
     <row r="717" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B717">
         <v>13</v>
@@ -85976,7 +85994,7 @@
     </row>
     <row r="718" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B718">
         <v>14</v>
@@ -86095,7 +86113,7 @@
     </row>
     <row r="719" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B719">
         <v>15</v>
@@ -86214,7 +86232,7 @@
     </row>
     <row r="720" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B720">
         <v>16</v>
@@ -86333,7 +86351,7 @@
     </row>
     <row r="721" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B721">
         <v>17</v>
@@ -86452,7 +86470,7 @@
     </row>
     <row r="722" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B722">
         <v>18</v>
@@ -86571,7 +86589,7 @@
     </row>
     <row r="723" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B723">
         <v>19</v>
@@ -86690,7 +86708,7 @@
     </row>
     <row r="724" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B724">
         <v>1</v>
@@ -86809,7 +86827,7 @@
     </row>
     <row r="725" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B725">
         <v>2</v>
@@ -86928,7 +86946,7 @@
     </row>
     <row r="726" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B726">
         <v>3</v>
@@ -87047,7 +87065,7 @@
     </row>
     <row r="727" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B727">
         <v>4</v>
@@ -87166,7 +87184,7 @@
     </row>
     <row r="728" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B728">
         <v>5</v>
@@ -87285,7 +87303,7 @@
     </row>
     <row r="729" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B729">
         <v>6</v>
@@ -87404,7 +87422,7 @@
     </row>
     <row r="730" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B730">
         <v>7</v>
@@ -87523,7 +87541,7 @@
     </row>
     <row r="731" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B731">
         <v>8</v>
@@ -87642,7 +87660,7 @@
     </row>
     <row r="732" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B732">
         <v>9</v>
@@ -87761,7 +87779,7 @@
     </row>
     <row r="733" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B733">
         <v>10</v>
@@ -87880,7 +87898,7 @@
     </row>
     <row r="734" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B734">
         <v>11</v>
@@ -87999,7 +88017,7 @@
     </row>
     <row r="735" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B735">
         <v>12</v>
@@ -88118,7 +88136,7 @@
     </row>
     <row r="736" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B736">
         <v>13</v>
@@ -88237,7 +88255,7 @@
     </row>
     <row r="737" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B737">
         <v>14</v>
@@ -88356,7 +88374,7 @@
     </row>
     <row r="738" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B738">
         <v>15</v>
@@ -88475,7 +88493,7 @@
     </row>
     <row r="739" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B739">
         <v>16</v>
@@ -88594,7 +88612,7 @@
     </row>
     <row r="740" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B740">
         <v>17</v>
@@ -88713,7 +88731,7 @@
     </row>
     <row r="741" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B741">
         <v>18</v>
@@ -88832,7 +88850,7 @@
     </row>
     <row r="742" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B742">
         <v>19</v>
@@ -88951,7 +88969,7 @@
     </row>
     <row r="743" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B743">
         <v>1</v>
@@ -89070,7 +89088,7 @@
     </row>
     <row r="744" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B744">
         <v>2</v>
@@ -89189,7 +89207,7 @@
     </row>
     <row r="745" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B745">
         <v>3</v>
@@ -89308,7 +89326,7 @@
     </row>
     <row r="746" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B746">
         <v>4</v>
@@ -89427,7 +89445,7 @@
     </row>
     <row r="747" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B747">
         <v>5</v>
@@ -89546,7 +89564,7 @@
     </row>
     <row r="748" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B748">
         <v>6</v>
@@ -89665,7 +89683,7 @@
     </row>
     <row r="749" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B749">
         <v>7</v>
@@ -89784,7 +89802,7 @@
     </row>
     <row r="750" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B750">
         <v>8</v>
@@ -89903,7 +89921,7 @@
     </row>
     <row r="751" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B751">
         <v>9</v>
@@ -90022,7 +90040,7 @@
     </row>
     <row r="752" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B752">
         <v>10</v>
@@ -90141,7 +90159,7 @@
     </row>
     <row r="753" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B753">
         <v>11</v>
@@ -90260,7 +90278,7 @@
     </row>
     <row r="754" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B754">
         <v>12</v>
@@ -90379,7 +90397,7 @@
     </row>
     <row r="755" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B755">
         <v>13</v>
@@ -90498,7 +90516,7 @@
     </row>
     <row r="756" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B756">
         <v>14</v>
@@ -90617,7 +90635,7 @@
     </row>
     <row r="757" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B757">
         <v>15</v>
@@ -90736,7 +90754,7 @@
     </row>
     <row r="758" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B758">
         <v>16</v>
@@ -90855,7 +90873,7 @@
     </row>
     <row r="759" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B759">
         <v>17</v>
@@ -90974,7 +90992,7 @@
     </row>
     <row r="760" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B760">
         <v>18</v>
@@ -91093,7 +91111,7 @@
     </row>
     <row r="761" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B761">
         <v>19</v>
@@ -91212,7 +91230,7 @@
     </row>
     <row r="762" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B762">
         <v>1</v>
@@ -91331,7 +91349,7 @@
     </row>
     <row r="763" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -91450,7 +91468,7 @@
     </row>
     <row r="764" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B764">
         <v>3</v>
@@ -91569,7 +91587,7 @@
     </row>
     <row r="765" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B765">
         <v>4</v>
@@ -91688,7 +91706,7 @@
     </row>
     <row r="766" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B766">
         <v>5</v>
@@ -91807,7 +91825,7 @@
     </row>
     <row r="767" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B767">
         <v>6</v>
@@ -91926,7 +91944,7 @@
     </row>
     <row r="768" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B768">
         <v>7</v>
@@ -92045,7 +92063,7 @@
     </row>
     <row r="769" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B769">
         <v>8</v>
@@ -92164,7 +92182,7 @@
     </row>
     <row r="770" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B770">
         <v>9</v>
@@ -92283,7 +92301,7 @@
     </row>
     <row r="771" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B771">
         <v>10</v>
@@ -92402,7 +92420,7 @@
     </row>
     <row r="772" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B772">
         <v>11</v>
@@ -92521,7 +92539,7 @@
     </row>
     <row r="773" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B773">
         <v>12</v>
@@ -92640,7 +92658,7 @@
     </row>
     <row r="774" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B774">
         <v>13</v>
@@ -92759,7 +92777,7 @@
     </row>
     <row r="775" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B775">
         <v>14</v>
@@ -92878,7 +92896,7 @@
     </row>
     <row r="776" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B776">
         <v>15</v>
@@ -92997,7 +93015,7 @@
     </row>
     <row r="777" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B777">
         <v>16</v>
@@ -93116,7 +93134,7 @@
     </row>
     <row r="778" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B778">
         <v>17</v>
@@ -93235,7 +93253,7 @@
     </row>
     <row r="779" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B779">
         <v>18</v>
@@ -93354,7 +93372,7 @@
     </row>
     <row r="780" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B780">
         <v>19</v>
